--- a/data/balance_sheet/3digits/total/370_BS_TOTAL.xlsx
+++ b/data/balance_sheet/3digits/total/370_BS_TOTAL.xlsx
@@ -3,656 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KBIL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KBIL!$A$1:$M$245</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KBIL'!$A$1:$N$245</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
-  <si>
-    <t>370-Sewerage</t>
-  </si>
-  <si>
-    <t>BALANCE SHEET (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>ASSETS</t>
-  </si>
-  <si>
-    <t>I-CURRENT ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A-Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Checks Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Banks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Customers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Receivable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Other Short-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Receivables from Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Receivables from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Receivables from Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Doubtful Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Work in Progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Finished Goods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Merchandise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Advances on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
-  </si>
-  <si>
-    <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t>3- Advances to Subcontractors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H- Other Current Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- V.A.T. Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other V.A.T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Business Related Advances </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Advances to employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
-  </si>
-  <si>
-    <t>II- FIXED ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Other Long-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Non-Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Land</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Land Improvements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Buildings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Motor Vehicles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Assets in Construction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Know-How</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Goodwill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Research and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Assets Subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Exploration Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Preparation and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Other Long-Term Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other V.A.T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Prepaid taxes and funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Suspence Account</t>
-  </si>
-  <si>
-    <t>TOTAL ASSETS</t>
-  </si>
-  <si>
-    <t>LIABILITIES</t>
-  </si>
-  <si>
-    <t>I- SHORT-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Bank Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Financial Leasing Payables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Commercial Papers Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Creditors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Short-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Amounts Owed to Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Amounts Owed to Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Taxes and Funds Payable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Social Security Costs Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Provisions for Severance Payments </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Provisions for Costs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Calculated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
-  </si>
-  <si>
-    <t>II- LONG-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Bonds Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Financial Liabilities </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Long-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D-Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Severance Payments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Provisions </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other </t>
-  </si>
-  <si>
-    <t>III- SHAREHOLDERS EQUITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Paid-in Capital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Subscribed Capital </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Share Premium Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation of Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Legal Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Extraordinary Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Profit Brought Forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Profit for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
-  </si>
-  <si>
-    <t>TOTAL LIABILITIES</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -899,178 +267,246 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="71">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1365,22 +801,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N245"/>
+  <dimension ref="A1:O245"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A202" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="B210" sqref="B210"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="12.75" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="20" width="0.625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="20" width="35.5"/>
-    <col customWidth="1" max="13" min="3" style="20" width="11.625"/>
-    <col customWidth="1" max="14" min="14" style="20" width="2"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="14"/>
+    <col width="0.625" customWidth="1" style="20" min="1" max="1"/>
+    <col width="35.5" bestFit="1" customWidth="1" style="20" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="20" min="3" max="14"/>
+    <col width="2" customWidth="1" style="20" min="15" max="15"/>
+    <col hidden="1" style="14" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="9.949999999999999" r="1" s="70" spans="1:14">
+    <row r="1" ht="9.949999999999999" customHeight="1" s="70">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="29" t="n"/>
       <c r="C1" s="29" t="n"/>
@@ -1394,11 +830,14 @@
       <c r="K1" s="29" t="n"/>
       <c r="L1" s="29" t="n"/>
       <c r="M1" s="29" t="n"/>
-      <c r="N1" s="1" t="n"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
+      <c r="N1" s="29" t="n"/>
+      <c r="O1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>370-Sewerage</t>
+        </is>
       </c>
       <c r="B2" s="27" t="n"/>
       <c r="C2" s="54" t="n"/>
@@ -1412,11 +851,14 @@
       <c r="K2" s="54" t="n"/>
       <c r="L2" s="54" t="n"/>
       <c r="M2" s="54" t="n"/>
-      <c r="N2" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="3" s="70" spans="1:14">
-      <c r="A3" s="55" t="s">
-        <v>1</v>
+      <c r="N2" s="54" t="n"/>
+      <c r="O2" s="10" t="n"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="70">
+      <c r="A3" s="55" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B3" s="14" t="n"/>
       <c r="C3" s="29" t="n"/>
@@ -1430,12 +872,15 @@
       <c r="K3" s="29" t="n"/>
       <c r="L3" s="29" t="n"/>
       <c r="M3" s="29" t="n"/>
-      <c r="N3" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="4" s="70" spans="1:14">
+      <c r="N3" s="29" t="n"/>
+      <c r="O3" s="1" t="n"/>
+    </row>
+    <row r="4" ht="25.5" customHeight="1" s="70">
       <c r="A4" s="3" t="n"/>
-      <c r="B4" s="30" t="s">
-        <v>2</v>
+      <c r="B4" s="30" t="inlineStr">
+        <is>
+          <t>ASSETS</t>
+        </is>
       </c>
       <c r="C4" s="31" t="n">
         <v>2009</v>
@@ -1470,15 +915,20 @@
       <c r="M4" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N4" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="5" s="70" spans="1:14">
+      <c r="N4" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O4" s="10" t="n"/>
+    </row>
+    <row r="5" ht="12.6" customHeight="1" s="70">
       <c r="A5" s="5" t="n"/>
-      <c r="B5" s="56" t="s">
-        <v>3</v>
+      <c r="B5" s="56" t="inlineStr">
+        <is>
+          <t>I-CURRENT ASSETS</t>
+        </is>
       </c>
       <c r="C5" s="32" t="n">
-        <v>76453.24801000001</v>
+        <v>76453.24801</v>
       </c>
       <c r="D5" s="32" t="n">
         <v>115596.044</v>
@@ -1496,26 +946,31 @@
         <v>248754.20052</v>
       </c>
       <c r="I5" s="32" t="n">
-        <v>322961.51957</v>
+        <v>332086.81639</v>
       </c>
       <c r="J5" s="33" t="n">
-        <v>434083.7643099999</v>
+        <v>434083.76431</v>
       </c>
       <c r="K5" s="32" t="n">
         <v>440676.7014199999</v>
       </c>
       <c r="L5" s="32" t="n">
-        <v>474033.52108</v>
+        <v>491079.79963</v>
       </c>
       <c r="M5" s="32" t="n">
-        <v>689031.04479</v>
-      </c>
-      <c r="N5" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="6" s="70" spans="1:14">
+        <v>828859.8200399999</v>
+      </c>
+      <c r="N5" s="32" t="n">
+        <v>1130974.104</v>
+      </c>
+      <c r="O5" s="10" t="n"/>
+    </row>
+    <row r="6" ht="12.6" customHeight="1" s="70">
       <c r="A6" s="8" t="n"/>
-      <c r="B6" s="57" t="s">
-        <v>4</v>
+      <c r="B6" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A-Liquid Assets</t>
+        </is>
       </c>
       <c r="C6" s="23" t="n">
         <v>13145.09734</v>
@@ -1530,32 +985,37 @@
         <v>22623.5811</v>
       </c>
       <c r="G6" s="23" t="n">
-        <v>52457.04825</v>
+        <v>52457.04825000001</v>
       </c>
       <c r="H6" s="33" t="n">
         <v>43246.56328</v>
       </c>
       <c r="I6" s="23" t="n">
-        <v>47187.95026999999</v>
+        <v>47827.55276999999</v>
       </c>
       <c r="J6" s="33" t="n">
         <v>74499.61246999999</v>
       </c>
       <c r="K6" s="23" t="n">
-        <v>49146.64562999999</v>
+        <v>49146.64563</v>
       </c>
       <c r="L6" s="23" t="n">
-        <v>49098.11829999999</v>
+        <v>49391.19665</v>
       </c>
       <c r="M6" s="23" t="n">
-        <v>91769.76084</v>
-      </c>
-      <c r="N6" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="7" s="70" spans="1:14">
+        <v>91950.4039</v>
+      </c>
+      <c r="N6" s="23" t="n">
+        <v>278379.208</v>
+      </c>
+      <c r="O6" s="11" t="n"/>
+    </row>
+    <row r="7" ht="12.6" customHeight="1" s="70">
       <c r="A7" s="5" t="n"/>
-      <c r="B7" s="64" t="s">
-        <v>5</v>
+      <c r="B7" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Cash</t>
+        </is>
       </c>
       <c r="C7" s="22" t="n">
         <v>6032.973190000001</v>
@@ -1576,7 +1036,7 @@
         <v>4736.06894</v>
       </c>
       <c r="I7" s="22" t="n">
-        <v>3597.989880000001</v>
+        <v>3646.56121</v>
       </c>
       <c r="J7" s="21" t="n">
         <v>4490.795349999999</v>
@@ -1585,17 +1045,22 @@
         <v>5377.89014</v>
       </c>
       <c r="L7" s="22" t="n">
-        <v>9379.601909999999</v>
+        <v>9469.903309999998</v>
       </c>
       <c r="M7" s="22" t="n">
-        <v>11213.54844</v>
-      </c>
-      <c r="N7" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="8" s="70" spans="1:14">
+        <v>10934.15099</v>
+      </c>
+      <c r="N7" s="22" t="n">
+        <v>13396.663</v>
+      </c>
+      <c r="O7" s="10" t="n"/>
+    </row>
+    <row r="8" ht="12.6" customHeight="1" s="70">
       <c r="A8" s="5" t="n"/>
-      <c r="B8" s="64" t="s">
-        <v>6</v>
+      <c r="B8" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Checks Received</t>
+        </is>
       </c>
       <c r="C8" s="22" t="n">
         <v>2360.83859</v>
@@ -1616,7 +1081,7 @@
         <v>2978.86056</v>
       </c>
       <c r="I8" s="22" t="n">
-        <v>3901.43461</v>
+        <v>4666.43461</v>
       </c>
       <c r="J8" s="21" t="n">
         <v>3855.92687</v>
@@ -1630,12 +1095,17 @@
       <c r="M8" s="22" t="n">
         <v>11443.96427</v>
       </c>
-      <c r="N8" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="9" s="70" spans="1:14">
+      <c r="N8" s="22" t="n">
+        <v>5053.761</v>
+      </c>
+      <c r="O8" s="10" t="n"/>
+    </row>
+    <row r="9" ht="12.6" customHeight="1" s="70">
       <c r="A9" s="5" t="n"/>
-      <c r="B9" s="64" t="s">
-        <v>7</v>
+      <c r="B9" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Banks</t>
+        </is>
       </c>
       <c r="C9" s="22" t="n">
         <v>5744.54873</v>
@@ -1656,7 +1126,7 @@
         <v>41892.96235</v>
       </c>
       <c r="I9" s="22" t="n">
-        <v>45216.24365999999</v>
+        <v>45432.38833</v>
       </c>
       <c r="J9" s="21" t="n">
         <v>69376.56916</v>
@@ -1665,17 +1135,22 @@
         <v>44844.45429</v>
       </c>
       <c r="L9" s="22" t="n">
-        <v>43079.80179</v>
+        <v>43282.57874</v>
       </c>
       <c r="M9" s="22" t="n">
-        <v>73616.93209999999</v>
-      </c>
-      <c r="N9" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="10" s="70" spans="1:14">
+        <v>73983.90093</v>
+      </c>
+      <c r="N9" s="22" t="n">
+        <v>265302.485</v>
+      </c>
+      <c r="O9" s="10" t="n"/>
+    </row>
+    <row r="10" ht="12.6" customHeight="1" s="70">
       <c r="A10" s="5" t="n"/>
-      <c r="B10" s="59" t="s">
-        <v>8</v>
+      <c r="B10" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
+        </is>
       </c>
       <c r="C10" s="22" t="n">
         <v>1008.18912</v>
@@ -1684,7 +1159,7 @@
         <v>1374.20329</v>
       </c>
       <c r="E10" s="22" t="n">
-        <v>751.4269199999999</v>
+        <v>751.42692</v>
       </c>
       <c r="F10" s="21" t="n">
         <v>3622.31362</v>
@@ -1696,7 +1171,7 @@
         <v>6383.62646</v>
       </c>
       <c r="I10" s="22" t="n">
-        <v>5613.716969999999</v>
+        <v>6003.830470000001</v>
       </c>
       <c r="J10" s="21" t="n">
         <v>3575.65658</v>
@@ -1710,12 +1185,17 @@
       <c r="M10" s="22" t="n">
         <v>5061.858480000001</v>
       </c>
-      <c r="N10" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="11" s="70" spans="1:14">
+      <c r="N10" s="22" t="n">
+        <v>5530.816</v>
+      </c>
+      <c r="O10" s="10" t="n"/>
+    </row>
+    <row r="11" ht="12.6" customHeight="1" s="70">
       <c r="A11" s="5" t="n"/>
-      <c r="B11" s="64" t="s">
-        <v>9</v>
+      <c r="B11" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Liquid Assets</t>
+        </is>
       </c>
       <c r="C11" s="22" t="n">
         <v>14.92595</v>
@@ -1748,20 +1228,25 @@
         <v>422.43538</v>
       </c>
       <c r="M11" s="22" t="n">
-        <v>557.1745100000001</v>
-      </c>
-      <c r="N11" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="12" s="70" spans="1:14">
+        <v>650.2461900000001</v>
+      </c>
+      <c r="N11" s="22" t="n">
+        <v>157.115</v>
+      </c>
+      <c r="O11" s="10" t="n"/>
+    </row>
+    <row r="12" ht="12.6" customHeight="1" s="70">
       <c r="A12" s="8" t="n"/>
-      <c r="B12" s="60" t="s">
-        <v>10</v>
+      <c r="B12" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Marketable Securities</t>
+        </is>
       </c>
       <c r="C12" s="23" t="n">
         <v>663.03172</v>
       </c>
       <c r="D12" s="23" t="n">
-        <v>465.1360700000001</v>
+        <v>465.13607</v>
       </c>
       <c r="E12" s="23" t="n">
         <v>346.65936</v>
@@ -1773,7 +1258,7 @@
         <v>1045.26315</v>
       </c>
       <c r="H12" s="33" t="n">
-        <v>961.66105</v>
+        <v>961.6610499999999</v>
       </c>
       <c r="I12" s="23" t="n">
         <v>307.11521</v>
@@ -1785,17 +1270,22 @@
         <v>133.44448</v>
       </c>
       <c r="L12" s="23" t="n">
-        <v>294.73826</v>
+        <v>295.02913</v>
       </c>
       <c r="M12" s="23" t="n">
-        <v>182.28874</v>
-      </c>
-      <c r="N12" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="13" s="70" spans="1:14">
+        <v>182.62958</v>
+      </c>
+      <c r="N12" s="23" t="n">
+        <v>400.202</v>
+      </c>
+      <c r="O12" s="11" t="n"/>
+    </row>
+    <row r="13" ht="12.6" customHeight="1" s="70">
       <c r="A13" s="5" t="n"/>
-      <c r="B13" s="64" t="s">
-        <v>11</v>
+      <c r="B13" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Securities</t>
+        </is>
       </c>
       <c r="C13" s="22" t="n">
         <v>0</v>
@@ -1830,12 +1320,17 @@
       <c r="M13" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N13" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="14" s="70" spans="1:14">
+      <c r="N13" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="10" t="n"/>
+    </row>
+    <row r="14" ht="12.6" customHeight="1" s="70">
       <c r="A14" s="5" t="n"/>
-      <c r="B14" s="64" t="s">
-        <v>12</v>
+      <c r="B14" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C14" s="22" t="n">
         <v>48.40386</v>
@@ -1865,17 +1360,22 @@
         <v>0.16525</v>
       </c>
       <c r="L14" s="22" t="n">
-        <v>0.29822</v>
+        <v>0.5890899999999999</v>
       </c>
       <c r="M14" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="15" s="70" spans="1:14">
+        <v>0.34084</v>
+      </c>
+      <c r="N14" s="22" t="n">
+        <v>0.854</v>
+      </c>
+      <c r="O14" s="10" t="n"/>
+    </row>
+    <row r="15" ht="12.6" customHeight="1" s="70">
       <c r="A15" s="5" t="n"/>
-      <c r="B15" s="64" t="s">
-        <v>13</v>
+      <c r="B15" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C15" s="22" t="n">
         <v>610.8769299999999</v>
@@ -1910,12 +1410,17 @@
       <c r="M15" s="22" t="n">
         <v>56.33233999999999</v>
       </c>
-      <c r="N15" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="16" s="70" spans="1:14">
+      <c r="N15" s="22" t="n">
+        <v>0.586</v>
+      </c>
+      <c r="O15" s="10" t="n"/>
+    </row>
+    <row r="16" ht="12.6" customHeight="1" s="70">
       <c r="A16" s="5" t="n"/>
-      <c r="B16" s="64" t="s">
-        <v>14</v>
+      <c r="B16" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Marketable Securities</t>
+        </is>
       </c>
       <c r="C16" s="22" t="n">
         <v>3.75093</v>
@@ -1950,12 +1455,17 @@
       <c r="M16" s="22" t="n">
         <v>125.9564</v>
       </c>
-      <c r="N16" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="17" s="70" spans="1:14">
+      <c r="N16" s="22" t="n">
+        <v>398.762</v>
+      </c>
+      <c r="O16" s="10" t="n"/>
+    </row>
+    <row r="17" ht="12.6" customHeight="1" s="70">
       <c r="A17" s="5" t="n"/>
-      <c r="B17" s="61" t="s">
-        <v>15</v>
+      <c r="B17" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C17" s="22" t="n">
         <v>0</v>
@@ -1990,12 +1500,17 @@
       <c r="M17" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N17" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="18" s="70" spans="1:14">
+      <c r="N17" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="10" t="n"/>
+    </row>
+    <row r="18" ht="12.6" customHeight="1" s="70">
       <c r="A18" s="8" t="n"/>
-      <c r="B18" s="60" t="s">
-        <v>16</v>
+      <c r="B18" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C18" s="23" t="n">
         <v>24473.44857</v>
@@ -2016,7 +1531,7 @@
         <v>112205.95925</v>
       </c>
       <c r="I18" s="23" t="n">
-        <v>135425.72483</v>
+        <v>140531.93395</v>
       </c>
       <c r="J18" s="33" t="n">
         <v>155167.79967</v>
@@ -2025,17 +1540,22 @@
         <v>182749.36125</v>
       </c>
       <c r="L18" s="23" t="n">
-        <v>227826.91639</v>
+        <v>229776.46575</v>
       </c>
       <c r="M18" s="23" t="n">
-        <v>280905.49751</v>
-      </c>
-      <c r="N18" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="19" s="70" spans="1:14">
+        <v>282755.75612</v>
+      </c>
+      <c r="N18" s="23" t="n">
+        <v>235975.483</v>
+      </c>
+      <c r="O18" s="11" t="n"/>
+    </row>
+    <row r="19" ht="12.6" customHeight="1" s="70">
       <c r="A19" s="5" t="n"/>
-      <c r="B19" s="64" t="s">
-        <v>17</v>
+      <c r="B19" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C19" s="22" t="n">
         <v>22188.36475</v>
@@ -2056,7 +1576,7 @@
         <v>84960.25925999999</v>
       </c>
       <c r="I19" s="22" t="n">
-        <v>102829.47365</v>
+        <v>107835.68277</v>
       </c>
       <c r="J19" s="21" t="n">
         <v>127888.29602</v>
@@ -2065,23 +1585,28 @@
         <v>152906.31537</v>
       </c>
       <c r="L19" s="22" t="n">
-        <v>190436.59737</v>
+        <v>192343.87134</v>
       </c>
       <c r="M19" s="22" t="n">
-        <v>231034.3402</v>
-      </c>
-      <c r="N19" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="20" s="70" spans="1:14">
+        <v>231643.07479</v>
+      </c>
+      <c r="N19" s="22" t="n">
+        <v>189667.876</v>
+      </c>
+      <c r="O19" s="10" t="n"/>
+    </row>
+    <row r="20" ht="12.6" customHeight="1" s="70">
       <c r="A20" s="5" t="n"/>
-      <c r="B20" s="61" t="s">
-        <v>18</v>
+      <c r="B20" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C20" s="22" t="n">
         <v>967.47231</v>
       </c>
       <c r="D20" s="22" t="n">
-        <v>932.7202799999999</v>
+        <v>932.72028</v>
       </c>
       <c r="E20" s="22" t="n">
         <v>1508.41166</v>
@@ -2096,7 +1621,7 @@
         <v>2262.92174</v>
       </c>
       <c r="I20" s="22" t="n">
-        <v>1605.22002</v>
+        <v>1705.22002</v>
       </c>
       <c r="J20" s="21" t="n">
         <v>2846.26071</v>
@@ -2108,14 +1633,19 @@
         <v>9790.947910000001</v>
       </c>
       <c r="M20" s="22" t="n">
-        <v>16839.19514</v>
-      </c>
-      <c r="N20" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="21" s="70" spans="1:14">
+        <v>18038.44377</v>
+      </c>
+      <c r="N20" s="22" t="n">
+        <v>7657.874</v>
+      </c>
+      <c r="O20" s="10" t="n"/>
+    </row>
+    <row r="21" ht="12.6" customHeight="1" s="70">
       <c r="A21" s="5" t="n"/>
-      <c r="B21" s="64" t="s">
-        <v>19</v>
+      <c r="B21" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C21" s="22" t="n">
         <v>0</v>
@@ -2150,12 +1680,17 @@
       <c r="M21" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N21" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="22" s="70" spans="1:14">
+      <c r="N21" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="10" t="n"/>
+    </row>
+    <row r="22" ht="12.6" customHeight="1" s="70">
       <c r="A22" s="5" t="n"/>
-      <c r="B22" s="64" t="s">
-        <v>20</v>
+      <c r="B22" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C22" s="22" t="n">
         <v>0</v>
@@ -2190,18 +1725,23 @@
       <c r="M22" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N22" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="23" s="70" spans="1:14">
+      <c r="N22" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="10" t="n"/>
+    </row>
+    <row r="23" ht="12.6" customHeight="1" s="70">
       <c r="A23" s="5" t="n"/>
-      <c r="B23" s="61" t="s">
-        <v>21</v>
+      <c r="B23" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C23" s="22" t="n">
         <v>440.65129</v>
       </c>
       <c r="D23" s="22" t="n">
-        <v>601.61005</v>
+        <v>601.6100499999999</v>
       </c>
       <c r="E23" s="22" t="n">
         <v>522.0608500000001</v>
@@ -2230,12 +1770,17 @@
       <c r="M23" s="22" t="n">
         <v>12680.544</v>
       </c>
-      <c r="N23" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="24" s="70" spans="1:14">
+      <c r="N23" s="22" t="n">
+        <v>17062.854</v>
+      </c>
+      <c r="O23" s="10" t="n"/>
+    </row>
+    <row r="24" ht="12.6" customHeight="1" s="70">
       <c r="A24" s="5" t="n"/>
-      <c r="B24" s="64" t="s">
-        <v>22</v>
+      <c r="B24" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C24" s="22" t="n">
         <v>814.7034600000001</v>
@@ -2265,17 +1810,22 @@
         <v>1892.15533</v>
       </c>
       <c r="L24" s="22" t="n">
-        <v>3643.55493</v>
+        <v>3685.83032</v>
       </c>
       <c r="M24" s="22" t="n">
-        <v>3504.46158</v>
-      </c>
-      <c r="N24" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="25" s="70" spans="1:14">
+        <v>3546.73697</v>
+      </c>
+      <c r="N24" s="22" t="n">
+        <v>4287.541</v>
+      </c>
+      <c r="O24" s="10" t="n"/>
+    </row>
+    <row r="25" ht="12.6" customHeight="1" s="70">
       <c r="A25" s="5" t="n"/>
-      <c r="B25" s="64" t="s">
-        <v>23</v>
+      <c r="B25" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
+        </is>
       </c>
       <c r="C25" s="22" t="n">
         <v>66.91396</v>
@@ -2310,12 +1860,17 @@
       <c r="M25" s="22" t="n">
         <v>35127.91978</v>
       </c>
-      <c r="N25" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="26" s="70" spans="1:14">
+      <c r="N25" s="22" t="n">
+        <v>49262.17</v>
+      </c>
+      <c r="O25" s="10" t="n"/>
+    </row>
+    <row r="26" ht="12.6" customHeight="1" s="70">
       <c r="A26" s="8" t="n"/>
-      <c r="B26" s="64" t="s">
-        <v>24</v>
+      <c r="B26" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C26" s="22" t="n">
         <v>4.6572</v>
@@ -2336,7 +1891,7 @@
         <v>2643.77438</v>
       </c>
       <c r="I26" s="22" t="n">
-        <v>784.6358899999999</v>
+        <v>784.63589</v>
       </c>
       <c r="J26" s="21" t="n">
         <v>15776.61684</v>
@@ -2345,17 +1900,22 @@
         <v>42334.80311</v>
       </c>
       <c r="L26" s="22" t="n">
-        <v>90252.83016000001</v>
+        <v>90252.83016</v>
       </c>
       <c r="M26" s="22" t="n">
         <v>18280.96319</v>
       </c>
-      <c r="N26" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="27" s="70" spans="1:14">
+      <c r="N26" s="22" t="n">
+        <v>31962.832</v>
+      </c>
+      <c r="O26" s="11" t="n"/>
+    </row>
+    <row r="27" ht="12.6" customHeight="1" s="70">
       <c r="A27" s="5" t="n"/>
-      <c r="B27" s="57" t="s">
-        <v>25</v>
+      <c r="B27" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Other Short-Term Receivables</t>
+        </is>
       </c>
       <c r="C27" s="23" t="n">
         <v>1515.19191</v>
@@ -2376,7 +1936,7 @@
         <v>16763.6573</v>
       </c>
       <c r="I27" s="23" t="n">
-        <v>20766.58192</v>
+        <v>20963.47946</v>
       </c>
       <c r="J27" s="33" t="n">
         <v>22086.82192</v>
@@ -2385,17 +1945,22 @@
         <v>29133.34985</v>
       </c>
       <c r="L27" s="23" t="n">
-        <v>21744.543</v>
+        <v>23458.19396</v>
       </c>
       <c r="M27" s="23" t="n">
-        <v>30611.97137000001</v>
-      </c>
-      <c r="N27" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="28" s="70" spans="1:14">
+        <v>36291.56954</v>
+      </c>
+      <c r="N27" s="23" t="n">
+        <v>45718.772</v>
+      </c>
+      <c r="O27" s="10" t="n"/>
+    </row>
+    <row r="28" ht="12.6" customHeight="1" s="70">
       <c r="A28" s="5" t="n"/>
-      <c r="B28" s="64" t="s">
-        <v>26</v>
+      <c r="B28" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C28" s="22" t="n">
         <v>1215.94414</v>
@@ -2407,7 +1972,7 @@
         <v>2877.16231</v>
       </c>
       <c r="F28" s="21" t="n">
-        <v>3387.370809999999</v>
+        <v>3387.37081</v>
       </c>
       <c r="G28" s="22" t="n">
         <v>3910.48767</v>
@@ -2428,14 +1993,19 @@
         <v>12906.34365</v>
       </c>
       <c r="M28" s="22" t="n">
-        <v>9993.06501</v>
-      </c>
-      <c r="N28" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="29" s="70" spans="1:14">
+        <v>12148.16031</v>
+      </c>
+      <c r="N28" s="22" t="n">
+        <v>16003.334</v>
+      </c>
+      <c r="O28" s="10" t="n"/>
+    </row>
+    <row r="29" ht="12.6" customHeight="1" s="70">
       <c r="A29" s="5" t="n"/>
-      <c r="B29" s="59" t="s">
-        <v>27</v>
+      <c r="B29" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C29" s="22" t="n">
         <v>0</v>
@@ -2465,17 +2035,22 @@
         <v>1878.05468</v>
       </c>
       <c r="L29" s="22" t="n">
-        <v>1267.59218</v>
+        <v>2780.99841</v>
       </c>
       <c r="M29" s="22" t="n">
-        <v>5740.04073</v>
-      </c>
-      <c r="N29" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="30" s="70" spans="1:14">
+        <v>9063.58923</v>
+      </c>
+      <c r="N29" s="22" t="n">
+        <v>7574.015</v>
+      </c>
+      <c r="O29" s="10" t="n"/>
+    </row>
+    <row r="30" ht="12.6" customHeight="1" s="70">
       <c r="A30" s="5" t="n"/>
-      <c r="B30" s="64" t="s">
-        <v>28</v>
+      <c r="B30" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C30" s="22" t="n">
         <v>0</v>
@@ -2510,12 +2085,17 @@
       <c r="M30" s="22" t="n">
         <v>1317.8209</v>
       </c>
-      <c r="N30" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="31" s="70" spans="1:14">
+      <c r="N30" s="22" t="n">
+        <v>9036.204</v>
+      </c>
+      <c r="O30" s="10" t="n"/>
+    </row>
+    <row r="31" ht="12.6" customHeight="1" s="70">
       <c r="A31" s="5" t="n"/>
-      <c r="B31" s="64" t="s">
-        <v>29</v>
+      <c r="B31" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C31" s="22" t="n">
         <v>30.4075</v>
@@ -2550,12 +2130,17 @@
       <c r="M31" s="22" t="n">
         <v>85.52419</v>
       </c>
-      <c r="N31" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="32" s="70" spans="1:14">
+      <c r="N31" s="22" t="n">
+        <v>39.187</v>
+      </c>
+      <c r="O31" s="10" t="n"/>
+    </row>
+    <row r="32" ht="12.6" customHeight="1" s="70">
       <c r="A32" s="5" t="n"/>
-      <c r="B32" s="64" t="s">
-        <v>30</v>
+      <c r="B32" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C32" s="22" t="n">
         <v>225.20027</v>
@@ -2564,7 +2149,7 @@
         <v>512.57822</v>
       </c>
       <c r="E32" s="22" t="n">
-        <v>647.7276699999999</v>
+        <v>647.72767</v>
       </c>
       <c r="F32" s="21" t="n">
         <v>10211.16426</v>
@@ -2576,7 +2161,7 @@
         <v>10567.60232</v>
       </c>
       <c r="I32" s="22" t="n">
-        <v>8945.495140000001</v>
+        <v>9142.392679999999</v>
       </c>
       <c r="J32" s="21" t="n">
         <v>8248.143830000001</v>
@@ -2585,17 +2170,22 @@
         <v>6224.91743</v>
       </c>
       <c r="L32" s="22" t="n">
-        <v>7180.37759</v>
+        <v>7380.62232</v>
       </c>
       <c r="M32" s="22" t="n">
-        <v>13462.52054</v>
-      </c>
-      <c r="N32" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="33" s="70" spans="1:14">
+        <v>13663.47491</v>
+      </c>
+      <c r="N32" s="22" t="n">
+        <v>13053.032</v>
+      </c>
+      <c r="O32" s="10" t="n"/>
+    </row>
+    <row r="33" ht="12.6" customHeight="1" s="70">
       <c r="A33" s="5" t="n"/>
-      <c r="B33" s="64" t="s">
-        <v>31</v>
+      <c r="B33" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C33" s="22" t="n">
         <v>0</v>
@@ -2630,12 +2220,17 @@
       <c r="M33" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N33" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="34" s="70" spans="1:14">
+      <c r="N33" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="10" t="n"/>
+    </row>
+    <row r="34" ht="12.6" customHeight="1" s="70">
       <c r="A34" s="5" t="n"/>
-      <c r="B34" s="64" t="s">
-        <v>32</v>
+      <c r="B34" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Doubtful Receivables</t>
+        </is>
       </c>
       <c r="C34" s="22" t="n">
         <v>43.64</v>
@@ -2670,12 +2265,17 @@
       <c r="M34" s="22" t="n">
         <v>13</v>
       </c>
-      <c r="N34" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="35" s="70" spans="1:14">
+      <c r="N34" s="22" t="n">
+        <v>13</v>
+      </c>
+      <c r="O34" s="10" t="n"/>
+    </row>
+    <row r="35" ht="12.6" customHeight="1" s="70">
       <c r="A35" s="8" t="n"/>
-      <c r="B35" s="64" t="s">
-        <v>33</v>
+      <c r="B35" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C35" s="22" t="n">
         <v>0</v>
@@ -2710,12 +2310,17 @@
       <c r="M35" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N35" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="36" s="70" spans="1:14">
+      <c r="N35" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="11" t="n"/>
+    </row>
+    <row r="36" ht="12.6" customHeight="1" s="70">
       <c r="A36" s="5" t="n"/>
-      <c r="B36" s="60" t="s">
-        <v>34</v>
+      <c r="B36" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Inventories</t>
+        </is>
       </c>
       <c r="C36" s="23" t="n">
         <v>10607.09176</v>
@@ -2736,7 +2341,7 @@
         <v>26276.80477</v>
       </c>
       <c r="I36" s="23" t="n">
-        <v>28961.19659</v>
+        <v>30150.43267</v>
       </c>
       <c r="J36" s="33" t="n">
         <v>44605.28494</v>
@@ -2745,17 +2350,22 @@
         <v>46303.66507</v>
       </c>
       <c r="L36" s="23" t="n">
-        <v>44988.85766</v>
+        <v>56150.95398000001</v>
       </c>
       <c r="M36" s="23" t="n">
-        <v>47755.08047</v>
-      </c>
-      <c r="N36" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="37" s="70" spans="1:14">
+        <v>63001.91809</v>
+      </c>
+      <c r="N36" s="23" t="n">
+        <v>143553.927</v>
+      </c>
+      <c r="O36" s="10" t="n"/>
+    </row>
+    <row r="37" ht="12.6" customHeight="1" s="70">
       <c r="A37" s="5" t="n"/>
-      <c r="B37" s="64" t="s">
-        <v>35</v>
+      <c r="B37" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
+        </is>
       </c>
       <c r="C37" s="22" t="n">
         <v>2903.38847</v>
@@ -2773,10 +2383,10 @@
         <v>11075.36039</v>
       </c>
       <c r="H37" s="21" t="n">
-        <v>7321.14153</v>
+        <v>7321.141529999999</v>
       </c>
       <c r="I37" s="22" t="n">
-        <v>4095.33202</v>
+        <v>5283.81541</v>
       </c>
       <c r="J37" s="21" t="n">
         <v>10514.86269</v>
@@ -2788,14 +2398,19 @@
         <v>10474.33293</v>
       </c>
       <c r="M37" s="22" t="n">
-        <v>8042.400310000001</v>
-      </c>
-      <c r="N37" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="38" s="70" spans="1:14">
+        <v>8062.392890000001</v>
+      </c>
+      <c r="N37" s="22" t="n">
+        <v>11844.756</v>
+      </c>
+      <c r="O37" s="10" t="n"/>
+    </row>
+    <row r="38" ht="12.6" customHeight="1" s="70">
       <c r="A38" s="5" t="n"/>
-      <c r="B38" s="64" t="s">
-        <v>36</v>
+      <c r="B38" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Work in Progress</t>
+        </is>
       </c>
       <c r="C38" s="22" t="n">
         <v>235.20741</v>
@@ -2830,12 +2445,17 @@
       <c r="M38" s="22" t="n">
         <v>2035.90366</v>
       </c>
-      <c r="N38" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="39" s="70" spans="1:14">
+      <c r="N38" s="22" t="n">
+        <v>3485.025</v>
+      </c>
+      <c r="O38" s="10" t="n"/>
+    </row>
+    <row r="39" ht="12.6" customHeight="1" s="70">
       <c r="A39" s="5" t="n"/>
-      <c r="B39" s="64" t="s">
-        <v>37</v>
+      <c r="B39" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Finished Goods</t>
+        </is>
       </c>
       <c r="C39" s="22" t="n">
         <v>32.31454</v>
@@ -2870,21 +2490,26 @@
       <c r="M39" s="22" t="n">
         <v>150.76732</v>
       </c>
-      <c r="N39" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="40" s="70" spans="1:14">
+      <c r="N39" s="22" t="n">
+        <v>212.315</v>
+      </c>
+      <c r="O39" s="10" t="n"/>
+    </row>
+    <row r="40" ht="12.6" customHeight="1" s="70">
       <c r="A40" s="5" t="n"/>
-      <c r="B40" s="64" t="s">
-        <v>38</v>
+      <c r="B40" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Merchandise</t>
+        </is>
       </c>
       <c r="C40" s="22" t="n">
-        <v>5574.176010000001</v>
+        <v>5574.17601</v>
       </c>
       <c r="D40" s="22" t="n">
         <v>6352.25399</v>
       </c>
       <c r="E40" s="22" t="n">
-        <v>8928.86419</v>
+        <v>8928.864190000002</v>
       </c>
       <c r="F40" s="21" t="n">
         <v>4359.845719999999</v>
@@ -2905,17 +2530,22 @@
         <v>10208.77379</v>
       </c>
       <c r="L40" s="22" t="n">
-        <v>8756.74597</v>
+        <v>13283.33979</v>
       </c>
       <c r="M40" s="22" t="n">
-        <v>8346.635469999999</v>
-      </c>
-      <c r="N40" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="41" s="70" spans="1:14">
+        <v>13417.61502</v>
+      </c>
+      <c r="N40" s="22" t="n">
+        <v>14919.552</v>
+      </c>
+      <c r="O40" s="10" t="n"/>
+    </row>
+    <row r="41" ht="12.6" customHeight="1" s="70">
       <c r="A41" s="5" t="n"/>
-      <c r="B41" s="64" t="s">
-        <v>39</v>
+      <c r="B41" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Inventories</t>
+        </is>
       </c>
       <c r="C41" s="22" t="n">
         <v>258.23209</v>
@@ -2950,12 +2580,17 @@
       <c r="M41" s="22" t="n">
         <v>1471.44153</v>
       </c>
-      <c r="N41" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="42" s="70" spans="1:14">
+      <c r="N41" s="22" t="n">
+        <v>1630.685</v>
+      </c>
+      <c r="O41" s="10" t="n"/>
+    </row>
+    <row r="42" ht="12.6" customHeight="1" s="70">
       <c r="A42" s="5" t="n"/>
-      <c r="B42" s="59" t="s">
-        <v>40</v>
+      <c r="B42" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
+        </is>
       </c>
       <c r="C42" s="22" t="n">
         <v>0</v>
@@ -2990,18 +2625,23 @@
       <c r="M42" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N42" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="43" s="70" spans="1:14">
+      <c r="N42" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" s="10" t="n"/>
+    </row>
+    <row r="43" ht="12.6" customHeight="1" s="70">
       <c r="A43" s="8" t="n"/>
-      <c r="B43" s="59" t="s">
-        <v>41</v>
+      <c r="B43" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Advances on Purchase Orders</t>
+        </is>
       </c>
       <c r="C43" s="22" t="n">
         <v>1603.77324</v>
       </c>
       <c r="D43" s="22" t="n">
-        <v>2834.526619999999</v>
+        <v>2834.52662</v>
       </c>
       <c r="E43" s="22" t="n">
         <v>10386.64212</v>
@@ -3016,7 +2656,7 @@
         <v>12491.22468</v>
       </c>
       <c r="I43" s="22" t="n">
-        <v>8919.742120000001</v>
+        <v>8920.49481</v>
       </c>
       <c r="J43" s="21" t="n">
         <v>16897.70345</v>
@@ -3025,17 +2665,22 @@
         <v>18109.32111</v>
       </c>
       <c r="L43" s="22" t="n">
-        <v>18656.98876</v>
+        <v>25292.49126</v>
       </c>
       <c r="M43" s="22" t="n">
-        <v>27707.93218</v>
-      </c>
-      <c r="N43" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="44" s="70" spans="1:14">
+        <v>37863.79767</v>
+      </c>
+      <c r="N43" s="22" t="n">
+        <v>111461.594</v>
+      </c>
+      <c r="O43" s="11" t="n"/>
+    </row>
+    <row r="44" ht="12.6" customHeight="1" s="70">
       <c r="A44" s="8" t="n"/>
-      <c r="B44" s="60" t="s">
-        <v>42</v>
+      <c r="B44" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
+        </is>
       </c>
       <c r="C44" s="23" t="n">
         <v>18823.89214</v>
@@ -3050,7 +2695,7 @@
         <v>24120.4019</v>
       </c>
       <c r="G44" s="23" t="n">
-        <v>39116.08865</v>
+        <v>39116.08865000001</v>
       </c>
       <c r="H44" s="33" t="n">
         <v>30472.98086</v>
@@ -3068,14 +2713,19 @@
         <v>80103.38443000001</v>
       </c>
       <c r="M44" s="23" t="n">
-        <v>187022.7824</v>
-      </c>
-      <c r="N44" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="45" s="70" spans="1:14">
+        <v>303380.96986</v>
+      </c>
+      <c r="N44" s="23" t="n">
+        <v>379738.636</v>
+      </c>
+      <c r="O44" s="11" t="n"/>
+    </row>
+    <row r="45" ht="12.6" customHeight="1" s="70">
       <c r="A45" s="8" t="n"/>
-      <c r="B45" s="59" t="s">
-        <v>43</v>
+      <c r="B45" s="59" t="inlineStr">
+        <is>
+          <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C45" s="22" t="n">
         <v>18822.44788</v>
@@ -3090,7 +2740,7 @@
         <v>19786.81113</v>
       </c>
       <c r="G45" s="22" t="n">
-        <v>38105.51321</v>
+        <v>38105.51320999999</v>
       </c>
       <c r="H45" s="21" t="n">
         <v>30472.98086</v>
@@ -3102,20 +2752,25 @@
         <v>105909.08094</v>
       </c>
       <c r="K45" s="22" t="n">
-        <v>99078.29943</v>
+        <v>99078.29943000001</v>
       </c>
       <c r="L45" s="22" t="n">
         <v>80103.38443000001</v>
       </c>
       <c r="M45" s="22" t="n">
-        <v>186413.45616</v>
-      </c>
-      <c r="N45" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="46" s="70" spans="1:14">
+        <v>302771.64362</v>
+      </c>
+      <c r="N45" s="22" t="n">
+        <v>378688.109</v>
+      </c>
+      <c r="O45" s="11" t="n"/>
+    </row>
+    <row r="46" ht="12.6" customHeight="1" s="70">
       <c r="A46" s="8" t="n"/>
-      <c r="B46" s="59" t="s">
-        <v>44</v>
+      <c r="B46" s="59" t="inlineStr">
+        <is>
+          <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C46" s="22" t="n">
         <v>0</v>
@@ -3150,12 +2805,17 @@
       <c r="M46" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N46" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="47" s="70" spans="1:14">
+      <c r="N46" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11" t="n"/>
+    </row>
+    <row r="47" ht="12.6" customHeight="1" s="70">
       <c r="A47" s="5" t="n"/>
-      <c r="B47" s="59" t="s">
-        <v>45</v>
+      <c r="B47" s="59" t="inlineStr">
+        <is>
+          <t>3- Advances to Subcontractors</t>
+        </is>
       </c>
       <c r="C47" s="22" t="n">
         <v>1.44426</v>
@@ -3190,12 +2850,17 @@
       <c r="M47" s="22" t="n">
         <v>609.32624</v>
       </c>
-      <c r="N47" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="48" s="70" spans="1:14">
+      <c r="N47" s="22" t="n">
+        <v>1050.527</v>
+      </c>
+      <c r="O47" s="10" t="n"/>
+    </row>
+    <row r="48" ht="12.6" customHeight="1" s="70">
       <c r="A48" s="5" t="n"/>
-      <c r="B48" s="60" t="s">
-        <v>46</v>
+      <c r="B48" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>1045.83436</v>
@@ -3216,7 +2881,7 @@
         <v>4069.19578</v>
       </c>
       <c r="I48" s="46" t="n">
-        <v>14623.04594</v>
+        <v>15259.65812</v>
       </c>
       <c r="J48" s="45" t="n">
         <v>13952.15615</v>
@@ -3225,17 +2890,22 @@
         <v>13753.0058</v>
       </c>
       <c r="L48" s="46" t="n">
-        <v>21902.26461</v>
+        <v>22020.83024</v>
       </c>
       <c r="M48" s="46" t="n">
-        <v>11042.93767</v>
-      </c>
-      <c r="N48" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="49" s="70" spans="1:14">
+        <v>11206.80148</v>
+      </c>
+      <c r="N48" s="46" t="n">
+        <v>7453.994</v>
+      </c>
+      <c r="O48" s="10" t="n"/>
+    </row>
+    <row r="49" ht="12.6" customHeight="1" s="70">
       <c r="A49" s="8" t="n"/>
-      <c r="B49" s="64" t="s">
-        <v>47</v>
+      <c r="B49" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Months</t>
+        </is>
       </c>
       <c r="C49" s="22" t="n">
         <v>566.912</v>
@@ -3256,7 +2926,7 @@
         <v>2293.69016</v>
       </c>
       <c r="I49" s="22" t="n">
-        <v>4879.1493</v>
+        <v>5515.761479999999</v>
       </c>
       <c r="J49" s="21" t="n">
         <v>3975.50114</v>
@@ -3268,14 +2938,19 @@
         <v>3783.687730000001</v>
       </c>
       <c r="M49" s="22" t="n">
-        <v>5372.875779999999</v>
-      </c>
-      <c r="N49" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="50" s="70" spans="1:14">
+        <v>5488.92396</v>
+      </c>
+      <c r="N49" s="22" t="n">
+        <v>6337.258</v>
+      </c>
+      <c r="O49" s="11" t="n"/>
+    </row>
+    <row r="50" ht="12.6" customHeight="1" s="70">
       <c r="A50" s="5" t="n"/>
-      <c r="B50" s="64" t="s">
-        <v>48</v>
+      <c r="B50" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C50" s="22" t="n">
         <v>478.92236</v>
@@ -3287,7 +2962,7 @@
         <v>786.8998200000001</v>
       </c>
       <c r="F50" s="21" t="n">
-        <v>4885.677009999999</v>
+        <v>4885.67701</v>
       </c>
       <c r="G50" s="22" t="n">
         <v>3537.09167</v>
@@ -3296,7 +2971,7 @@
         <v>1775.50562</v>
       </c>
       <c r="I50" s="22" t="n">
-        <v>9743.896639999999</v>
+        <v>9743.896640000001</v>
       </c>
       <c r="J50" s="21" t="n">
         <v>9976.65501</v>
@@ -3305,23 +2980,28 @@
         <v>11204.04979</v>
       </c>
       <c r="L50" s="22" t="n">
-        <v>18118.57688</v>
+        <v>18237.14251</v>
       </c>
       <c r="M50" s="22" t="n">
-        <v>5670.061890000001</v>
-      </c>
-      <c r="N50" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="51" s="70" spans="1:14">
+        <v>5717.87752</v>
+      </c>
+      <c r="N50" s="22" t="n">
+        <v>1116.736</v>
+      </c>
+      <c r="O50" s="10" t="n"/>
+    </row>
+    <row r="51" ht="12.6" customHeight="1" s="70">
       <c r="A51" s="5" t="n"/>
-      <c r="B51" s="57" t="s">
-        <v>49</v>
+      <c r="B51" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  H- Other Current Assets</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>6179.660210000001</v>
+        <v>6179.66021</v>
       </c>
       <c r="D51" s="46" t="n">
-        <v>8317.289429999999</v>
+        <v>8317.289430000001</v>
       </c>
       <c r="E51" s="46" t="n">
         <v>9362.686820000001</v>
@@ -3336,7 +3016,7 @@
         <v>14757.37823</v>
       </c>
       <c r="I51" s="46" t="n">
-        <v>16219.58822</v>
+        <v>17576.32762</v>
       </c>
       <c r="J51" s="45" t="n">
         <v>17718.591</v>
@@ -3345,17 +3025,22 @@
         <v>20378.92991</v>
       </c>
       <c r="L51" s="46" t="n">
-        <v>28074.69843</v>
+        <v>29883.74549</v>
       </c>
       <c r="M51" s="46" t="n">
-        <v>39740.72579</v>
-      </c>
-      <c r="N51" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="52" s="70" spans="1:14">
+        <v>40089.77146999999</v>
+      </c>
+      <c r="N51" s="46" t="n">
+        <v>39753.882</v>
+      </c>
+      <c r="O51" s="10" t="n"/>
+    </row>
+    <row r="52" ht="12.6" customHeight="1" s="70">
       <c r="A52" s="5" t="n"/>
-      <c r="B52" s="64" t="s">
-        <v>50</v>
+      <c r="B52" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
+        </is>
       </c>
       <c r="C52" s="22" t="n">
         <v>5037.67023</v>
@@ -3376,7 +3061,7 @@
         <v>10235.64764</v>
       </c>
       <c r="I52" s="22" t="n">
-        <v>10343.519</v>
+        <v>11494.86012</v>
       </c>
       <c r="J52" s="21" t="n">
         <v>11131.20832</v>
@@ -3385,17 +3070,22 @@
         <v>14918.92793</v>
       </c>
       <c r="L52" s="22" t="n">
-        <v>17833.07488</v>
+        <v>18359.42291</v>
       </c>
       <c r="M52" s="22" t="n">
-        <v>27217.8331</v>
-      </c>
-      <c r="N52" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="53" s="70" spans="1:14">
+        <v>27782.22983</v>
+      </c>
+      <c r="N52" s="22" t="n">
+        <v>31428.828</v>
+      </c>
+      <c r="O52" s="10" t="n"/>
+    </row>
+    <row r="53" ht="12.6" customHeight="1" s="70">
       <c r="A53" s="5" t="n"/>
-      <c r="B53" s="64" t="s">
-        <v>51</v>
+      <c r="B53" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- V.A.T. Paid</t>
+        </is>
       </c>
       <c r="C53" s="22" t="n">
         <v>7.3971</v>
@@ -3430,12 +3120,17 @@
       <c r="M53" s="22" t="n">
         <v>0.61929</v>
       </c>
-      <c r="N53" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="54" s="70" spans="1:14">
+      <c r="N53" s="22" t="n">
+        <v>36.207</v>
+      </c>
+      <c r="O53" s="10" t="n"/>
+    </row>
+    <row r="54" ht="12.6" customHeight="1" s="70">
       <c r="A54" s="5" t="n"/>
-      <c r="B54" s="64" t="s">
-        <v>52</v>
+      <c r="B54" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other V.A.T</t>
+        </is>
       </c>
       <c r="C54" s="22" t="n">
         <v>322.82377</v>
@@ -3470,12 +3165,17 @@
       <c r="M54" s="22" t="n">
         <v>1172.92898</v>
       </c>
-      <c r="N54" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="55" s="70" spans="1:14">
+      <c r="N54" s="22" t="n">
+        <v>1095.638</v>
+      </c>
+      <c r="O54" s="10" t="n"/>
+    </row>
+    <row r="55" ht="12.6" customHeight="1" s="70">
       <c r="A55" s="5" t="n"/>
-      <c r="B55" s="61" t="s">
-        <v>53</v>
+      <c r="B55" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
+        </is>
       </c>
       <c r="C55" s="22" t="n">
         <v>596.74663</v>
@@ -3487,7 +3187,7 @@
         <v>1841.46189</v>
       </c>
       <c r="F55" s="21" t="n">
-        <v>955.23934</v>
+        <v>955.2393400000001</v>
       </c>
       <c r="G55" s="22" t="n">
         <v>1404.78862</v>
@@ -3496,7 +3196,7 @@
         <v>2007.11948</v>
       </c>
       <c r="I55" s="22" t="n">
-        <v>818.2904199999999</v>
+        <v>1023.6887</v>
       </c>
       <c r="J55" s="21" t="n">
         <v>3141.00961</v>
@@ -3505,17 +3205,22 @@
         <v>2168.93888</v>
       </c>
       <c r="L55" s="22" t="n">
-        <v>3606.1277</v>
+        <v>4023.16199</v>
       </c>
       <c r="M55" s="22" t="n">
-        <v>2256.87018</v>
-      </c>
-      <c r="N55" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="56" s="70" spans="1:14">
+        <v>1845.17455</v>
+      </c>
+      <c r="N55" s="22" t="n">
+        <v>3911.946</v>
+      </c>
+      <c r="O55" s="10" t="n"/>
+    </row>
+    <row r="56" ht="12.6" customHeight="1" s="70">
       <c r="A56" s="5" t="n"/>
-      <c r="B56" s="59" t="s">
-        <v>54</v>
+      <c r="B56" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Business Related Advances </t>
+        </is>
       </c>
       <c r="C56" s="22" t="n">
         <v>166.00679</v>
@@ -3545,17 +3250,22 @@
         <v>2017.97834</v>
       </c>
       <c r="L56" s="22" t="n">
-        <v>4320.29418</v>
+        <v>5185.95892</v>
       </c>
       <c r="M56" s="22" t="n">
-        <v>7647.877390000001</v>
-      </c>
-      <c r="N56" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="57" s="70" spans="1:14">
+        <v>7844.19497</v>
+      </c>
+      <c r="N56" s="22" t="n">
+        <v>2662.564</v>
+      </c>
+      <c r="O56" s="10" t="n"/>
+    </row>
+    <row r="57" ht="12.6" customHeight="1" s="70">
       <c r="A57" s="5" t="n"/>
-      <c r="B57" s="61" t="s">
-        <v>55</v>
+      <c r="B57" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Advances to employees</t>
+        </is>
       </c>
       <c r="C57" s="22" t="n">
         <v>49.01569</v>
@@ -3588,14 +3298,19 @@
         <v>312.57851</v>
       </c>
       <c r="M57" s="22" t="n">
-        <v>1444.59685</v>
-      </c>
-      <c r="N57" s="10" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="12.6" r="58" s="14" spans="1:14">
+        <v>1444.62385</v>
+      </c>
+      <c r="N57" s="22" t="n">
+        <v>618.699</v>
+      </c>
+      <c r="O57" s="10" t="n"/>
+    </row>
+    <row r="58" ht="12.6" customFormat="1" customHeight="1" s="14">
       <c r="A58" s="5" t="n"/>
-      <c r="B58" s="64" t="s">
-        <v>56</v>
+      <c r="B58" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
+        </is>
       </c>
       <c r="C58" s="22" t="n">
         <v>0</v>
@@ -3630,12 +3345,17 @@
       <c r="M58" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N58" s="10" t="n"/>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="N58" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" s="10" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="10" t="n"/>
-      <c r="B59" s="59" t="s">
-        <v>57</v>
+      <c r="B59" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Other </t>
+        </is>
       </c>
       <c r="C59" s="22" t="n">
         <v>0</v>
@@ -3670,11 +3390,16 @@
       <c r="M59" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N59" s="10" t="n"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="B60" s="62" t="s">
-        <v>58</v>
+      <c r="N59" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" s="10" t="n"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
+        </is>
       </c>
       <c r="C60" s="35" t="n">
         <v>0</v>
@@ -3709,18 +3434,23 @@
       <c r="M60" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N60" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="61" s="70" spans="1:14">
+      <c r="N60" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" s="10" t="n"/>
+    </row>
+    <row r="61" ht="12.6" customHeight="1" s="70">
       <c r="A61" s="5" t="n"/>
-      <c r="B61" s="56" t="s">
-        <v>59</v>
+      <c r="B61" s="56" t="inlineStr">
+        <is>
+          <t>II- FIXED ASSETS</t>
+        </is>
       </c>
       <c r="C61" s="36" t="n">
         <v>46847.77388</v>
       </c>
       <c r="D61" s="36" t="n">
-        <v>59655.77631999999</v>
+        <v>59655.77632</v>
       </c>
       <c r="E61" s="36" t="n">
         <v>68080.44734999999</v>
@@ -3735,7 +3465,7 @@
         <v>87466.62670000001</v>
       </c>
       <c r="I61" s="36" t="n">
-        <v>127352.18977</v>
+        <v>132087.66159</v>
       </c>
       <c r="J61" s="37" t="n">
         <v>144633.28047</v>
@@ -3744,23 +3474,28 @@
         <v>150324.93063</v>
       </c>
       <c r="L61" s="36" t="n">
-        <v>169667.78226</v>
+        <v>172719.80034</v>
       </c>
       <c r="M61" s="36" t="n">
-        <v>205749.5808</v>
-      </c>
-      <c r="N61" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="62" s="70" spans="1:14">
+        <v>210659.3086</v>
+      </c>
+      <c r="N61" s="36" t="n">
+        <v>222087.677</v>
+      </c>
+      <c r="O61" s="10" t="n"/>
+    </row>
+    <row r="62" ht="12.6" customHeight="1" s="70">
       <c r="A62" s="5" t="n"/>
-      <c r="B62" s="60" t="s">
-        <v>60</v>
+      <c r="B62" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C62" s="36" t="n">
         <v>91.71979999999999</v>
       </c>
       <c r="D62" s="36" t="n">
-        <v>708.86918</v>
+        <v>708.8691799999999</v>
       </c>
       <c r="E62" s="36" t="n">
         <v>441.48965</v>
@@ -3784,17 +3519,22 @@
         <v>5161.18197</v>
       </c>
       <c r="L62" s="36" t="n">
-        <v>15043.49402</v>
+        <v>15835.99804</v>
       </c>
       <c r="M62" s="36" t="n">
-        <v>20708.29736</v>
-      </c>
-      <c r="N62" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="63" s="70" spans="1:14">
+        <v>20727.55915</v>
+      </c>
+      <c r="N62" s="36" t="n">
+        <v>24503.539</v>
+      </c>
+      <c r="O62" s="10" t="n"/>
+    </row>
+    <row r="63" ht="12.6" customHeight="1" s="70">
       <c r="A63" s="5" t="n"/>
-      <c r="B63" s="64" t="s">
-        <v>17</v>
+      <c r="B63" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C63" s="22" t="n">
         <v>0</v>
@@ -3829,12 +3569,17 @@
       <c r="M63" s="22" t="n">
         <v>19211.07736</v>
       </c>
-      <c r="N63" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="64" s="70" spans="1:14">
+      <c r="N63" s="22" t="n">
+        <v>23864.123</v>
+      </c>
+      <c r="O63" s="10" t="n"/>
+    </row>
+    <row r="64" ht="12.6" customHeight="1" s="70">
       <c r="A64" s="5" t="n"/>
-      <c r="B64" s="59" t="s">
-        <v>18</v>
+      <c r="B64" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C64" s="22" t="n">
         <v>0</v>
@@ -3869,12 +3614,17 @@
       <c r="M64" s="22" t="n">
         <v>461.33686</v>
       </c>
-      <c r="N64" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="65" s="70" spans="1:14">
+      <c r="N64" s="22" t="n">
+        <v>169.831</v>
+      </c>
+      <c r="O64" s="10" t="n"/>
+    </row>
+    <row r="65" ht="12.6" customHeight="1" s="70">
       <c r="A65" s="5" t="n"/>
-      <c r="B65" s="64" t="s">
-        <v>19</v>
+      <c r="B65" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C65" s="22" t="n">
         <v>0</v>
@@ -3909,12 +3659,17 @@
       <c r="M65" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N65" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="66" s="70" spans="1:14">
+      <c r="N65" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" s="10" t="n"/>
+    </row>
+    <row r="66" ht="12.6" customHeight="1" s="70">
       <c r="A66" s="5" t="n"/>
-      <c r="B66" s="64" t="s">
-        <v>20</v>
+      <c r="B66" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C66" s="22" t="n">
         <v>0</v>
@@ -3949,18 +3704,23 @@
       <c r="M66" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N66" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="67" s="70" spans="1:14">
+      <c r="N66" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" s="10" t="n"/>
+    </row>
+    <row r="67" ht="12.6" customHeight="1" s="70">
       <c r="A67" s="5" t="n"/>
-      <c r="B67" s="59" t="s">
-        <v>21</v>
+      <c r="B67" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C67" s="22" t="n">
         <v>91.71979999999999</v>
       </c>
       <c r="D67" s="22" t="n">
-        <v>708.86918</v>
+        <v>708.8691799999999</v>
       </c>
       <c r="E67" s="22" t="n">
         <v>441.48965</v>
@@ -3984,17 +3744,22 @@
         <v>3178.19281</v>
       </c>
       <c r="L67" s="22" t="n">
-        <v>3153.56987</v>
+        <v>3946.07389</v>
       </c>
       <c r="M67" s="22" t="n">
-        <v>1035.88314</v>
-      </c>
-      <c r="N67" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="68" s="70" spans="1:14">
+        <v>1055.14493</v>
+      </c>
+      <c r="N67" s="22" t="n">
+        <v>469.585</v>
+      </c>
+      <c r="O67" s="10" t="n"/>
+    </row>
+    <row r="68" ht="12.6" customHeight="1" s="70">
       <c r="A68" s="8" t="n"/>
-      <c r="B68" s="64" t="s">
-        <v>61</v>
+      <c r="B68" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C68" s="22" t="n">
         <v>0</v>
@@ -4029,12 +3794,17 @@
       <c r="M68" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N68" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="69" s="70" spans="1:14">
+      <c r="N68" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" s="10" t="n"/>
+    </row>
+    <row r="69" ht="12.6" customHeight="1" s="70">
       <c r="A69" s="5" t="n"/>
-      <c r="B69" s="57" t="s">
-        <v>62</v>
+      <c r="B69" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Other Long-Term Receivables</t>
+        </is>
       </c>
       <c r="C69" s="36" t="n">
         <v>489.74129</v>
@@ -4064,17 +3834,22 @@
         <v>2363.59526</v>
       </c>
       <c r="L69" s="36" t="n">
-        <v>2329.80227</v>
+        <v>4096.158179999999</v>
       </c>
       <c r="M69" s="36" t="n">
         <v>2436.58027</v>
       </c>
-      <c r="N69" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="70" s="70" spans="1:14">
+      <c r="N69" s="36" t="n">
+        <v>2361.197</v>
+      </c>
+      <c r="O69" s="10" t="n"/>
+    </row>
+    <row r="70" ht="12.6" customHeight="1" s="70">
       <c r="A70" s="5" t="n"/>
-      <c r="B70" s="64" t="s">
-        <v>26</v>
+      <c r="B70" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C70" s="22" t="n">
         <v>0</v>
@@ -4109,12 +3884,17 @@
       <c r="M70" s="22" t="n">
         <v>26.5</v>
       </c>
-      <c r="N70" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="71" s="70" spans="1:14">
+      <c r="N70" s="22" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="O70" s="10" t="n"/>
+    </row>
+    <row r="71" ht="12.6" customHeight="1" s="70">
       <c r="A71" s="8" t="n"/>
-      <c r="B71" s="59" t="s">
-        <v>27</v>
+      <c r="B71" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C71" s="22" t="n">
         <v>489.74129</v>
@@ -4149,12 +3929,17 @@
       <c r="M71" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N71" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="72" s="70" spans="1:14">
+      <c r="N71" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" s="10" t="n"/>
+    </row>
+    <row r="72" ht="12.6" customHeight="1" s="70">
       <c r="A72" s="5" t="n"/>
-      <c r="B72" s="64" t="s">
-        <v>28</v>
+      <c r="B72" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C72" s="22" t="n">
         <v>0</v>
@@ -4189,12 +3974,17 @@
       <c r="M72" s="22" t="n">
         <v>175.39719</v>
       </c>
-      <c r="N72" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="73" s="70" spans="1:14">
+      <c r="N72" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" s="10" t="n"/>
+    </row>
+    <row r="73" ht="12.6" customHeight="1" s="70">
       <c r="A73" s="5" t="n"/>
-      <c r="B73" s="64" t="s">
-        <v>29</v>
+      <c r="B73" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C73" s="22" t="n">
         <v>0</v>
@@ -4229,12 +4019,17 @@
       <c r="M73" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N73" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="74" s="70" spans="1:14">
+      <c r="N73" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" s="10" t="n"/>
+    </row>
+    <row r="74" ht="12.6" customHeight="1" s="70">
       <c r="A74" s="5" t="n"/>
-      <c r="B74" s="64" t="s">
-        <v>30</v>
+      <c r="B74" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C74" s="22" t="n">
         <v>0</v>
@@ -4264,17 +4059,22 @@
         <v>2188.19807</v>
       </c>
       <c r="L74" s="22" t="n">
-        <v>2130.40508</v>
+        <v>3896.76099</v>
       </c>
       <c r="M74" s="22" t="n">
         <v>2234.68308</v>
       </c>
-      <c r="N74" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="75" s="70" spans="1:14">
+      <c r="N74" s="22" t="n">
+        <v>2334.697</v>
+      </c>
+      <c r="O74" s="10" t="n"/>
+    </row>
+    <row r="75" ht="12.6" customHeight="1" s="70">
       <c r="A75" s="5" t="n"/>
-      <c r="B75" s="64" t="s">
-        <v>63</v>
+      <c r="B75" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C75" s="22" t="n">
         <v>0</v>
@@ -4309,12 +4109,17 @@
       <c r="M75" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N75" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="76" s="70" spans="1:14">
+      <c r="N75" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" s="11" t="n"/>
+    </row>
+    <row r="76" ht="12.6" customHeight="1" s="70">
       <c r="A76" s="8" t="n"/>
-      <c r="B76" s="64" t="s">
-        <v>64</v>
+      <c r="B76" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C76" s="22" t="n">
         <v>0</v>
@@ -4349,12 +4154,17 @@
       <c r="M76" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N76" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="77" s="70" spans="1:14">
+      <c r="N76" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" s="10" t="n"/>
+    </row>
+    <row r="77" ht="12.6" customHeight="1" s="70">
       <c r="A77" s="5" t="n"/>
-      <c r="B77" s="60" t="s">
-        <v>65</v>
+      <c r="B77" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C77" s="23" t="n">
         <v>271.25</v>
@@ -4384,17 +4194,22 @@
         <v>625.0625</v>
       </c>
       <c r="L77" s="23" t="n">
-        <v>4820.92375</v>
+        <v>4821.42375</v>
       </c>
       <c r="M77" s="23" t="n">
-        <v>3470.15418</v>
-      </c>
-      <c r="N77" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="78" s="70" spans="1:14">
+        <v>3470.65418</v>
+      </c>
+      <c r="N77" s="23" t="n">
+        <v>3320.453</v>
+      </c>
+      <c r="O77" s="10" t="n"/>
+    </row>
+    <row r="78" ht="12.6" customHeight="1" s="70">
       <c r="A78" s="5" t="n"/>
-      <c r="B78" s="64" t="s">
-        <v>66</v>
+      <c r="B78" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Non-Marketable Securities</t>
+        </is>
       </c>
       <c r="C78" s="22" t="n">
         <v>1.25</v>
@@ -4429,12 +4244,17 @@
       <c r="M78" s="22" t="n">
         <v>15.31</v>
       </c>
-      <c r="N78" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="79" s="70" spans="1:14">
+      <c r="N78" s="22" t="n">
+        <v>10</v>
+      </c>
+      <c r="O78" s="10" t="n"/>
+    </row>
+    <row r="79" ht="12.6" customHeight="1" s="70">
       <c r="A79" s="5" t="n"/>
-      <c r="B79" s="59" t="s">
-        <v>67</v>
+      <c r="B79" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C79" s="22" t="n">
         <v>0</v>
@@ -4469,12 +4289,17 @@
       <c r="M79" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N79" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="80" s="70" spans="1:14">
+      <c r="N79" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" s="10" t="n"/>
+    </row>
+    <row r="80" ht="12.6" customHeight="1" s="70">
       <c r="A80" s="5" t="n"/>
-      <c r="B80" s="59" t="s">
-        <v>68</v>
+      <c r="B80" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Participations</t>
+        </is>
       </c>
       <c r="C80" s="22" t="n">
         <v>270</v>
@@ -4504,17 +4329,22 @@
         <v>0.5024999999999999</v>
       </c>
       <c r="L80" s="22" t="n">
-        <v>3302.5025</v>
+        <v>3303.0025</v>
       </c>
       <c r="M80" s="22" t="n">
-        <v>3302.6025</v>
-      </c>
-      <c r="N80" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="81" s="70" spans="1:14">
+        <v>3303.1025</v>
+      </c>
+      <c r="N80" s="22" t="n">
+        <v>3305.553</v>
+      </c>
+      <c r="O80" s="10" t="n"/>
+    </row>
+    <row r="81" ht="12.6" customHeight="1" s="70">
       <c r="A81" s="5" t="n"/>
-      <c r="B81" s="59" t="s">
-        <v>69</v>
+      <c r="B81" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
+        </is>
       </c>
       <c r="C81" s="22" t="n">
         <v>0</v>
@@ -4549,12 +4379,17 @@
       <c r="M81" s="22" t="n">
         <v>0.1</v>
       </c>
-      <c r="N81" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="82" s="70" spans="1:14">
+      <c r="N81" s="22" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O81" s="10" t="n"/>
+    </row>
+    <row r="82" ht="12.6" customHeight="1" s="70">
       <c r="A82" s="8" t="n"/>
-      <c r="B82" s="59" t="s">
-        <v>70</v>
+      <c r="B82" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
+        </is>
       </c>
       <c r="C82" s="22" t="n">
         <v>0</v>
@@ -4589,12 +4424,17 @@
       <c r="M82" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N82" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="83" s="70" spans="1:14">
+      <c r="N82" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" s="10" t="n"/>
+    </row>
+    <row r="83" ht="12.6" customHeight="1" s="70">
       <c r="A83" s="5" t="n"/>
-      <c r="B83" s="64" t="s">
-        <v>71</v>
+      <c r="B83" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C83" s="22" t="n">
         <v>0</v>
@@ -4629,12 +4469,17 @@
       <c r="M83" s="22" t="n">
         <v>152.34168</v>
       </c>
-      <c r="N83" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="84" s="70" spans="1:14">
+      <c r="N83" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="O83" s="10" t="n"/>
+    </row>
+    <row r="84" ht="12.6" customHeight="1" s="70">
       <c r="A84" s="5" t="n"/>
-      <c r="B84" s="59" t="s">
-        <v>72</v>
+      <c r="B84" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
+        </is>
       </c>
       <c r="C84" s="22" t="n">
         <v>0</v>
@@ -4669,12 +4514,17 @@
       <c r="M84" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N84" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="85" s="70" spans="1:14">
+      <c r="N84" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" s="10" t="n"/>
+    </row>
+    <row r="85" ht="12.6" customHeight="1" s="70">
       <c r="A85" s="5" t="n"/>
-      <c r="B85" s="59" t="s">
-        <v>73</v>
+      <c r="B85" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
+        </is>
       </c>
       <c r="C85" s="22" t="n">
         <v>0</v>
@@ -4709,12 +4559,17 @@
       <c r="M85" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N85" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="86" s="70" spans="1:14">
+      <c r="N85" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" s="10" t="n"/>
+    </row>
+    <row r="86" ht="12.6" customHeight="1" s="70">
       <c r="A86" s="5" t="n"/>
-      <c r="B86" s="64" t="s">
-        <v>74</v>
+      <c r="B86" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C86" s="22" t="n">
         <v>0</v>
@@ -4749,12 +4604,17 @@
       <c r="M86" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N86" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="87" s="70" spans="1:14">
+      <c r="N86" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" s="11" t="n"/>
+    </row>
+    <row r="87" ht="12.6" customHeight="1" s="70">
       <c r="A87" s="8" t="n"/>
-      <c r="B87" s="59" t="s">
-        <v>75</v>
+      <c r="B87" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
+        </is>
       </c>
       <c r="C87" s="22" t="n">
         <v>0</v>
@@ -4789,52 +4649,62 @@
       <c r="M87" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N87" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="88" s="70" spans="1:14">
+      <c r="N87" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" s="10" t="n"/>
+    </row>
+    <row r="88" ht="12.6" customHeight="1" s="70">
       <c r="A88" s="8" t="n"/>
-      <c r="B88" s="60" t="s">
-        <v>76</v>
+      <c r="B88" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C88" s="23" t="n">
-        <v>37746.10865000001</v>
+        <v>37746.10865</v>
       </c>
       <c r="D88" s="23" t="n">
         <v>21109.16869</v>
       </c>
       <c r="E88" s="23" t="n">
-        <v>27392.70959</v>
+        <v>27392.70958999999</v>
       </c>
       <c r="F88" s="33" t="n">
         <v>31001.19099</v>
       </c>
       <c r="G88" s="23" t="n">
-        <v>50584.10612999999</v>
+        <v>50584.10613</v>
       </c>
       <c r="H88" s="33" t="n">
         <v>48642.07315</v>
       </c>
       <c r="I88" s="23" t="n">
-        <v>95501.02725</v>
+        <v>100151.39794</v>
       </c>
       <c r="J88" s="33" t="n">
         <v>63633.4762</v>
       </c>
       <c r="K88" s="23" t="n">
-        <v>70251.19998</v>
+        <v>70251.19997999999</v>
       </c>
       <c r="L88" s="23" t="n">
-        <v>78350.09670000001</v>
+        <v>78385.57453</v>
       </c>
       <c r="M88" s="23" t="n">
-        <v>110166.26022</v>
-      </c>
-      <c r="N88" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="89" s="70" spans="1:14">
+        <v>110911.73179</v>
+      </c>
+      <c r="N88" s="23" t="n">
+        <v>137103.819</v>
+      </c>
+      <c r="O88" s="10" t="n"/>
+    </row>
+    <row r="89" ht="12.6" customHeight="1" s="70">
       <c r="A89" s="5" t="n"/>
-      <c r="B89" s="64" t="s">
-        <v>77</v>
+      <c r="B89" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Land</t>
+        </is>
       </c>
       <c r="C89" s="22" t="n">
         <v>101.67437</v>
@@ -4869,12 +4739,17 @@
       <c r="M89" s="22" t="n">
         <v>13449.4483</v>
       </c>
-      <c r="N89" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="90" s="70" spans="1:14">
+      <c r="N89" s="22" t="n">
+        <v>19923.036</v>
+      </c>
+      <c r="O89" s="10" t="n"/>
+    </row>
+    <row r="90" ht="12.6" customHeight="1" s="70">
       <c r="A90" s="5" t="n"/>
-      <c r="B90" s="64" t="s">
-        <v>78</v>
+      <c r="B90" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Land Improvements</t>
+        </is>
       </c>
       <c r="C90" s="22" t="n">
         <v>2177.26399</v>
@@ -4909,21 +4784,26 @@
       <c r="M90" s="22" t="n">
         <v>2650.55738</v>
       </c>
-      <c r="N90" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="91" s="70" spans="1:14">
+      <c r="N90" s="22" t="n">
+        <v>2655.558</v>
+      </c>
+      <c r="O90" s="10" t="n"/>
+    </row>
+    <row r="91" ht="12.6" customHeight="1" s="70">
       <c r="A91" s="5" t="n"/>
-      <c r="B91" s="64" t="s">
-        <v>79</v>
+      <c r="B91" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Buildings</t>
+        </is>
       </c>
       <c r="C91" s="22" t="n">
         <v>5232.71492</v>
       </c>
       <c r="D91" s="22" t="n">
-        <v>5913.831550000001</v>
+        <v>5913.83155</v>
       </c>
       <c r="E91" s="22" t="n">
-        <v>6172.65793</v>
+        <v>6172.657929999999</v>
       </c>
       <c r="F91" s="21" t="n">
         <v>7748.59222</v>
@@ -4935,7 +4815,7 @@
         <v>8741.712509999999</v>
       </c>
       <c r="I91" s="22" t="n">
-        <v>8150.874600000001</v>
+        <v>8625.274369999999</v>
       </c>
       <c r="J91" s="21" t="n">
         <v>11244.37311</v>
@@ -4947,23 +4827,28 @@
         <v>12976.61522</v>
       </c>
       <c r="M91" s="22" t="n">
-        <v>24208.45983</v>
-      </c>
-      <c r="N91" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="92" s="70" spans="1:14">
+        <v>24232.61237</v>
+      </c>
+      <c r="N91" s="22" t="n">
+        <v>24739.091</v>
+      </c>
+      <c r="O91" s="10" t="n"/>
+    </row>
+    <row r="92" ht="12.6" customHeight="1" s="70">
       <c r="A92" s="5" t="n"/>
-      <c r="B92" s="64" t="s">
-        <v>80</v>
+      <c r="B92" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
+        </is>
       </c>
       <c r="C92" s="22" t="n">
         <v>4976.17176</v>
       </c>
       <c r="D92" s="22" t="n">
-        <v>6229.524530000001</v>
+        <v>6229.52453</v>
       </c>
       <c r="E92" s="22" t="n">
-        <v>7123.361730000001</v>
+        <v>7123.36173</v>
       </c>
       <c r="F92" s="21" t="n">
         <v>10755.52105</v>
@@ -4975,7 +4860,7 @@
         <v>13431.6419</v>
       </c>
       <c r="I92" s="22" t="n">
-        <v>15158.54273</v>
+        <v>16335.86844</v>
       </c>
       <c r="J92" s="21" t="n">
         <v>15985.82533</v>
@@ -4984,17 +4869,22 @@
         <v>20103.10883</v>
       </c>
       <c r="L92" s="22" t="n">
-        <v>25337.69174</v>
+        <v>25344.90869</v>
       </c>
       <c r="M92" s="22" t="n">
-        <v>34841.64689</v>
-      </c>
-      <c r="N92" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="93" s="70" spans="1:14">
+        <v>34861.64689</v>
+      </c>
+      <c r="N92" s="22" t="n">
+        <v>38952.746</v>
+      </c>
+      <c r="O92" s="10" t="n"/>
+    </row>
+    <row r="93" ht="12.6" customHeight="1" s="70">
       <c r="A93" s="5" t="n"/>
-      <c r="B93" s="64" t="s">
-        <v>81</v>
+      <c r="B93" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Motor Vehicles</t>
+        </is>
       </c>
       <c r="C93" s="22" t="n">
         <v>10704.02853</v>
@@ -5015,38 +4905,43 @@
         <v>25190.02228</v>
       </c>
       <c r="I93" s="22" t="n">
-        <v>31843.81007</v>
+        <v>37294.66503</v>
       </c>
       <c r="J93" s="21" t="n">
         <v>41158.66829</v>
       </c>
       <c r="K93" s="22" t="n">
-        <v>49643.20798000001</v>
+        <v>49643.20798</v>
       </c>
       <c r="L93" s="22" t="n">
-        <v>58542.6243</v>
+        <v>58572.6243</v>
       </c>
       <c r="M93" s="22" t="n">
-        <v>77531.89756</v>
-      </c>
-      <c r="N93" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="94" s="70" spans="1:14">
+        <v>78284.36358</v>
+      </c>
+      <c r="N93" s="22" t="n">
+        <v>96974.614</v>
+      </c>
+      <c r="O93" s="10" t="n"/>
+    </row>
+    <row r="94" ht="12.6" customHeight="1" s="70">
       <c r="A94" s="5" t="n"/>
-      <c r="B94" s="59" t="s">
-        <v>82</v>
+      <c r="B94" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
+        </is>
       </c>
       <c r="C94" s="22" t="n">
         <v>3670.36836</v>
       </c>
       <c r="D94" s="22" t="n">
-        <v>4422.809569999999</v>
+        <v>4422.80957</v>
       </c>
       <c r="E94" s="22" t="n">
         <v>5210.16023</v>
       </c>
       <c r="F94" s="21" t="n">
-        <v>6005.81562</v>
+        <v>6005.815619999999</v>
       </c>
       <c r="G94" s="22" t="n">
         <v>7538.88379</v>
@@ -5055,7 +4950,7 @@
         <v>7838.30096</v>
       </c>
       <c r="I94" s="22" t="n">
-        <v>10333.12399</v>
+        <v>10847.21936</v>
       </c>
       <c r="J94" s="21" t="n">
         <v>12326.82633</v>
@@ -5064,17 +4959,22 @@
         <v>13351.85126</v>
       </c>
       <c r="L94" s="22" t="n">
-        <v>14947.91331</v>
+        <v>14960.70617</v>
       </c>
       <c r="M94" s="22" t="n">
-        <v>18396.52249</v>
-      </c>
-      <c r="N94" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="95" s="70" spans="1:14">
+        <v>18573.89968</v>
+      </c>
+      <c r="N94" s="22" t="n">
+        <v>25201.168</v>
+      </c>
+      <c r="O94" s="10" t="n"/>
+    </row>
+    <row r="95" ht="12.6" customHeight="1" s="70">
       <c r="A95" s="5" t="n"/>
-      <c r="B95" s="64" t="s">
-        <v>83</v>
+      <c r="B95" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C95" s="22" t="n">
         <v>30.66503</v>
@@ -5109,12 +5009,17 @@
       <c r="M95" s="22" t="n">
         <v>154.02613</v>
       </c>
-      <c r="N95" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="96" s="70" spans="1:14">
+      <c r="N95" s="22" t="n">
+        <v>154.026</v>
+      </c>
+      <c r="O95" s="10" t="n"/>
+    </row>
+    <row r="96" ht="12.6" customHeight="1" s="70">
       <c r="A96" s="5" t="n"/>
-      <c r="B96" s="59" t="s">
-        <v>84</v>
+      <c r="B96" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C96" s="22" t="n">
         <v>9036.83749</v>
@@ -5135,7 +5040,7 @@
         <v>20208.35695</v>
       </c>
       <c r="I96" s="22" t="n">
-        <v>25420.41247</v>
+        <v>28386.71759</v>
       </c>
       <c r="J96" s="21" t="n">
         <v>32843.21176</v>
@@ -5144,17 +5049,22 @@
         <v>38811.37814</v>
       </c>
       <c r="L96" s="22" t="n">
-        <v>46861.77989</v>
+        <v>46876.31187</v>
       </c>
       <c r="M96" s="22" t="n">
-        <v>64883.62095999999</v>
-      </c>
-      <c r="N96" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="97" s="70" spans="1:14">
+        <v>65112.14514</v>
+      </c>
+      <c r="N96" s="22" t="n">
+        <v>77198.622</v>
+      </c>
+      <c r="O96" s="10" t="n"/>
+    </row>
+    <row r="97" ht="12.6" customHeight="1" s="70">
       <c r="A97" s="5" t="n"/>
-      <c r="B97" s="64" t="s">
-        <v>85</v>
+      <c r="B97" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Assets in Construction</t>
+        </is>
       </c>
       <c r="C97" s="22" t="n">
         <v>17636.44618</v>
@@ -5189,12 +5099,17 @@
       <c r="M97" s="22" t="n">
         <v>3589.16091</v>
       </c>
-      <c r="N97" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="98" s="70" spans="1:14">
+      <c r="N97" s="22" t="n">
+        <v>3864.672</v>
+      </c>
+      <c r="O97" s="11" t="n"/>
+    </row>
+    <row r="98" ht="12.6" customHeight="1" s="70">
       <c r="A98" s="8" t="n"/>
-      <c r="B98" s="64" t="s">
-        <v>86</v>
+      <c r="B98" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Advances Paid</t>
+        </is>
       </c>
       <c r="C98" s="22" t="n">
         <v>2253.613</v>
@@ -5229,21 +5144,26 @@
       <c r="M98" s="22" t="n">
         <v>228.16169</v>
       </c>
-      <c r="N98" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="99" s="70" spans="1:14">
+      <c r="N98" s="22" t="n">
+        <v>1837.53</v>
+      </c>
+      <c r="O98" s="10" t="n"/>
+    </row>
+    <row r="99" ht="12.6" customHeight="1" s="70">
       <c r="A99" s="5" t="n"/>
-      <c r="B99" s="60" t="s">
-        <v>87</v>
+      <c r="B99" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C99" s="23" t="n">
-        <v>7230.516380000001</v>
+        <v>7230.51638</v>
       </c>
       <c r="D99" s="23" t="n">
         <v>35184.39914</v>
       </c>
       <c r="E99" s="23" t="n">
-        <v>33977.33531</v>
+        <v>33977.33530999999</v>
       </c>
       <c r="F99" s="33" t="n">
         <v>36167.86095</v>
@@ -5255,26 +5175,31 @@
         <v>32080.33017</v>
       </c>
       <c r="I99" s="23" t="n">
-        <v>25272.2917</v>
+        <v>25306.39861</v>
       </c>
       <c r="J99" s="33" t="n">
         <v>68295.91751</v>
       </c>
       <c r="K99" s="23" t="n">
-        <v>65357.92265000001</v>
+        <v>65357.92265</v>
       </c>
       <c r="L99" s="23" t="n">
-        <v>61425.91308</v>
+        <v>61426.84641</v>
       </c>
       <c r="M99" s="23" t="n">
-        <v>60343.08251</v>
-      </c>
-      <c r="N99" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="100" s="70" spans="1:14">
+        <v>60385.28668</v>
+      </c>
+      <c r="N99" s="23" t="n">
+        <v>37562.142</v>
+      </c>
+      <c r="O99" s="10" t="n"/>
+    </row>
+    <row r="100" ht="12.6" customHeight="1" s="70">
       <c r="A100" s="5" t="n"/>
-      <c r="B100" s="64" t="s">
-        <v>88</v>
+      <c r="B100" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Know-How</t>
+        </is>
       </c>
       <c r="C100" s="22" t="n">
         <v>644.73551</v>
@@ -5295,26 +5220,31 @@
         <v>32730.35269</v>
       </c>
       <c r="I100" s="22" t="n">
-        <v>33507.30082</v>
+        <v>33516.30557</v>
       </c>
       <c r="J100" s="21" t="n">
         <v>80743.37940999999</v>
       </c>
       <c r="K100" s="22" t="n">
-        <v>81738.56135999998</v>
+        <v>81738.56135999999</v>
       </c>
       <c r="L100" s="22" t="n">
-        <v>82190.60354000001</v>
+        <v>82192.00353999999</v>
       </c>
       <c r="M100" s="22" t="n">
-        <v>86011.05872999999</v>
-      </c>
-      <c r="N100" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="101" s="70" spans="1:14">
+        <v>86016.61373</v>
+      </c>
+      <c r="N100" s="22" t="n">
+        <v>53149.172</v>
+      </c>
+      <c r="O100" s="10" t="n"/>
+    </row>
+    <row r="101" ht="12.6" customHeight="1" s="70">
       <c r="A101" s="5" t="n"/>
-      <c r="B101" s="64" t="s">
-        <v>89</v>
+      <c r="B101" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Goodwill</t>
+        </is>
       </c>
       <c r="C101" s="22" t="n">
         <v>0</v>
@@ -5349,12 +5279,17 @@
       <c r="M101" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N101" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="102" s="70" spans="1:14">
+      <c r="N101" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" s="10" t="n"/>
+    </row>
+    <row r="102" ht="12.6" customHeight="1" s="70">
       <c r="A102" s="5" t="n"/>
-      <c r="B102" s="59" t="s">
-        <v>90</v>
+      <c r="B102" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
+        </is>
       </c>
       <c r="C102" s="22" t="n">
         <v>82.58611000000001</v>
@@ -5375,7 +5310,7 @@
         <v>108.22334</v>
       </c>
       <c r="I102" s="22" t="n">
-        <v>119.34378</v>
+        <v>121.22352</v>
       </c>
       <c r="J102" s="21" t="n">
         <v>122.56741</v>
@@ -5387,14 +5322,19 @@
         <v>140.81473</v>
       </c>
       <c r="M102" s="22" t="n">
-        <v>137.88457</v>
-      </c>
-      <c r="N102" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="103" s="70" spans="1:14">
+        <v>140.45199</v>
+      </c>
+      <c r="N102" s="22" t="n">
+        <v>138.493</v>
+      </c>
+      <c r="O102" s="10" t="n"/>
+    </row>
+    <row r="103" ht="12.6" customHeight="1" s="70">
       <c r="A103" s="8" t="n"/>
-      <c r="B103" s="59" t="s">
-        <v>91</v>
+      <c r="B103" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Research and Development Expenses</t>
+        </is>
       </c>
       <c r="C103" s="22" t="n">
         <v>0</v>
@@ -5429,12 +5369,17 @@
       <c r="M103" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N103" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="104" s="70" spans="1:14">
+      <c r="N103" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O103" s="10" t="n"/>
+    </row>
+    <row r="104" ht="12.6" customHeight="1" s="70">
       <c r="A104" s="5" t="n"/>
-      <c r="B104" s="66" t="s">
-        <v>92</v>
+      <c r="B104" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Expenses</t>
+        </is>
       </c>
       <c r="C104" s="22" t="n">
         <v>7078.254120000001</v>
@@ -5443,7 +5388,7 @@
         <v>9739.61534</v>
       </c>
       <c r="E104" s="22" t="n">
-        <v>9391.989870000001</v>
+        <v>9391.989869999999</v>
       </c>
       <c r="F104" s="21" t="n">
         <v>9811.956480000001</v>
@@ -5455,7 +5400,7 @@
         <v>10060.95185</v>
       </c>
       <c r="I104" s="22" t="n">
-        <v>1128.82362</v>
+        <v>1153.69485</v>
       </c>
       <c r="J104" s="21" t="n">
         <v>1323.79726</v>
@@ -5467,14 +5412,19 @@
         <v>1904.87482</v>
       </c>
       <c r="M104" s="22" t="n">
-        <v>2271.47757</v>
-      </c>
-      <c r="N104" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="105" s="70" spans="1:14">
+        <v>2328.8379</v>
+      </c>
+      <c r="N104" s="22" t="n">
+        <v>2993.622</v>
+      </c>
+      <c r="O104" s="10" t="n"/>
+    </row>
+    <row r="105" ht="12.6" customHeight="1" s="70">
       <c r="A105" s="5" t="n"/>
-      <c r="B105" s="66" t="s">
-        <v>93</v>
+      <c r="B105" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C105" s="22" t="n">
         <v>514.1687300000001</v>
@@ -5507,14 +5457,19 @@
         <v>243.44187</v>
       </c>
       <c r="M105" s="22" t="n">
-        <v>277.83679</v>
-      </c>
-      <c r="N105" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="106" s="70" spans="1:14">
+        <v>277.8367900000001</v>
+      </c>
+      <c r="N105" s="22" t="n">
+        <v>942.0170000000001</v>
+      </c>
+      <c r="O105" s="10" t="n"/>
+    </row>
+    <row r="106" ht="12.6" customHeight="1" s="70">
       <c r="A106" s="8" t="n"/>
-      <c r="B106" s="67" t="s">
-        <v>94</v>
+      <c r="B106" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C106" s="22" t="n">
         <v>1089.22809</v>
@@ -5529,13 +5484,13 @@
         <v>6552.15785</v>
       </c>
       <c r="G106" s="22" t="n">
-        <v>9446.25647</v>
+        <v>9446.256469999998</v>
       </c>
       <c r="H106" s="21" t="n">
         <v>11192.78331</v>
       </c>
       <c r="I106" s="22" t="n">
-        <v>10000.04086</v>
+        <v>10001.68967</v>
       </c>
       <c r="J106" s="21" t="n">
         <v>14529.04427</v>
@@ -5544,17 +5499,22 @@
         <v>18945.49977</v>
       </c>
       <c r="L106" s="22" t="n">
-        <v>23766.44793</v>
+        <v>23766.9146</v>
       </c>
       <c r="M106" s="22" t="n">
-        <v>28355.17515</v>
-      </c>
-      <c r="N106" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="107" s="70" spans="1:14">
+        <v>28378.45373</v>
+      </c>
+      <c r="N106" s="22" t="n">
+        <v>19760.162</v>
+      </c>
+      <c r="O106" s="10" t="n"/>
+    </row>
+    <row r="107" ht="12.6" customHeight="1" s="70">
       <c r="A107" s="8" t="n"/>
-      <c r="B107" s="66" t="s">
-        <v>95</v>
+      <c r="B107" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Advances Paid</t>
+        </is>
       </c>
       <c r="C107" s="22" t="n">
         <v>0</v>
@@ -5589,12 +5549,17 @@
       <c r="M107" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N107" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="108" s="70" spans="1:14">
+      <c r="N107" s="22" t="n">
+        <v>99</v>
+      </c>
+      <c r="O107" s="10" t="n"/>
+    </row>
+    <row r="108" ht="12.6" customHeight="1" s="70">
       <c r="A108" s="5" t="n"/>
-      <c r="B108" s="68" t="s">
-        <v>96</v>
+      <c r="B108" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Assets Subject to Depletion</t>
+        </is>
       </c>
       <c r="C108" s="23" t="n">
         <v>0</v>
@@ -5629,12 +5594,17 @@
       <c r="M108" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N108" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="109" s="70" spans="1:14">
+      <c r="N108" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O108" s="10" t="n"/>
+    </row>
+    <row r="109" ht="12.6" customHeight="1" s="70">
       <c r="A109" s="5" t="n"/>
-      <c r="B109" s="66" t="s">
-        <v>97</v>
+      <c r="B109" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Exploration Expenses</t>
+        </is>
       </c>
       <c r="C109" s="22" t="n">
         <v>0</v>
@@ -5669,12 +5639,17 @@
       <c r="M109" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N109" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="110" s="70" spans="1:14">
+      <c r="N109" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" s="10" t="n"/>
+    </row>
+    <row r="110" ht="12.6" customHeight="1" s="70">
       <c r="A110" s="5" t="n"/>
-      <c r="B110" s="64" t="s">
-        <v>98</v>
+      <c r="B110" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Preparation and Development Expenses</t>
+        </is>
       </c>
       <c r="C110" s="22" t="n">
         <v>0</v>
@@ -5709,12 +5684,17 @@
       <c r="M110" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N110" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="111" s="70" spans="1:14">
+      <c r="N110" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" s="10" t="n"/>
+    </row>
+    <row r="111" ht="12.6" customHeight="1" s="70">
       <c r="A111" s="5" t="n"/>
-      <c r="B111" s="64" t="s">
-        <v>99</v>
+      <c r="B111" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
+        </is>
       </c>
       <c r="C111" s="22" t="n">
         <v>0</v>
@@ -5749,12 +5729,17 @@
       <c r="M111" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N111" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="112" s="70" spans="1:14">
+      <c r="N111" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" s="10" t="n"/>
+    </row>
+    <row r="112" ht="12.6" customHeight="1" s="70">
       <c r="A112" s="5" t="n"/>
-      <c r="B112" s="59" t="s">
-        <v>100</v>
+      <c r="B112" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
+        </is>
       </c>
       <c r="C112" s="22" t="n">
         <v>0</v>
@@ -5789,12 +5774,17 @@
       <c r="M112" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N112" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="113" s="70" spans="1:14">
+      <c r="N112" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" s="11" t="n"/>
+    </row>
+    <row r="113" ht="12.6" customHeight="1" s="70">
       <c r="A113" s="8" t="n"/>
-      <c r="B113" s="64" t="s">
-        <v>101</v>
+      <c r="B113" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Advances Paid</t>
+        </is>
       </c>
       <c r="C113" s="22" t="n">
         <v>0</v>
@@ -5829,33 +5819,38 @@
       <c r="M113" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N113" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="114" s="70" spans="1:14">
+      <c r="N113" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" s="10" t="n"/>
+    </row>
+    <row r="114" ht="12.6" customHeight="1" s="70">
       <c r="A114" s="5" t="n"/>
-      <c r="B114" s="60" t="s">
-        <v>102</v>
+      <c r="B114" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C114" s="23" t="n">
-        <v>475.91394</v>
+        <v>475.9139400000001</v>
       </c>
       <c r="D114" s="23" t="n">
         <v>674.79313</v>
       </c>
       <c r="E114" s="23" t="n">
-        <v>831.5566900000001</v>
+        <v>831.5566899999999</v>
       </c>
       <c r="F114" s="33" t="n">
         <v>2285.34237</v>
       </c>
       <c r="G114" s="23" t="n">
-        <v>996.0256699999999</v>
+        <v>996.02567</v>
       </c>
       <c r="H114" s="33" t="n">
         <v>965.53116</v>
       </c>
       <c r="I114" s="23" t="n">
-        <v>1497.88</v>
+        <v>1506.46579</v>
       </c>
       <c r="J114" s="33" t="n">
         <v>2321.94423</v>
@@ -5867,35 +5862,40 @@
         <v>4472.76755</v>
       </c>
       <c r="M114" s="23" t="n">
-        <v>2270.29613</v>
-      </c>
-      <c r="N114" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="115" s="70" spans="1:14">
+        <v>2413.73127</v>
+      </c>
+      <c r="N114" s="23" t="n">
+        <v>4666.972</v>
+      </c>
+      <c r="O114" s="10" t="n"/>
+    </row>
+    <row r="115" ht="12.6" customHeight="1" s="70">
       <c r="A115" s="5" t="n"/>
-      <c r="B115" s="64" t="s">
-        <v>103</v>
+      <c r="B115" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Years</t>
+        </is>
       </c>
       <c r="C115" s="22" t="n">
-        <v>475.91394</v>
+        <v>475.9139400000001</v>
       </c>
       <c r="D115" s="22" t="n">
         <v>674.79313</v>
       </c>
       <c r="E115" s="22" t="n">
-        <v>831.5566900000001</v>
+        <v>831.5566899999999</v>
       </c>
       <c r="F115" s="21" t="n">
         <v>2285.34237</v>
       </c>
       <c r="G115" s="22" t="n">
-        <v>996.0256699999999</v>
+        <v>996.02567</v>
       </c>
       <c r="H115" s="21" t="n">
         <v>965.53116</v>
       </c>
       <c r="I115" s="22" t="n">
-        <v>1497.88</v>
+        <v>1506.46579</v>
       </c>
       <c r="J115" s="21" t="n">
         <v>2321.94423</v>
@@ -5907,14 +5907,19 @@
         <v>4472.76755</v>
       </c>
       <c r="M115" s="22" t="n">
-        <v>2270.29613</v>
-      </c>
-      <c r="N115" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="116" s="70" spans="1:14">
+        <v>2413.73127</v>
+      </c>
+      <c r="N115" s="22" t="n">
+        <v>4666.972</v>
+      </c>
+      <c r="O115" s="11" t="n"/>
+    </row>
+    <row r="116" ht="12.6" customHeight="1" s="70">
       <c r="A116" s="8" t="n"/>
-      <c r="B116" s="64" t="s">
-        <v>48</v>
+      <c r="B116" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C116" s="22" t="n">
         <v>0</v>
@@ -5949,12 +5954,17 @@
       <c r="M116" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N116" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="117" s="70" spans="1:14">
+      <c r="N116" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O116" s="10" t="n"/>
+    </row>
+    <row r="117" ht="12.6" customHeight="1" s="70">
       <c r="A117" s="8" t="n"/>
-      <c r="B117" s="57" t="s">
-        <v>104</v>
+      <c r="B117" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Other Long-Term Assets</t>
+        </is>
       </c>
       <c r="C117" s="23" t="n">
         <v>542.52382</v>
@@ -5975,7 +5985,7 @@
         <v>942.22213</v>
       </c>
       <c r="I117" s="23" t="n">
-        <v>1402.78437</v>
+        <v>1445.1928</v>
       </c>
       <c r="J117" s="33" t="n">
         <v>1900.17988</v>
@@ -5984,17 +5994,22 @@
         <v>3121.99606</v>
       </c>
       <c r="L117" s="23" t="n">
-        <v>3224.78489</v>
+        <v>3681.03188</v>
       </c>
       <c r="M117" s="23" t="n">
-        <v>6354.910129999999</v>
-      </c>
-      <c r="N117" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="118" s="70" spans="1:14">
+        <v>10313.76526</v>
+      </c>
+      <c r="N117" s="23" t="n">
+        <v>12569.555</v>
+      </c>
+      <c r="O117" s="10" t="n"/>
+    </row>
+    <row r="118" ht="12.6" customHeight="1" s="70">
       <c r="A118" s="5" t="n"/>
-      <c r="B118" s="64" t="s">
-        <v>105</v>
+      <c r="B118" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
+        </is>
       </c>
       <c r="C118" s="22" t="n">
         <v>41.40656</v>
@@ -6029,12 +6044,17 @@
       <c r="M118" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N118" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="119" s="70" spans="1:14">
+      <c r="N118" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O118" s="10" t="n"/>
+    </row>
+    <row r="119" ht="12.6" customHeight="1" s="70">
       <c r="A119" s="5" t="n"/>
-      <c r="B119" s="64" t="s">
-        <v>106</v>
+      <c r="B119" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C119" s="22" t="n">
         <v>0</v>
@@ -6069,12 +6089,17 @@
       <c r="M119" s="22" t="n">
         <v>25.74</v>
       </c>
-      <c r="N119" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="120" s="70" spans="1:14">
+      <c r="N119" s="22" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="O119" s="10" t="n"/>
+    </row>
+    <row r="120" ht="12.6" customHeight="1" s="70">
       <c r="A120" s="5" t="n"/>
-      <c r="B120" s="64" t="s">
-        <v>107</v>
+      <c r="B120" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
+        </is>
       </c>
       <c r="C120" s="22" t="n">
         <v>0</v>
@@ -6109,12 +6134,17 @@
       <c r="M120" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N120" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="121" s="70" spans="1:14">
+      <c r="N120" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" s="10" t="n"/>
+    </row>
+    <row r="121" ht="12.6" customHeight="1" s="70">
       <c r="A121" s="5" t="n"/>
-      <c r="B121" s="64" t="s">
-        <v>108</v>
+      <c r="B121" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
+        </is>
       </c>
       <c r="C121" s="22" t="n">
         <v>0</v>
@@ -6149,18 +6179,23 @@
       <c r="M121" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N121" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="122" s="70" spans="1:14">
+      <c r="N121" s="22" t="n">
+        <v>125.882</v>
+      </c>
+      <c r="O121" s="10" t="n"/>
+    </row>
+    <row r="122" ht="12.6" customHeight="1" s="70">
       <c r="A122" s="5" t="n"/>
-      <c r="B122" s="59" t="s">
-        <v>109</v>
+      <c r="B122" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Prepaid taxes and funds</t>
+        </is>
       </c>
       <c r="C122" s="22" t="n">
         <v>484.24628</v>
       </c>
       <c r="D122" s="22" t="n">
-        <v>904.1133600000001</v>
+        <v>904.1133599999999</v>
       </c>
       <c r="E122" s="22" t="n">
         <v>3507.84501</v>
@@ -6172,10 +6207,10 @@
         <v>814.4935899999999</v>
       </c>
       <c r="H122" s="21" t="n">
-        <v>859.2641599999999</v>
+        <v>859.2641600000001</v>
       </c>
       <c r="I122" s="22" t="n">
-        <v>1402.60987</v>
+        <v>1445.0183</v>
       </c>
       <c r="J122" s="21" t="n">
         <v>1471.14648</v>
@@ -6184,17 +6219,22 @@
         <v>2642.38487</v>
       </c>
       <c r="L122" s="22" t="n">
-        <v>2432.78168</v>
+        <v>2889.02867</v>
       </c>
       <c r="M122" s="22" t="n">
-        <v>5627.51959</v>
-      </c>
-      <c r="N122" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="123" s="70" spans="1:14">
+        <v>9586.374719999998</v>
+      </c>
+      <c r="N122" s="22" t="n">
+        <v>10687.042</v>
+      </c>
+      <c r="O122" s="10" t="n"/>
+    </row>
+    <row r="123" ht="12.6" customHeight="1" s="70">
       <c r="A123" s="5" t="n"/>
-      <c r="B123" s="59" t="s">
-        <v>110</v>
+      <c r="B123" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other </t>
+        </is>
       </c>
       <c r="C123" s="22" t="n">
         <v>16.87098</v>
@@ -6229,12 +6269,17 @@
       <c r="M123" s="22" t="n">
         <v>0.1745</v>
       </c>
-      <c r="N123" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="124" s="70" spans="1:14">
+      <c r="N123" s="22" t="n">
+        <v>1155.297</v>
+      </c>
+      <c r="O123" s="10" t="n"/>
+    </row>
+    <row r="124" ht="12.6" customHeight="1" s="70">
       <c r="A124" s="5" t="n"/>
-      <c r="B124" s="59" t="s">
-        <v>111</v>
+      <c r="B124" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
+        </is>
       </c>
       <c r="C124" s="22" t="n">
         <v>0</v>
@@ -6269,12 +6314,17 @@
       <c r="M124" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N124" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="125" s="70" spans="1:14">
+      <c r="N124" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" s="11" t="n"/>
+    </row>
+    <row r="125" ht="12.6" customHeight="1" s="70">
       <c r="A125" s="8" t="n"/>
-      <c r="B125" s="59" t="s">
-        <v>112</v>
+      <c r="B125" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
+        </is>
       </c>
       <c r="C125" s="22" t="n">
         <v>0</v>
@@ -6309,12 +6359,17 @@
       <c r="M125" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N125" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="126" s="70" spans="1:14">
+      <c r="N125" s="22" t="n">
+        <v>125.882</v>
+      </c>
+      <c r="O125" s="10" t="n"/>
+    </row>
+    <row r="126" ht="12.6" customHeight="1" s="70">
       <c r="A126" s="8" t="n"/>
-      <c r="B126" s="59" t="s">
-        <v>113</v>
+      <c r="B126" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Suspence Account</t>
+        </is>
       </c>
       <c r="C126" s="22" t="n">
         <v>0</v>
@@ -6349,12 +6404,17 @@
       <c r="M126" s="22" t="n">
         <v>701.47604</v>
       </c>
-      <c r="N126" s="10" t="n"/>
-    </row>
-    <row r="127" spans="1:14">
+      <c r="N126" s="22" t="n">
+        <v>701.476</v>
+      </c>
+      <c r="O126" s="10" t="n"/>
+    </row>
+    <row r="127">
       <c r="A127" s="8" t="n"/>
-      <c r="B127" s="38" t="s">
-        <v>114</v>
+      <c r="B127" s="38" t="inlineStr">
+        <is>
+          <t>TOTAL ASSETS</t>
+        </is>
       </c>
       <c r="C127" s="23" t="n">
         <v>123301.02189</v>
@@ -6363,7 +6423,7 @@
         <v>175251.82032</v>
       </c>
       <c r="E127" s="23" t="n">
-        <v>309805.53991</v>
+        <v>309805.5399100001</v>
       </c>
       <c r="F127" s="33" t="n">
         <v>233363.7444</v>
@@ -6375,23 +6435,26 @@
         <v>336220.82722</v>
       </c>
       <c r="I127" s="23" t="n">
-        <v>450313.70934</v>
+        <v>464174.47798</v>
       </c>
       <c r="J127" s="33" t="n">
         <v>578717.04478</v>
       </c>
       <c r="K127" s="23" t="n">
-        <v>591001.63205</v>
+        <v>591001.6320499999</v>
       </c>
       <c r="L127" s="23" t="n">
-        <v>643701.30334</v>
+        <v>663799.59997</v>
       </c>
       <c r="M127" s="23" t="n">
-        <v>894780.62559</v>
-      </c>
-      <c r="N127" s="1" t="n"/>
-    </row>
-    <row r="128" spans="1:14">
+        <v>1039519.12864</v>
+      </c>
+      <c r="N127" s="23" t="n">
+        <v>1353061.781</v>
+      </c>
+      <c r="O127" s="1" t="n"/>
+    </row>
+    <row r="128">
       <c r="A128" s="18" t="n"/>
       <c r="B128" s="39" t="n"/>
       <c r="C128" s="40" t="n"/>
@@ -6405,11 +6468,14 @@
       <c r="K128" s="40" t="n"/>
       <c r="L128" s="40" t="n"/>
       <c r="M128" s="40" t="n"/>
-      <c r="N128" s="1" t="n"/>
-    </row>
-    <row r="129" spans="1:14">
-      <c r="A129" s="4" t="s">
-        <v>0</v>
+      <c r="N128" s="40" t="n"/>
+      <c r="O128" s="1" t="n"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="4" t="inlineStr">
+        <is>
+          <t>370-Sewerage</t>
+        </is>
       </c>
       <c r="B129" s="29" t="n"/>
       <c r="C129" s="29" t="n"/>
@@ -6423,11 +6489,14 @@
       <c r="K129" s="29" t="n"/>
       <c r="L129" s="29" t="n"/>
       <c r="M129" s="29" t="n"/>
-      <c r="N129" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="130" s="70" spans="1:14">
-      <c r="A130" s="4" t="s">
-        <v>1</v>
+      <c r="N129" s="29" t="n"/>
+      <c r="O129" s="10" t="n"/>
+    </row>
+    <row r="130" ht="12.6" customHeight="1" s="70">
+      <c r="A130" s="4" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B130" s="63" t="n"/>
       <c r="C130" s="29" t="n"/>
@@ -6441,12 +6510,15 @@
       <c r="K130" s="29" t="n"/>
       <c r="L130" s="29" t="n"/>
       <c r="M130" s="29" t="n"/>
-      <c r="N130" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="131" s="70" spans="1:14">
+      <c r="N130" s="29" t="n"/>
+      <c r="O130" s="11" t="n"/>
+    </row>
+    <row r="131" ht="25.5" customHeight="1" s="70">
       <c r="A131" s="19" t="n"/>
-      <c r="B131" s="42" t="s">
-        <v>115</v>
+      <c r="B131" s="42" t="inlineStr">
+        <is>
+          <t>LIABILITIES</t>
+        </is>
       </c>
       <c r="C131" s="44" t="n">
         <v>2009</v>
@@ -6481,12 +6553,17 @@
       <c r="M131" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N131" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="132" s="70" spans="1:14">
+      <c r="N131" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O131" s="11" t="n"/>
+    </row>
+    <row r="132" ht="12.6" customHeight="1" s="70">
       <c r="A132" s="8" t="n"/>
-      <c r="B132" s="56" t="s">
-        <v>116</v>
+      <c r="B132" s="56" t="inlineStr">
+        <is>
+          <t>I- SHORT-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C132" s="23" t="n">
         <v>61544.68095</v>
@@ -6507,26 +6584,31 @@
         <v>180777.01848</v>
       </c>
       <c r="I132" s="23" t="n">
-        <v>239099.62746</v>
+        <v>247528.17178</v>
       </c>
       <c r="J132" s="33" t="n">
-        <v>356569.45163</v>
+        <v>356569.4516300001</v>
       </c>
       <c r="K132" s="23" t="n">
         <v>383862.60474</v>
       </c>
       <c r="L132" s="23" t="n">
-        <v>468172.99504</v>
+        <v>483083.2011599999</v>
       </c>
       <c r="M132" s="23" t="n">
-        <v>601314.00836</v>
-      </c>
-      <c r="N132" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="133" s="70" spans="1:14">
+        <v>750471.8868199999</v>
+      </c>
+      <c r="N132" s="23" t="n">
+        <v>968983.5429999999</v>
+      </c>
+      <c r="O132" s="10" t="n"/>
+    </row>
+    <row r="133" ht="12.6" customHeight="1" s="70">
       <c r="A133" s="5" t="n"/>
-      <c r="B133" s="60" t="s">
-        <v>117</v>
+      <c r="B133" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C133" s="23" t="n">
         <v>1895.70914</v>
@@ -6547,7 +6629,7 @@
         <v>12896.63956</v>
       </c>
       <c r="I133" s="23" t="n">
-        <v>15815.18452</v>
+        <v>17318.70399</v>
       </c>
       <c r="J133" s="33" t="n">
         <v>30606.97297</v>
@@ -6559,14 +6641,19 @@
         <v>49107.33416</v>
       </c>
       <c r="M133" s="23" t="n">
-        <v>56020.27431</v>
-      </c>
-      <c r="N133" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="134" s="70" spans="1:14">
+        <v>55805.81201</v>
+      </c>
+      <c r="N133" s="23" t="n">
+        <v>54028.655</v>
+      </c>
+      <c r="O133" s="10" t="n"/>
+    </row>
+    <row r="134" ht="12.6" customHeight="1" s="70">
       <c r="A134" s="5" t="n"/>
-      <c r="B134" s="64" t="s">
-        <v>118</v>
+      <c r="B134" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C134" s="22" t="n">
         <v>1812.17919</v>
@@ -6587,26 +6674,31 @@
         <v>12736.25287</v>
       </c>
       <c r="I134" s="22" t="n">
-        <v>15401.12697</v>
+        <v>16904.64644</v>
       </c>
       <c r="J134" s="21" t="n">
         <v>30160.65354</v>
       </c>
       <c r="K134" s="22" t="n">
-        <v>42223.14928</v>
+        <v>42223.14927999999</v>
       </c>
       <c r="L134" s="22" t="n">
         <v>47711.41286</v>
       </c>
       <c r="M134" s="22" t="n">
-        <v>54176.56749</v>
-      </c>
-      <c r="N134" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="135" s="70" spans="1:14">
+        <v>53603.79839</v>
+      </c>
+      <c r="N134" s="22" t="n">
+        <v>52214.931</v>
+      </c>
+      <c r="O134" s="10" t="n"/>
+    </row>
+    <row r="135" ht="12.6" customHeight="1" s="70">
       <c r="A135" s="5" t="n"/>
-      <c r="B135" s="64" t="s">
-        <v>119</v>
+      <c r="B135" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C135" s="22" t="n">
         <v>94.41139</v>
@@ -6639,14 +6731,19 @@
         <v>147.02451</v>
       </c>
       <c r="M135" s="22" t="n">
-        <v>1376.49396</v>
-      </c>
-      <c r="N135" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="136" s="70" spans="1:14">
+        <v>1273.63046</v>
+      </c>
+      <c r="N135" s="22" t="n">
+        <v>1363.864</v>
+      </c>
+      <c r="O135" s="10" t="n"/>
+    </row>
+    <row r="136" ht="12.6" customHeight="1" s="70">
       <c r="A136" s="5" t="n"/>
-      <c r="B136" s="64" t="s">
-        <v>120</v>
+      <c r="B136" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C136" s="22" t="n">
         <v>13.27443</v>
@@ -6681,12 +6778,17 @@
       <c r="M136" s="22" t="n">
         <v>126.20108</v>
       </c>
-      <c r="N136" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="137" s="70" spans="1:14">
+      <c r="N136" s="22" t="n">
+        <v>229.937</v>
+      </c>
+      <c r="O136" s="10" t="n"/>
+    </row>
+    <row r="137" ht="12.6" customHeight="1" s="70">
       <c r="A137" s="5" t="n"/>
-      <c r="B137" s="59" t="s">
-        <v>121</v>
+      <c r="B137" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
+        </is>
       </c>
       <c r="C137" s="22" t="n">
         <v>0</v>
@@ -6719,14 +6821,19 @@
         <v>1093.8532</v>
       </c>
       <c r="M137" s="22" t="n">
-        <v>175.20985</v>
-      </c>
-      <c r="N137" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="138" s="70" spans="1:14">
+        <v>636.3801500000001</v>
+      </c>
+      <c r="N137" s="22" t="n">
+        <v>354.869</v>
+      </c>
+      <c r="O137" s="10" t="n"/>
+    </row>
+    <row r="138" ht="12.6" customHeight="1" s="70">
       <c r="A138" s="5" t="n"/>
-      <c r="B138" s="59" t="s">
-        <v>122</v>
+      <c r="B138" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
+        </is>
       </c>
       <c r="C138" s="22" t="n">
         <v>0</v>
@@ -6761,12 +6868,17 @@
       <c r="M138" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N138" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="139" s="70" spans="1:14">
+      <c r="N138" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" s="10" t="n"/>
+    </row>
+    <row r="139" ht="12.6" customHeight="1" s="70">
       <c r="A139" s="5" t="n"/>
-      <c r="B139" s="59" t="s">
-        <v>123</v>
+      <c r="B139" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Commercial Papers Issued</t>
+        </is>
       </c>
       <c r="C139" s="22" t="n">
         <v>0</v>
@@ -6801,12 +6913,17 @@
       <c r="M139" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N139" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="140" s="70" spans="1:14">
+      <c r="N139" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" s="10" t="n"/>
+    </row>
+    <row r="140" ht="12.6" customHeight="1" s="70">
       <c r="A140" s="8" t="n"/>
-      <c r="B140" s="59" t="s">
-        <v>124</v>
+      <c r="B140" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C140" s="22" t="n">
         <v>0</v>
@@ -6841,12 +6958,17 @@
       <c r="M140" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N140" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="141" s="70" spans="1:14">
+      <c r="N140" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" s="10" t="n"/>
+    </row>
+    <row r="141" ht="12.6" customHeight="1" s="70">
       <c r="A141" s="5" t="n"/>
-      <c r="B141" s="59" t="s">
-        <v>125</v>
+      <c r="B141" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
+        </is>
       </c>
       <c r="C141" s="22" t="n">
         <v>0</v>
@@ -6881,12 +7003,17 @@
       <c r="M141" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N141" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="142" s="70" spans="1:14">
+      <c r="N141" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" s="11" t="n"/>
+    </row>
+    <row r="142" ht="12.6" customHeight="1" s="70">
       <c r="A142" s="8" t="n"/>
-      <c r="B142" s="59" t="s">
-        <v>126</v>
+      <c r="B142" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Liabilities</t>
+        </is>
       </c>
       <c r="C142" s="22" t="n">
         <v>2.39299</v>
@@ -6921,12 +7048,17 @@
       <c r="M142" s="22" t="n">
         <v>418.20409</v>
       </c>
-      <c r="N142" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="143" s="70" spans="1:14">
+      <c r="N142" s="22" t="n">
+        <v>324.928</v>
+      </c>
+      <c r="O142" s="10" t="n"/>
+    </row>
+    <row r="143" ht="12.6" customHeight="1" s="70">
       <c r="A143" s="8" t="n"/>
-      <c r="B143" s="60" t="s">
-        <v>127</v>
+      <c r="B143" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C143" s="46" t="n">
         <v>22533.77554</v>
@@ -6938,16 +7070,16 @@
         <v>32349.88297</v>
       </c>
       <c r="F143" s="45" t="n">
-        <v>47460.84130000001</v>
+        <v>47460.8413</v>
       </c>
       <c r="G143" s="46" t="n">
-        <v>84882.65023999999</v>
+        <v>84882.65024</v>
       </c>
       <c r="H143" s="45" t="n">
-        <v>96741.44850999999</v>
+        <v>96741.44851</v>
       </c>
       <c r="I143" s="46" t="n">
-        <v>112693.07469</v>
+        <v>117184.16349</v>
       </c>
       <c r="J143" s="45" t="n">
         <v>136273.12225</v>
@@ -6956,17 +7088,22 @@
         <v>108828.62575</v>
       </c>
       <c r="L143" s="46" t="n">
-        <v>141066.61941</v>
+        <v>145407.23122</v>
       </c>
       <c r="M143" s="46" t="n">
-        <v>153175.87688</v>
-      </c>
-      <c r="N143" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="144" s="70" spans="1:14">
+        <v>160699.64794</v>
+      </c>
+      <c r="N143" s="46" t="n">
+        <v>275376.461</v>
+      </c>
+      <c r="O143" s="10" t="n"/>
+    </row>
+    <row r="144" ht="12.6" customHeight="1" s="70">
       <c r="A144" s="8" t="n"/>
-      <c r="B144" s="64" t="s">
-        <v>128</v>
+      <c r="B144" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C144" s="25" t="n">
         <v>17948.42452</v>
@@ -6984,10 +7121,10 @@
         <v>74310.27466</v>
       </c>
       <c r="H144" s="24" t="n">
-        <v>84854.86295000001</v>
+        <v>84854.86295</v>
       </c>
       <c r="I144" s="25" t="n">
-        <v>104941.77655</v>
+        <v>109432.86535</v>
       </c>
       <c r="J144" s="24" t="n">
         <v>122848.7459</v>
@@ -6996,17 +7133,22 @@
         <v>88765.75405</v>
       </c>
       <c r="L144" s="25" t="n">
-        <v>118736.35724</v>
+        <v>123068.46337</v>
       </c>
       <c r="M144" s="25" t="n">
-        <v>102055.38226</v>
-      </c>
-      <c r="N144" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="145" s="70" spans="1:14">
+        <v>108959.32675</v>
+      </c>
+      <c r="N144" s="25" t="n">
+        <v>129900.461</v>
+      </c>
+      <c r="O144" s="10" t="n"/>
+    </row>
+    <row r="145" ht="12.6" customHeight="1" s="70">
       <c r="A145" s="5" t="n"/>
-      <c r="B145" s="64" t="s">
-        <v>129</v>
+      <c r="B145" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C145" s="25" t="n">
         <v>1055.97982</v>
@@ -7027,7 +7169,7 @@
         <v>6951.00217</v>
       </c>
       <c r="I145" s="25" t="n">
-        <v>3702.58373</v>
+        <v>3702.583729999999</v>
       </c>
       <c r="J145" s="24" t="n">
         <v>7746.241210000001</v>
@@ -7039,14 +7181,19 @@
         <v>9340.298439999999</v>
       </c>
       <c r="M145" s="25" t="n">
-        <v>37832.18412</v>
-      </c>
-      <c r="N145" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="146" s="70" spans="1:14">
+        <v>38440.70512</v>
+      </c>
+      <c r="N145" s="25" t="n">
+        <v>97882.28599999999</v>
+      </c>
+      <c r="O145" s="10" t="n"/>
+    </row>
+    <row r="146" ht="12.6" customHeight="1" s="70">
       <c r="A146" s="5" t="n"/>
-      <c r="B146" s="64" t="s">
-        <v>130</v>
+      <c r="B146" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C146" s="25" t="n">
         <v>0</v>
@@ -7081,12 +7228,17 @@
       <c r="M146" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="N146" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="147" s="70" spans="1:14">
+      <c r="N146" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" s="10" t="n"/>
+    </row>
+    <row r="147" ht="12.6" customHeight="1" s="70">
       <c r="A147" s="5" t="n"/>
-      <c r="B147" s="64" t="s">
-        <v>131</v>
+      <c r="B147" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C147" s="25" t="n">
         <v>585.94615</v>
@@ -7121,12 +7273,17 @@
       <c r="M147" s="25" t="n">
         <v>9956.05891</v>
       </c>
-      <c r="N147" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="148" s="70" spans="1:14">
+      <c r="N147" s="25" t="n">
+        <v>3581.363</v>
+      </c>
+      <c r="O147" s="11" t="n"/>
+    </row>
+    <row r="148" ht="12.6" customHeight="1" s="70">
       <c r="A148" s="8" t="n"/>
-      <c r="B148" s="59" t="s">
-        <v>132</v>
+      <c r="B148" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C148" s="25" t="n">
         <v>2943.42505</v>
@@ -7150,23 +7307,28 @@
         <v>3932.42264</v>
       </c>
       <c r="J148" s="24" t="n">
-        <v>4661.5684</v>
+        <v>4661.568399999999</v>
       </c>
       <c r="K148" s="25" t="n">
         <v>5550.623060000001</v>
       </c>
       <c r="L148" s="25" t="n">
-        <v>9703.239380000001</v>
+        <v>9711.745059999999</v>
       </c>
       <c r="M148" s="25" t="n">
-        <v>3332.25159</v>
-      </c>
-      <c r="N148" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="149" s="70" spans="1:14">
+        <v>3343.55716</v>
+      </c>
+      <c r="N148" s="25" t="n">
+        <v>44012.351</v>
+      </c>
+      <c r="O148" s="10" t="n"/>
+    </row>
+    <row r="149" ht="12.6" customHeight="1" s="70">
       <c r="A149" s="8" t="n"/>
-      <c r="B149" s="57" t="s">
-        <v>133</v>
+      <c r="B149" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Short-Term Debts</t>
+        </is>
       </c>
       <c r="C149" s="23" t="n">
         <v>15791.95422</v>
@@ -7187,26 +7349,31 @@
         <v>18600.86323</v>
       </c>
       <c r="I149" s="23" t="n">
-        <v>39428.75491</v>
+        <v>40908.74572</v>
       </c>
       <c r="J149" s="33" t="n">
-        <v>64478.47871</v>
+        <v>64478.47871000001</v>
       </c>
       <c r="K149" s="23" t="n">
-        <v>91392.19508000002</v>
+        <v>91392.19508</v>
       </c>
       <c r="L149" s="23" t="n">
-        <v>148388.53716</v>
+        <v>157902.79706</v>
       </c>
       <c r="M149" s="23" t="n">
-        <v>156569.39991</v>
-      </c>
-      <c r="N149" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="150" s="70" spans="1:14">
+        <v>165535.02309</v>
+      </c>
+      <c r="N149" s="23" t="n">
+        <v>106759.29</v>
+      </c>
+      <c r="O149" s="10" t="n"/>
+    </row>
+    <row r="150" ht="12.6" customHeight="1" s="70">
       <c r="A150" s="5" t="n"/>
-      <c r="B150" s="59" t="s">
-        <v>134</v>
+      <c r="B150" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C150" s="22" t="n">
         <v>13909.81994</v>
@@ -7227,26 +7394,31 @@
         <v>13923.09918</v>
       </c>
       <c r="I150" s="22" t="n">
-        <v>24304.62295</v>
+        <v>25667.64153</v>
       </c>
       <c r="J150" s="21" t="n">
         <v>40140.28176</v>
       </c>
       <c r="K150" s="22" t="n">
-        <v>71758.63466000001</v>
+        <v>71758.63466</v>
       </c>
       <c r="L150" s="22" t="n">
-        <v>131542.28874</v>
+        <v>131545.39325</v>
       </c>
       <c r="M150" s="22" t="n">
-        <v>81459.42647999999</v>
-      </c>
-      <c r="N150" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="151" s="70" spans="1:14">
+        <v>83530.46685</v>
+      </c>
+      <c r="N150" s="22" t="n">
+        <v>58438.282</v>
+      </c>
+      <c r="O150" s="10" t="n"/>
+    </row>
+    <row r="151" ht="12.6" customHeight="1" s="70">
       <c r="A151" s="5" t="n"/>
-      <c r="B151" s="59" t="s">
-        <v>135</v>
+      <c r="B151" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C151" s="22" t="n">
         <v>0</v>
@@ -7276,17 +7448,22 @@
         <v>5444.520060000001</v>
       </c>
       <c r="L151" s="22" t="n">
-        <v>3512.65053</v>
+        <v>7115.3954</v>
       </c>
       <c r="M151" s="22" t="n">
-        <v>8456.60792</v>
-      </c>
-      <c r="N151" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="152" s="70" spans="1:14">
+        <v>12318.22102</v>
+      </c>
+      <c r="N151" s="22" t="n">
+        <v>7329.89</v>
+      </c>
+      <c r="O151" s="10" t="n"/>
+    </row>
+    <row r="152" ht="12.6" customHeight="1" s="70">
       <c r="A152" s="5" t="n"/>
-      <c r="B152" s="59" t="s">
-        <v>136</v>
+      <c r="B152" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C152" s="22" t="n">
         <v>0</v>
@@ -7321,12 +7498,17 @@
       <c r="M152" s="22" t="n">
         <v>284.41921</v>
       </c>
-      <c r="N152" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="153" s="70" spans="1:14">
+      <c r="N152" s="22" t="n">
+        <v>86.502</v>
+      </c>
+      <c r="O152" s="10" t="n"/>
+    </row>
+    <row r="153" ht="12.6" customHeight="1" s="70">
       <c r="A153" s="5" t="n"/>
-      <c r="B153" s="59" t="s">
-        <v>137</v>
+      <c r="B153" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Amounts Owed to Employees</t>
+        </is>
       </c>
       <c r="C153" s="22" t="n">
         <v>1269.9127</v>
@@ -7335,7 +7517,7 @@
         <v>964.09362</v>
       </c>
       <c r="E153" s="22" t="n">
-        <v>834.3438500000001</v>
+        <v>834.34385</v>
       </c>
       <c r="F153" s="21" t="n">
         <v>1867.67774</v>
@@ -7347,26 +7529,31 @@
         <v>2509.94689</v>
       </c>
       <c r="I153" s="22" t="n">
-        <v>4907.822990000001</v>
+        <v>5024.79522</v>
       </c>
       <c r="J153" s="21" t="n">
-        <v>6715.285900000001</v>
+        <v>6715.2859</v>
       </c>
       <c r="K153" s="22" t="n">
-        <v>9223.123919999998</v>
+        <v>9223.12392</v>
       </c>
       <c r="L153" s="22" t="n">
-        <v>8139.657409999999</v>
+        <v>8178.390069999999</v>
       </c>
       <c r="M153" s="22" t="n">
-        <v>9219.43606</v>
-      </c>
-      <c r="N153" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="154" s="70" spans="1:14">
+        <v>9401.819459999999</v>
+      </c>
+      <c r="N153" s="22" t="n">
+        <v>10435.931</v>
+      </c>
+      <c r="O153" s="10" t="n"/>
+    </row>
+    <row r="154" ht="12.6" customHeight="1" s="70">
       <c r="A154" s="5" t="n"/>
-      <c r="B154" s="59" t="s">
-        <v>30</v>
+      <c r="B154" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C154" s="22" t="n">
         <v>612.2215799999999</v>
@@ -7396,17 +7583,22 @@
         <v>4687.42928</v>
       </c>
       <c r="L154" s="22" t="n">
-        <v>4896.83068</v>
+        <v>10766.50854</v>
       </c>
       <c r="M154" s="22" t="n">
-        <v>57149.51024</v>
-      </c>
-      <c r="N154" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="155" s="70" spans="1:14">
+        <v>60000.09655</v>
+      </c>
+      <c r="N154" s="22" t="n">
+        <v>30468.685</v>
+      </c>
+      <c r="O154" s="11" t="n"/>
+    </row>
+    <row r="155" ht="12.6" customHeight="1" s="70">
       <c r="A155" s="8" t="n"/>
-      <c r="B155" s="64" t="s">
-        <v>138</v>
+      <c r="B155" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C155" s="22" t="n">
         <v>0</v>
@@ -7441,15 +7633,20 @@
       <c r="M155" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N155" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="156" s="70" spans="1:14">
+      <c r="N155" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" s="10" t="n"/>
+    </row>
+    <row r="156" ht="12.6" customHeight="1" s="70">
       <c r="A156" s="5" t="n"/>
-      <c r="B156" s="60" t="s">
-        <v>139</v>
+      <c r="B156" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Advances Received</t>
+        </is>
       </c>
       <c r="C156" s="23" t="n">
-        <v>2563.15017</v>
+        <v>2563.150169999999</v>
       </c>
       <c r="D156" s="23" t="n">
         <v>1957.51323</v>
@@ -7467,10 +7664,10 @@
         <v>15947.10204</v>
       </c>
       <c r="I156" s="23" t="n">
-        <v>14095.83124</v>
+        <v>14626.72989</v>
       </c>
       <c r="J156" s="33" t="n">
-        <v>7992.932279999999</v>
+        <v>7992.93228</v>
       </c>
       <c r="K156" s="23" t="n">
         <v>13704.01445</v>
@@ -7479,14 +7676,19 @@
         <v>17439.43866</v>
       </c>
       <c r="M156" s="23" t="n">
-        <v>11365.05494</v>
-      </c>
-      <c r="N156" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="157" s="70" spans="1:14">
+        <v>12297.22863</v>
+      </c>
+      <c r="N156" s="23" t="n">
+        <v>61334.186</v>
+      </c>
+      <c r="O156" s="10" t="n"/>
+    </row>
+    <row r="157" ht="12.6" customHeight="1" s="70">
       <c r="A157" s="5" t="n"/>
-      <c r="B157" s="59" t="s">
-        <v>140</v>
+      <c r="B157" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C157" s="22" t="n">
         <v>2339.40826</v>
@@ -7507,10 +7709,10 @@
         <v>15293.57929</v>
       </c>
       <c r="I157" s="22" t="n">
-        <v>13898.22914</v>
+        <v>13910.12779</v>
       </c>
       <c r="J157" s="21" t="n">
-        <v>7981.432279999999</v>
+        <v>7981.43228</v>
       </c>
       <c r="K157" s="22" t="n">
         <v>13356.63971</v>
@@ -7519,14 +7721,19 @@
         <v>17416.18099</v>
       </c>
       <c r="M157" s="22" t="n">
-        <v>11237.14534</v>
-      </c>
-      <c r="N157" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="158" s="70" spans="1:14">
+        <v>12169.31903</v>
+      </c>
+      <c r="N157" s="22" t="n">
+        <v>61206.276</v>
+      </c>
+      <c r="O157" s="6" t="n"/>
+    </row>
+    <row r="158" ht="12.6" customHeight="1" s="70">
       <c r="A158" s="15" t="n"/>
-      <c r="B158" s="64" t="s">
-        <v>141</v>
+      <c r="B158" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C158" s="22" t="n">
         <v>223.74191</v>
@@ -7547,7 +7754,7 @@
         <v>653.52275</v>
       </c>
       <c r="I158" s="22" t="n">
-        <v>197.6021</v>
+        <v>716.6021000000001</v>
       </c>
       <c r="J158" s="21" t="n">
         <v>11.5</v>
@@ -7561,18 +7768,23 @@
       <c r="M158" s="22" t="n">
         <v>127.9096</v>
       </c>
-      <c r="N158" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="159" s="70" spans="1:14">
+      <c r="N158" s="22" t="n">
+        <v>127.91</v>
+      </c>
+      <c r="O158" s="11" t="n"/>
+    </row>
+    <row r="159" ht="12.6" customHeight="1" s="70">
       <c r="A159" s="8" t="n"/>
-      <c r="B159" s="60" t="s">
-        <v>142</v>
+      <c r="B159" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
+        </is>
       </c>
       <c r="C159" s="23" t="n">
         <v>15156.47769</v>
       </c>
       <c r="D159" s="23" t="n">
-        <v>45872.97083000001</v>
+        <v>45872.97083</v>
       </c>
       <c r="E159" s="23" t="n">
         <v>137960.64201</v>
@@ -7599,20 +7811,25 @@
         <v>79785.23655</v>
       </c>
       <c r="M159" s="23" t="n">
-        <v>185720.01341</v>
-      </c>
-      <c r="N159" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="160" s="70" spans="1:14">
+        <v>317400.2291</v>
+      </c>
+      <c r="N159" s="23" t="n">
+        <v>430701.497</v>
+      </c>
+      <c r="O159" s="10" t="n"/>
+    </row>
+    <row r="160" ht="12.6" customHeight="1" s="70">
       <c r="A160" s="8" t="n"/>
-      <c r="B160" s="64" t="s">
-        <v>143</v>
+      <c r="B160" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C160" s="22" t="n">
         <v>15156.47769</v>
       </c>
       <c r="D160" s="22" t="n">
-        <v>45872.97083000001</v>
+        <v>45872.97083</v>
       </c>
       <c r="E160" s="22" t="n">
         <v>137960.64201</v>
@@ -7639,14 +7856,19 @@
         <v>79785.23655</v>
       </c>
       <c r="M160" s="22" t="n">
-        <v>185720.01341</v>
-      </c>
-      <c r="N160" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="161" s="70" spans="1:14">
+        <v>317400.2291</v>
+      </c>
+      <c r="N160" s="22" t="n">
+        <v>430701.497</v>
+      </c>
+      <c r="O160" s="10" t="n"/>
+    </row>
+    <row r="161" ht="12.6" customHeight="1" s="70">
       <c r="A161" s="8" t="n"/>
-      <c r="B161" s="64" t="s">
-        <v>144</v>
+      <c r="B161" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C161" s="22" t="n">
         <v>0</v>
@@ -7681,12 +7903,17 @@
       <c r="M161" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N161" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="162" s="70" spans="1:14">
+      <c r="N161" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O161" s="10" t="n"/>
+    </row>
+    <row r="162" ht="12.6" customHeight="1" s="70">
       <c r="A162" s="5" t="n"/>
-      <c r="B162" s="60" t="s">
-        <v>145</v>
+      <c r="B162" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C162" s="23" t="n">
         <v>2862.31094</v>
@@ -7698,16 +7925,16 @@
         <v>5992.868689999999</v>
       </c>
       <c r="F162" s="33" t="n">
-        <v>4437.49814</v>
+        <v>4437.498140000001</v>
       </c>
       <c r="G162" s="23" t="n">
-        <v>7648.180949999999</v>
+        <v>7648.18095</v>
       </c>
       <c r="H162" s="33" t="n">
-        <v>7052.395030000001</v>
+        <v>7052.39503</v>
       </c>
       <c r="I162" s="23" t="n">
-        <v>11283.0389</v>
+        <v>11549.6186</v>
       </c>
       <c r="J162" s="33" t="n">
         <v>16718.84483</v>
@@ -7716,17 +7943,22 @@
         <v>21017.1634</v>
       </c>
       <c r="L162" s="23" t="n">
-        <v>21562.79808</v>
+        <v>21593.44417</v>
       </c>
       <c r="M162" s="23" t="n">
-        <v>24703.04396</v>
-      </c>
-      <c r="N162" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="163" s="70" spans="1:14">
+        <v>24951.1114</v>
+      </c>
+      <c r="N162" s="23" t="n">
+        <v>27380.504</v>
+      </c>
+      <c r="O162" s="10" t="n"/>
+    </row>
+    <row r="163" ht="12.6" customHeight="1" s="70">
       <c r="A163" s="5" t="n"/>
-      <c r="B163" s="59" t="s">
-        <v>146</v>
+      <c r="B163" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Taxes and Funds Payable </t>
+        </is>
       </c>
       <c r="C163" s="22" t="n">
         <v>1262.08979</v>
@@ -7747,29 +7979,34 @@
         <v>3103.31381</v>
       </c>
       <c r="I163" s="22" t="n">
-        <v>5049.01766</v>
+        <v>5140.23826</v>
       </c>
       <c r="J163" s="21" t="n">
-        <v>7142.06152</v>
+        <v>7142.061519999999</v>
       </c>
       <c r="K163" s="22" t="n">
         <v>7663.769960000001</v>
       </c>
       <c r="L163" s="22" t="n">
-        <v>10702.99593</v>
+        <v>10722.71636</v>
       </c>
       <c r="M163" s="22" t="n">
-        <v>14114.00467</v>
-      </c>
-      <c r="N163" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="164" s="70" spans="1:14">
+        <v>14230.42729</v>
+      </c>
+      <c r="N163" s="22" t="n">
+        <v>14932.954</v>
+      </c>
+      <c r="O163" s="10" t="n"/>
+    </row>
+    <row r="164" ht="12.6" customHeight="1" s="70">
       <c r="A164" s="8" t="n"/>
-      <c r="B164" s="64" t="s">
-        <v>147</v>
+      <c r="B164" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Social Security Costs Payable</t>
+        </is>
       </c>
       <c r="C164" s="22" t="n">
-        <v>940.7259400000002</v>
+        <v>940.7259399999999</v>
       </c>
       <c r="D164" s="22" t="n">
         <v>734.25674</v>
@@ -7781,32 +8018,37 @@
         <v>1719.76917</v>
       </c>
       <c r="G164" s="22" t="n">
-        <v>2759.50281</v>
+        <v>2759.502809999999</v>
       </c>
       <c r="H164" s="21" t="n">
         <v>2625.55749</v>
       </c>
       <c r="I164" s="22" t="n">
-        <v>4654.14114</v>
+        <v>4827.79026</v>
       </c>
       <c r="J164" s="21" t="n">
-        <v>5987.01704</v>
+        <v>5987.017039999999</v>
       </c>
       <c r="K164" s="22" t="n">
-        <v>7229.779890000001</v>
+        <v>7229.77989</v>
       </c>
       <c r="L164" s="22" t="n">
-        <v>6136.895640000001</v>
+        <v>6145.75125</v>
       </c>
       <c r="M164" s="22" t="n">
-        <v>6548.105949999999</v>
-      </c>
-      <c r="N164" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="165" s="70" spans="1:14">
+        <v>6607.9758</v>
+      </c>
+      <c r="N164" s="22" t="n">
+        <v>7355.896</v>
+      </c>
+      <c r="O164" s="10" t="n"/>
+    </row>
+    <row r="165" ht="12.6" customHeight="1" s="70">
       <c r="A165" s="8" t="n"/>
-      <c r="B165" s="59" t="s">
-        <v>148</v>
+      <c r="B165" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
+        </is>
       </c>
       <c r="C165" s="22" t="n">
         <v>659.4952099999999</v>
@@ -7836,17 +8078,22 @@
         <v>5991.14508</v>
       </c>
       <c r="L165" s="22" t="n">
-        <v>4505.41228</v>
+        <v>4507.43483</v>
       </c>
       <c r="M165" s="22" t="n">
-        <v>3621.15515</v>
-      </c>
-      <c r="N165" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="166" s="70" spans="1:14">
+        <v>3682.11265</v>
+      </c>
+      <c r="N165" s="22" t="n">
+        <v>4928.417</v>
+      </c>
+      <c r="O165" s="10" t="n"/>
+    </row>
+    <row r="166" ht="12.6" customHeight="1" s="70">
       <c r="A166" s="8" t="n"/>
-      <c r="B166" s="59" t="s">
-        <v>149</v>
+      <c r="B166" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C166" s="22" t="n">
         <v>0</v>
@@ -7867,7 +8114,7 @@
         <v>8.20158</v>
       </c>
       <c r="I166" s="22" t="n">
-        <v>13.35562</v>
+        <v>15.0656</v>
       </c>
       <c r="J166" s="21" t="n">
         <v>24.13793</v>
@@ -7876,23 +8123,28 @@
         <v>132.46847</v>
       </c>
       <c r="L166" s="22" t="n">
-        <v>217.49423</v>
+        <v>217.54173</v>
       </c>
       <c r="M166" s="22" t="n">
-        <v>419.77819</v>
-      </c>
-      <c r="N166" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="167" s="70" spans="1:14">
+        <v>430.59566</v>
+      </c>
+      <c r="N166" s="22" t="n">
+        <v>163.237</v>
+      </c>
+      <c r="O166" s="10" t="n"/>
+    </row>
+    <row r="167" ht="12.6" customHeight="1" s="70">
       <c r="A167" s="8" t="n"/>
-      <c r="B167" s="60" t="s">
-        <v>150</v>
+      <c r="B167" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C167" s="23" t="n">
-        <v>261.05552</v>
+        <v>261.0555200000001</v>
       </c>
       <c r="D167" s="23" t="n">
-        <v>427.7931600000001</v>
+        <v>427.79316</v>
       </c>
       <c r="E167" s="23" t="n">
         <v>525.7883499999999</v>
@@ -7901,13 +8153,13 @@
         <v>415.12924</v>
       </c>
       <c r="G167" s="23" t="n">
-        <v>692.8472899999999</v>
+        <v>692.84729</v>
       </c>
       <c r="H167" s="33" t="n">
         <v>832.13402</v>
       </c>
       <c r="I167" s="23" t="n">
-        <v>1408.75811</v>
+        <v>1565.225</v>
       </c>
       <c r="J167" s="33" t="n">
         <v>2095.79293</v>
@@ -7916,17 +8168,22 @@
         <v>1371.03772</v>
       </c>
       <c r="L167" s="23" t="n">
-        <v>3257.01563</v>
+        <v>4281.70395</v>
       </c>
       <c r="M167" s="23" t="n">
-        <v>2756.7573</v>
-      </c>
-      <c r="N167" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="168" s="70" spans="1:14">
+        <v>2779.247</v>
+      </c>
+      <c r="N167" s="23" t="n">
+        <v>1743.538</v>
+      </c>
+      <c r="O167" s="11" t="n"/>
+    </row>
+    <row r="168" ht="12.6" customHeight="1" s="70">
       <c r="A168" s="8" t="n"/>
-      <c r="B168" s="59" t="s">
-        <v>151</v>
+      <c r="B168" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
+        </is>
       </c>
       <c r="C168" s="22" t="n">
         <v>1212.1746</v>
@@ -7935,7 +8192,7 @@
         <v>1264.21605</v>
       </c>
       <c r="E168" s="22" t="n">
-        <v>2224.301730000001</v>
+        <v>2224.30173</v>
       </c>
       <c r="F168" s="21" t="n">
         <v>3066.37257</v>
@@ -7947,7 +8204,7 @@
         <v>3532.1383</v>
       </c>
       <c r="I168" s="22" t="n">
-        <v>4353.18848</v>
+        <v>4662.052390000001</v>
       </c>
       <c r="J168" s="21" t="n">
         <v>4010.0782</v>
@@ -7956,20 +8213,25 @@
         <v>2559.38972</v>
       </c>
       <c r="L168" s="22" t="n">
-        <v>5186.50975</v>
+        <v>6600.78632</v>
       </c>
       <c r="M168" s="22" t="n">
-        <v>9815.34922</v>
-      </c>
-      <c r="N168" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="169" s="70" spans="1:14">
+        <v>6861.428519999999</v>
+      </c>
+      <c r="N168" s="22" t="n">
+        <v>10861.799</v>
+      </c>
+      <c r="O168" s="10" t="n"/>
+    </row>
+    <row r="169" ht="12.6" customHeight="1" s="70">
       <c r="A169" s="5" t="n"/>
-      <c r="B169" s="59" t="s">
-        <v>152</v>
+      <c r="B169" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
+        </is>
       </c>
       <c r="C169" s="22" t="n">
-        <v>951.1190800000001</v>
+        <v>951.1190799999999</v>
       </c>
       <c r="D169" s="22" t="n">
         <v>836.4228900000001</v>
@@ -7987,7 +8249,7 @@
         <v>2700.00428</v>
       </c>
       <c r="I169" s="22" t="n">
-        <v>2944.43037</v>
+        <v>3096.82739</v>
       </c>
       <c r="J169" s="21" t="n">
         <v>1914.28527</v>
@@ -7996,17 +8258,22 @@
         <v>1188.352</v>
       </c>
       <c r="L169" s="22" t="n">
-        <v>1929.49412</v>
+        <v>2319.08237</v>
       </c>
       <c r="M169" s="22" t="n">
-        <v>7058.59192</v>
-      </c>
-      <c r="N169" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="170" s="70" spans="1:14">
+        <v>4082.18152</v>
+      </c>
+      <c r="N169" s="22" t="n">
+        <v>9118.261</v>
+      </c>
+      <c r="O169" s="10" t="n"/>
+    </row>
+    <row r="170" ht="12.6" customHeight="1" s="70">
       <c r="A170" s="5" t="n"/>
-      <c r="B170" s="59" t="s">
-        <v>153</v>
+      <c r="B170" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Provisions for Severance Payments </t>
+        </is>
       </c>
       <c r="C170" s="22" t="n">
         <v>0</v>
@@ -8041,12 +8308,17 @@
       <c r="M170" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N170" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="171" s="70" spans="1:14">
+      <c r="N170" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O170" s="10" t="n"/>
+    </row>
+    <row r="171" ht="12.6" customHeight="1" s="70">
       <c r="A171" s="5" t="n"/>
-      <c r="B171" s="59" t="s">
-        <v>154</v>
+      <c r="B171" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Provisions for Costs</t>
+        </is>
       </c>
       <c r="C171" s="22" t="n">
         <v>0</v>
@@ -8081,12 +8353,17 @@
       <c r="M171" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N171" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="172" s="70" spans="1:14">
+      <c r="N171" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O171" s="10" t="n"/>
+    </row>
+    <row r="172" ht="12.6" customHeight="1" s="70">
       <c r="A172" s="5" t="n"/>
-      <c r="B172" s="59" t="s">
-        <v>155</v>
+      <c r="B172" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C172" s="22" t="n">
         <v>0</v>
@@ -8121,12 +8398,17 @@
       <c r="M172" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N172" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="173" s="70" spans="1:14">
+      <c r="N172" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O172" s="10" t="n"/>
+    </row>
+    <row r="173" ht="12.6" customHeight="1" s="70">
       <c r="A173" s="8" t="n"/>
-      <c r="B173" s="57" t="s">
-        <v>156</v>
+      <c r="B173" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
+        </is>
       </c>
       <c r="C173" s="23" t="n">
         <v>473.8188500000001</v>
@@ -8144,7 +8426,7 @@
         <v>2244.21367</v>
       </c>
       <c r="H173" s="33" t="n">
-        <v>858.3113499999999</v>
+        <v>858.3113500000001</v>
       </c>
       <c r="I173" s="23" t="n">
         <v>1128.29048</v>
@@ -8156,17 +8438,22 @@
         <v>3864.16142</v>
       </c>
       <c r="L173" s="23" t="n">
-        <v>7526.35437</v>
+        <v>7526.354369999999</v>
       </c>
       <c r="M173" s="23" t="n">
         <v>10999.37673</v>
       </c>
-      <c r="N173" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="174" s="70" spans="1:14">
+      <c r="N173" s="23" t="n">
+        <v>11609.551</v>
+      </c>
+      <c r="O173" s="11" t="n"/>
+    </row>
+    <row r="174" ht="12.6" customHeight="1" s="70">
       <c r="A174" s="8" t="n"/>
-      <c r="B174" s="59" t="s">
-        <v>157</v>
+      <c r="B174" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
+        </is>
       </c>
       <c r="C174" s="22" t="n">
         <v>11.49224</v>
@@ -8196,17 +8483,22 @@
         <v>2191.94749</v>
       </c>
       <c r="L174" s="22" t="n">
-        <v>4166.588850000001</v>
+        <v>4166.588849999999</v>
       </c>
       <c r="M174" s="22" t="n">
         <v>2903.76913</v>
       </c>
-      <c r="N174" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="175" s="70" spans="1:14">
+      <c r="N174" s="22" t="n">
+        <v>0.888</v>
+      </c>
+      <c r="O174" s="10" t="n"/>
+    </row>
+    <row r="175" ht="12.6" customHeight="1" s="70">
       <c r="A175" s="5" t="n"/>
-      <c r="B175" s="64" t="s">
-        <v>158</v>
+      <c r="B175" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C175" s="22" t="n">
         <v>462.32661</v>
@@ -8221,7 +8513,7 @@
         <v>894.46439</v>
       </c>
       <c r="G175" s="22" t="n">
-        <v>882.32517</v>
+        <v>882.3251700000001</v>
       </c>
       <c r="H175" s="21" t="n">
         <v>684.8383</v>
@@ -8236,17 +8528,22 @@
         <v>1672.21393</v>
       </c>
       <c r="L175" s="22" t="n">
-        <v>3359.765519999999</v>
+        <v>3359.76552</v>
       </c>
       <c r="M175" s="22" t="n">
-        <v>8095.607599999999</v>
-      </c>
-      <c r="N175" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="176" s="70" spans="1:14">
+        <v>8095.6076</v>
+      </c>
+      <c r="N175" s="22" t="n">
+        <v>11608.663</v>
+      </c>
+      <c r="O175" s="10" t="n"/>
+    </row>
+    <row r="176" ht="12.6" customHeight="1" s="70">
       <c r="A176" s="5" t="n"/>
-      <c r="B176" s="57" t="s">
-        <v>159</v>
+      <c r="B176" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
+        </is>
       </c>
       <c r="C176" s="23" t="n">
         <v>6.42888</v>
@@ -8267,7 +8564,7 @@
         <v>970.33239</v>
       </c>
       <c r="I176" s="23" t="n">
-        <v>778.9988199999999</v>
+        <v>778.99882</v>
       </c>
       <c r="J176" s="33" t="n">
         <v>1060.41671</v>
@@ -8281,12 +8578,17 @@
       <c r="M176" s="23" t="n">
         <v>4.21092</v>
       </c>
-      <c r="N176" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="177" s="70" spans="1:14">
+      <c r="N176" s="23" t="n">
+        <v>49.861</v>
+      </c>
+      <c r="O176" s="11" t="n"/>
+    </row>
+    <row r="177" ht="12.6" customHeight="1" s="70">
       <c r="A177" s="8" t="n"/>
-      <c r="B177" s="59" t="s">
-        <v>160</v>
+      <c r="B177" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Calculated</t>
+        </is>
       </c>
       <c r="C177" s="22" t="n">
         <v>6.37557</v>
@@ -8321,12 +8623,17 @@
       <c r="M177" s="22" t="n">
         <v>4.21092</v>
       </c>
-      <c r="N177" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="178" s="70" spans="1:14">
+      <c r="N177" s="22" t="n">
+        <v>49.861</v>
+      </c>
+      <c r="O177" s="10" t="n"/>
+    </row>
+    <row r="178" ht="12.6" customHeight="1" s="70">
       <c r="A178" s="5" t="n"/>
-      <c r="B178" s="64" t="s">
-        <v>106</v>
+      <c r="B178" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C178" s="22" t="n">
         <v>0.05331</v>
@@ -8361,12 +8668,17 @@
       <c r="M178" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N178" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="179" s="70" spans="1:14">
+      <c r="N178" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O178" s="10" t="n"/>
+    </row>
+    <row r="179" ht="12.6" customHeight="1" s="70">
       <c r="A179" s="8" t="n"/>
-      <c r="B179" s="64" t="s">
-        <v>161</v>
+      <c r="B179" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
+        </is>
       </c>
       <c r="C179" s="22" t="n">
         <v>0</v>
@@ -8401,12 +8713,17 @@
       <c r="M179" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N179" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="180" s="70" spans="1:14">
+      <c r="N179" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O179" s="10" t="n"/>
+    </row>
+    <row r="180" ht="12.6" customHeight="1" s="70">
       <c r="A180" s="5" t="n"/>
-      <c r="B180" s="64" t="s">
-        <v>162</v>
+      <c r="B180" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
+        </is>
       </c>
       <c r="C180" s="22" t="n">
         <v>0</v>
@@ -8441,12 +8758,17 @@
       <c r="M180" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N180" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="181" s="70" spans="1:14">
+      <c r="N180" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O180" s="10" t="n"/>
+    </row>
+    <row r="181" ht="12.6" customHeight="1" s="70">
       <c r="A181" s="5" t="n"/>
-      <c r="B181" s="65" t="s">
-        <v>30</v>
+      <c r="B181" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C181" s="35" t="n">
         <v>0</v>
@@ -8481,12 +8803,17 @@
       <c r="M181" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N181" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="182" s="70" spans="1:14">
+      <c r="N181" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O181" s="10" t="n"/>
+    </row>
+    <row r="182" ht="12.6" customHeight="1" s="70">
       <c r="A182" s="5" t="n"/>
-      <c r="B182" s="60" t="s">
-        <v>163</v>
+      <c r="B182" s="60" t="inlineStr">
+        <is>
+          <t>II- LONG-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C182" s="23" t="n">
         <v>16839.80497</v>
@@ -8501,13 +8828,13 @@
         <v>58154.16095</v>
       </c>
       <c r="G182" s="23" t="n">
-        <v>74818.78202000001</v>
+        <v>74818.78202</v>
       </c>
       <c r="H182" s="33" t="n">
         <v>81151.74255</v>
       </c>
       <c r="I182" s="23" t="n">
-        <v>120597.53814</v>
+        <v>120741.76814</v>
       </c>
       <c r="J182" s="33" t="n">
         <v>132910.77541</v>
@@ -8516,17 +8843,22 @@
         <v>129100.34334</v>
       </c>
       <c r="L182" s="23" t="n">
-        <v>95783.78533000001</v>
+        <v>95988.85003</v>
       </c>
       <c r="M182" s="23" t="n">
-        <v>133333.2883</v>
-      </c>
-      <c r="N182" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="183" s="70" spans="1:14">
+        <v>136604.93493</v>
+      </c>
+      <c r="N182" s="23" t="n">
+        <v>175934.192</v>
+      </c>
+      <c r="O182" s="11" t="n"/>
+    </row>
+    <row r="183" ht="12.6" customHeight="1" s="70">
       <c r="A183" s="8" t="n"/>
-      <c r="B183" s="60" t="s">
-        <v>117</v>
+      <c r="B183" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C183" s="23" t="n">
         <v>10034.1855</v>
@@ -8547,10 +8879,10 @@
         <v>27815.36069</v>
       </c>
       <c r="I183" s="23" t="n">
-        <v>57117.48428</v>
+        <v>57261.71428000001</v>
       </c>
       <c r="J183" s="33" t="n">
-        <v>64888.41332</v>
+        <v>64888.41331999999</v>
       </c>
       <c r="K183" s="23" t="n">
         <v>73167.79014999999</v>
@@ -8559,14 +8891,19 @@
         <v>47471.55368</v>
       </c>
       <c r="M183" s="23" t="n">
-        <v>53802.26424</v>
-      </c>
-      <c r="N183" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="184" s="70" spans="1:14">
+        <v>53982.61634</v>
+      </c>
+      <c r="N183" s="23" t="n">
+        <v>101333.73</v>
+      </c>
+      <c r="O183" s="11" t="n"/>
+    </row>
+    <row r="184" ht="12.6" customHeight="1" s="70">
       <c r="A184" s="8" t="n"/>
-      <c r="B184" s="66" t="s">
-        <v>118</v>
+      <c r="B184" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C184" s="22" t="n">
         <v>9888.924070000001</v>
@@ -8575,7 +8912,7 @@
         <v>23490.10917</v>
       </c>
       <c r="E184" s="22" t="n">
-        <v>28270.66583000001</v>
+        <v>28270.66583</v>
       </c>
       <c r="F184" s="21" t="n">
         <v>27546.30895</v>
@@ -8587,26 +8924,31 @@
         <v>27344.36599</v>
       </c>
       <c r="I184" s="22" t="n">
-        <v>56587.19921</v>
+        <v>56731.42921</v>
       </c>
       <c r="J184" s="21" t="n">
         <v>64488.45724</v>
       </c>
       <c r="K184" s="22" t="n">
-        <v>71242.85736999998</v>
+        <v>71242.85737</v>
       </c>
       <c r="L184" s="22" t="n">
         <v>43711.45992</v>
       </c>
       <c r="M184" s="22" t="n">
-        <v>50574.92847</v>
-      </c>
-      <c r="N184" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="185" s="70" spans="1:14">
+        <v>50755.28057</v>
+      </c>
+      <c r="N184" s="22" t="n">
+        <v>86786.298</v>
+      </c>
+      <c r="O184" s="10" t="n"/>
+    </row>
+    <row r="185" ht="12.6" customHeight="1" s="70">
       <c r="A185" s="8" t="n"/>
-      <c r="B185" s="66" t="s">
-        <v>119</v>
+      <c r="B185" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C185" s="22" t="n">
         <v>155.31769</v>
@@ -8624,7 +8966,7 @@
         <v>722.0978100000001</v>
       </c>
       <c r="H185" s="21" t="n">
-        <v>533.2944200000001</v>
+        <v>533.2944199999999</v>
       </c>
       <c r="I185" s="22" t="n">
         <v>611.2278200000001</v>
@@ -8641,12 +8983,17 @@
       <c r="M185" s="22" t="n">
         <v>3359.76396</v>
       </c>
-      <c r="N185" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="186" s="70" spans="1:14">
+      <c r="N185" s="22" t="n">
+        <v>13269.479</v>
+      </c>
+      <c r="O185" s="10" t="n"/>
+    </row>
+    <row r="186" ht="12" customHeight="1" s="70">
       <c r="A186" s="5" t="n"/>
-      <c r="B186" s="66" t="s">
-        <v>120</v>
+      <c r="B186" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C186" s="22" t="n">
         <v>10.05626</v>
@@ -8681,12 +9028,17 @@
       <c r="M186" s="22" t="n">
         <v>171.65219</v>
       </c>
-      <c r="N186" s="10" t="n"/>
-    </row>
-    <row r="187" spans="1:14">
+      <c r="N186" s="22" t="n">
+        <v>1322.152</v>
+      </c>
+      <c r="O186" s="10" t="n"/>
+    </row>
+    <row r="187">
       <c r="A187" s="5" t="n"/>
-      <c r="B187" s="67" t="s">
-        <v>164</v>
+      <c r="B187" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Bonds Issued</t>
+        </is>
       </c>
       <c r="C187" s="22" t="n">
         <v>0</v>
@@ -8721,12 +9073,17 @@
       <c r="M187" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N187" s="10" t="n"/>
-    </row>
-    <row r="188" spans="1:14">
+      <c r="N187" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O187" s="10" t="n"/>
+    </row>
+    <row r="188">
       <c r="A188" s="8" t="n"/>
-      <c r="B188" s="67" t="s">
-        <v>165</v>
+      <c r="B188" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C188" s="22" t="n">
         <v>0</v>
@@ -8761,12 +9118,17 @@
       <c r="M188" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N188" s="10" t="n"/>
-    </row>
-    <row r="189" spans="1:14">
+      <c r="N188" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O188" s="10" t="n"/>
+    </row>
+    <row r="189">
       <c r="A189" s="5" t="n"/>
-      <c r="B189" s="66" t="s">
-        <v>166</v>
+      <c r="B189" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
+        </is>
       </c>
       <c r="C189" s="22" t="n">
         <v>0</v>
@@ -8801,12 +9163,17 @@
       <c r="M189" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N189" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="190" s="70" spans="1:14">
+      <c r="N189" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O189" s="10" t="n"/>
+    </row>
+    <row r="190" ht="12.6" customHeight="1" s="70">
       <c r="A190" s="5" t="n"/>
-      <c r="B190" s="67" t="s">
-        <v>167</v>
+      <c r="B190" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Financial Liabilities </t>
+        </is>
       </c>
       <c r="C190" s="22" t="n">
         <v>0</v>
@@ -8841,12 +9208,17 @@
       <c r="M190" s="22" t="n">
         <v>39.224</v>
       </c>
-      <c r="N190" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="191" s="70" spans="1:14">
+      <c r="N190" s="22" t="n">
+        <v>2600.105</v>
+      </c>
+      <c r="O190" s="1" t="n"/>
+    </row>
+    <row r="191" ht="12.6" customHeight="1" s="70">
       <c r="A191" s="5" t="n"/>
-      <c r="B191" s="68" t="s">
-        <v>127</v>
+      <c r="B191" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C191" s="23" t="n">
         <v>9.293430000000001</v>
@@ -8861,7 +9233,7 @@
         <v>1060.55764</v>
       </c>
       <c r="G191" s="23" t="n">
-        <v>597.0091</v>
+        <v>597.0091000000001</v>
       </c>
       <c r="H191" s="33" t="n">
         <v>1120</v>
@@ -8881,12 +9253,17 @@
       <c r="M191" s="23" t="n">
         <v>12151.43284</v>
       </c>
-      <c r="N191" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="192" s="70" spans="1:14">
+      <c r="N191" s="23" t="n">
+        <v>1681.164</v>
+      </c>
+      <c r="O191" s="11" t="n"/>
+    </row>
+    <row r="192" ht="12.6" customHeight="1" s="70">
       <c r="A192" s="8" t="n"/>
-      <c r="B192" s="66" t="s">
-        <v>128</v>
+      <c r="B192" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C192" s="22" t="n">
         <v>9.293430000000001</v>
@@ -8921,12 +9298,17 @@
       <c r="M192" s="22" t="n">
         <v>772.7933099999999</v>
       </c>
-      <c r="N192" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="193" s="70" spans="1:14">
+      <c r="N192" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O192" s="10" t="n"/>
+    </row>
+    <row r="193" ht="12.6" customHeight="1" s="70">
       <c r="A193" s="5" t="n"/>
-      <c r="B193" s="66" t="s">
-        <v>129</v>
+      <c r="B193" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C193" s="22" t="n">
         <v>0</v>
@@ -8961,12 +9343,17 @@
       <c r="M193" s="22" t="n">
         <v>10952.66984</v>
       </c>
-      <c r="N193" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="194" s="70" spans="1:14">
+      <c r="N193" s="22" t="n">
+        <v>1255.194</v>
+      </c>
+      <c r="O193" s="10" t="n"/>
+    </row>
+    <row r="194" ht="12.6" customHeight="1" s="70">
       <c r="A194" s="5" t="n"/>
-      <c r="B194" s="66" t="s">
-        <v>130</v>
+      <c r="B194" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C194" s="22" t="n">
         <v>0</v>
@@ -9001,12 +9388,17 @@
       <c r="M194" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N194" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="195" s="70" spans="1:14">
+      <c r="N194" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O194" s="10" t="n"/>
+    </row>
+    <row r="195" ht="12.6" customHeight="1" s="70">
       <c r="A195" s="5" t="n"/>
-      <c r="B195" s="66" t="s">
-        <v>131</v>
+      <c r="B195" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C195" s="22" t="n">
         <v>0</v>
@@ -9041,12 +9433,17 @@
       <c r="M195" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N195" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="196" s="70" spans="1:14">
+      <c r="N195" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O195" s="10" t="n"/>
+    </row>
+    <row r="196" ht="12.6" customHeight="1" s="70">
       <c r="A196" s="5" t="n"/>
-      <c r="B196" s="59" t="s">
-        <v>132</v>
+      <c r="B196" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C196" s="22" t="n">
         <v>0</v>
@@ -9081,12 +9478,17 @@
       <c r="M196" s="22" t="n">
         <v>425.96969</v>
       </c>
-      <c r="N196" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="197" s="70" spans="1:14">
+      <c r="N196" s="22" t="n">
+        <v>425.97</v>
+      </c>
+      <c r="O196" s="10" t="n"/>
+    </row>
+    <row r="197" ht="12.6" customHeight="1" s="70">
       <c r="A197" s="5" t="n"/>
-      <c r="B197" s="57" t="s">
-        <v>168</v>
+      <c r="B197" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Long-Term Debts</t>
+        </is>
       </c>
       <c r="C197" s="23" t="n">
         <v>6788.863439999999</v>
@@ -9095,7 +9497,7 @@
         <v>3231.69592</v>
       </c>
       <c r="E197" s="23" t="n">
-        <v>6556.61024</v>
+        <v>6556.610239999999</v>
       </c>
       <c r="F197" s="33" t="n">
         <v>28282.53673</v>
@@ -9110,23 +9512,28 @@
         <v>55641.50742</v>
       </c>
       <c r="J197" s="33" t="n">
-        <v>64226.65496</v>
+        <v>64226.65495999999</v>
       </c>
       <c r="K197" s="23" t="n">
         <v>52680.33908</v>
       </c>
       <c r="L197" s="23" t="n">
-        <v>39808.90441</v>
+        <v>40013.96911</v>
       </c>
       <c r="M197" s="23" t="n">
-        <v>62877.95269</v>
-      </c>
-      <c r="N197" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="198" s="70" spans="1:14">
+        <v>65969.18737</v>
+      </c>
+      <c r="N197" s="23" t="n">
+        <v>71036.594</v>
+      </c>
+      <c r="O197" s="11" t="n"/>
+    </row>
+    <row r="198" ht="12.6" customHeight="1" s="70">
       <c r="A198" s="8" t="n"/>
-      <c r="B198" s="59" t="s">
-        <v>134</v>
+      <c r="B198" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C198" s="22" t="n">
         <v>3628.57248</v>
@@ -9135,7 +9542,7 @@
         <v>2311.44982</v>
       </c>
       <c r="E198" s="22" t="n">
-        <v>5389.586949999999</v>
+        <v>5389.58695</v>
       </c>
       <c r="F198" s="21" t="n">
         <v>10115.55552</v>
@@ -9147,7 +9554,7 @@
         <v>17708.63353</v>
       </c>
       <c r="I198" s="22" t="n">
-        <v>55481.27654</v>
+        <v>55481.27654000001</v>
       </c>
       <c r="J198" s="21" t="n">
         <v>63204.07945</v>
@@ -9156,17 +9563,22 @@
         <v>52049.89822</v>
       </c>
       <c r="L198" s="22" t="n">
-        <v>38291.55104</v>
+        <v>38291.55104000001</v>
       </c>
       <c r="M198" s="22" t="n">
-        <v>61699.91348999999</v>
-      </c>
-      <c r="N198" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="199" s="70" spans="1:14">
+        <v>64791.14817</v>
+      </c>
+      <c r="N198" s="22" t="n">
+        <v>57413.285</v>
+      </c>
+      <c r="O198" s="10" t="n"/>
+    </row>
+    <row r="199" ht="12.6" customHeight="1" s="70">
       <c r="A199" s="5" t="n"/>
-      <c r="B199" s="59" t="s">
-        <v>135</v>
+      <c r="B199" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C199" s="22" t="n">
         <v>0</v>
@@ -9201,12 +9613,17 @@
       <c r="M199" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N199" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="200" s="70" spans="1:14">
+      <c r="N199" s="22" t="n">
+        <v>11210.486</v>
+      </c>
+      <c r="O199" s="10" t="n"/>
+    </row>
+    <row r="200" ht="12.6" customHeight="1" s="70">
       <c r="A200" s="8" t="n"/>
-      <c r="B200" s="59" t="s">
-        <v>136</v>
+      <c r="B200" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C200" s="22" t="n">
         <v>2249.8266</v>
@@ -9241,12 +9658,17 @@
       <c r="M200" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N200" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="201" s="70" spans="1:14">
+      <c r="N200" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O200" s="10" t="n"/>
+    </row>
+    <row r="201" ht="12.6" customHeight="1" s="70">
       <c r="A201" s="8" t="n"/>
-      <c r="B201" s="59" t="s">
-        <v>169</v>
+      <c r="B201" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other </t>
+        </is>
       </c>
       <c r="C201" s="22" t="n">
         <v>910.4643599999999</v>
@@ -9281,12 +9703,17 @@
       <c r="M201" s="22" t="n">
         <v>167.52204</v>
       </c>
-      <c r="N201" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="202" s="70" spans="1:14">
+      <c r="N201" s="22" t="n">
+        <v>741.003</v>
+      </c>
+      <c r="O201" s="10" t="n"/>
+    </row>
+    <row r="202" ht="12.6" customHeight="1" s="70">
       <c r="A202" s="5" t="n"/>
-      <c r="B202" s="64" t="s">
-        <v>170</v>
+      <c r="B202" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C202" s="22" t="n">
         <v>0</v>
@@ -9321,12 +9748,17 @@
       <c r="M202" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N202" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="203" s="70" spans="1:14">
+      <c r="N202" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O202" s="10" t="n"/>
+    </row>
+    <row r="203" ht="12.6" customHeight="1" s="70">
       <c r="A203" s="5" t="n"/>
-      <c r="B203" s="59" t="s">
-        <v>171</v>
+      <c r="B203" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
+        </is>
       </c>
       <c r="C203" s="22" t="n">
         <v>0</v>
@@ -9356,17 +9788,22 @@
         <v>462.66849</v>
       </c>
       <c r="L203" s="22" t="n">
-        <v>1349.581</v>
+        <v>1554.6457</v>
       </c>
       <c r="M203" s="22" t="n">
         <v>1010.51716</v>
       </c>
-      <c r="N203" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="204" s="70" spans="1:14">
+      <c r="N203" s="22" t="n">
+        <v>1671.82</v>
+      </c>
+      <c r="O203" s="10" t="n"/>
+    </row>
+    <row r="204" ht="12.6" customHeight="1" s="70">
       <c r="A204" s="8" t="n"/>
-      <c r="B204" s="60" t="s">
-        <v>172</v>
+      <c r="B204" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D-Advances Received</t>
+        </is>
       </c>
       <c r="C204" s="23" t="n">
         <v>0</v>
@@ -9401,12 +9838,17 @@
       <c r="M204" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N204" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="205" s="70" spans="1:14">
+      <c r="N204" s="23" t="n">
+        <v>1127.31</v>
+      </c>
+      <c r="O204" s="11" t="n"/>
+    </row>
+    <row r="205" ht="12.6" customHeight="1" s="70">
       <c r="A205" s="8" t="n"/>
-      <c r="B205" s="59" t="s">
-        <v>140</v>
+      <c r="B205" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C205" s="22" t="n">
         <v>0</v>
@@ -9441,12 +9883,17 @@
       <c r="M205" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N205" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="206" s="70" spans="1:14">
+      <c r="N205" s="22" t="n">
+        <v>1127.31</v>
+      </c>
+      <c r="O205" s="10" t="n"/>
+    </row>
+    <row r="206" ht="12.6" customHeight="1" s="70">
       <c r="A206" s="5" t="n"/>
-      <c r="B206" s="64" t="s">
-        <v>141</v>
+      <c r="B206" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C206" s="22" t="n">
         <v>0</v>
@@ -9481,12 +9928,17 @@
       <c r="M206" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N206" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="207" s="70" spans="1:14">
+      <c r="N206" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O206" s="10" t="n"/>
+    </row>
+    <row r="207" ht="12.6" customHeight="1" s="70">
       <c r="A207" s="5" t="n"/>
-      <c r="B207" s="60" t="s">
-        <v>173</v>
+      <c r="B207" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C207" s="23" t="n">
         <v>0</v>
@@ -9521,12 +9973,17 @@
       <c r="M207" s="23" t="n">
         <v>3746.34046</v>
       </c>
-      <c r="N207" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="208" s="70" spans="1:14">
+      <c r="N207" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O207" s="11" t="n"/>
+    </row>
+    <row r="208" ht="12.6" customHeight="1" s="70">
       <c r="A208" s="8" t="n"/>
-      <c r="B208" s="59" t="s">
-        <v>174</v>
+      <c r="B208" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Severance Payments</t>
+        </is>
       </c>
       <c r="C208" s="22" t="n">
         <v>0</v>
@@ -9561,12 +10018,17 @@
       <c r="M208" s="22" t="n">
         <v>3746.34046</v>
       </c>
-      <c r="N208" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="209" s="70" spans="1:14">
+      <c r="N208" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O208" s="10" t="n"/>
+    </row>
+    <row r="209" ht="12.6" customHeight="1" s="70">
       <c r="A209" s="5" t="n"/>
-      <c r="B209" s="59" t="s">
-        <v>175</v>
+      <c r="B209" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Provisions </t>
+        </is>
       </c>
       <c r="C209" s="22" t="n">
         <v>0</v>
@@ -9601,12 +10063,17 @@
       <c r="M209" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N209" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="210" s="70" spans="1:14">
+      <c r="N209" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O209" s="10" t="n"/>
+    </row>
+    <row r="210" ht="12.6" customHeight="1" s="70">
       <c r="A210" s="8" t="n"/>
-      <c r="B210" s="57" t="s">
-        <v>176</v>
+      <c r="B210" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C210" s="23" t="n">
         <v>7.4626</v>
@@ -9639,14 +10106,19 @@
         <v>844.6317700000001</v>
       </c>
       <c r="M210" s="23" t="n">
-        <v>755.2980700000001</v>
-      </c>
-      <c r="N210" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="211" s="70" spans="1:14">
+        <v>755.35792</v>
+      </c>
+      <c r="N210" s="23" t="n">
+        <v>755.298</v>
+      </c>
+      <c r="O210" s="11" t="n"/>
+    </row>
+    <row r="211" ht="12.6" customHeight="1" s="70">
       <c r="A211" s="8" t="n"/>
-      <c r="B211" s="64" t="s">
-        <v>177</v>
+      <c r="B211" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income</t>
+        </is>
       </c>
       <c r="C211" s="22" t="n">
         <v>0</v>
@@ -9679,14 +10151,19 @@
         <v>772.48125</v>
       </c>
       <c r="M211" s="22" t="n">
+        <v>750.05985</v>
+      </c>
+      <c r="N211" s="22" t="n">
         <v>750</v>
       </c>
-      <c r="N211" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="212" s="70" spans="1:14">
+      <c r="O211" s="10" t="n"/>
+    </row>
+    <row r="212" ht="12.6" customHeight="1" s="70">
       <c r="A212" s="8" t="n"/>
-      <c r="B212" s="64" t="s">
-        <v>158</v>
+      <c r="B212" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C212" s="22" t="n">
         <v>7.4626</v>
@@ -9721,12 +10198,17 @@
       <c r="M212" s="22" t="n">
         <v>5.29807</v>
       </c>
-      <c r="N212" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="213" s="70" spans="1:14">
+      <c r="N212" s="22" t="n">
+        <v>5.298</v>
+      </c>
+      <c r="O212" s="1" t="n"/>
+    </row>
+    <row r="213" ht="12.6" customHeight="1" s="70">
       <c r="A213" s="15" t="n"/>
-      <c r="B213" s="57" t="s">
-        <v>178</v>
+      <c r="B213" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
+        </is>
       </c>
       <c r="C213" s="23" t="n">
         <v>0</v>
@@ -9761,12 +10243,17 @@
       <c r="M213" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N213" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="214" s="70" spans="1:14">
+      <c r="N213" s="23" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="O213" s="6" t="n"/>
+    </row>
+    <row r="214" ht="12.6" customHeight="1" s="70">
       <c r="A214" s="15" t="n"/>
-      <c r="B214" s="64" t="s">
-        <v>179</v>
+      <c r="B214" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
+        </is>
       </c>
       <c r="C214" s="22" t="n">
         <v>0</v>
@@ -9801,12 +10288,17 @@
       <c r="M214" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N214" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="215" s="70" spans="1:14">
+      <c r="N214" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O214" s="1" t="n"/>
+    </row>
+    <row r="215" ht="12.6" customHeight="1" s="70">
       <c r="A215" s="16" t="n"/>
-      <c r="B215" s="64" t="s">
-        <v>180</v>
+      <c r="B215" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
+        </is>
       </c>
       <c r="C215" s="22" t="n">
         <v>0</v>
@@ -9841,12 +10333,17 @@
       <c r="M215" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N215" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="216" s="70" spans="1:14">
+      <c r="N215" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O215" s="1" t="n"/>
+    </row>
+    <row r="216" ht="12.6" customHeight="1" s="70">
       <c r="A216" s="16" t="n"/>
-      <c r="B216" s="65" t="s">
-        <v>181</v>
+      <c r="B216" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other </t>
+        </is>
       </c>
       <c r="C216" s="35" t="n">
         <v>0</v>
@@ -9881,12 +10378,17 @@
       <c r="M216" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N216" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="217" s="70" spans="1:14">
+      <c r="N216" s="35" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="O216" s="10" t="n"/>
+    </row>
+    <row r="217" ht="12.6" customHeight="1" s="70">
       <c r="A217" s="5" t="n"/>
-      <c r="B217" s="60" t="s">
-        <v>182</v>
+      <c r="B217" s="60" t="inlineStr">
+        <is>
+          <t>III- SHAREHOLDERS EQUITY</t>
+        </is>
       </c>
       <c r="C217" s="23" t="n">
         <v>44916.53597</v>
@@ -9898,7 +10400,7 @@
         <v>62053.34092</v>
       </c>
       <c r="F217" s="33" t="n">
-        <v>71195.58092000001</v>
+        <v>71195.58091999999</v>
       </c>
       <c r="G217" s="23" t="n">
         <v>80729.85734999999</v>
@@ -9907,7 +10409,7 @@
         <v>74292.06619</v>
       </c>
       <c r="I217" s="23" t="n">
-        <v>90616.54374000001</v>
+        <v>95904.53806000001</v>
       </c>
       <c r="J217" s="33" t="n">
         <v>89236.81774</v>
@@ -9916,17 +10418,22 @@
         <v>78038.68397</v>
       </c>
       <c r="L217" s="23" t="n">
-        <v>79744.52297000001</v>
+        <v>84727.54878</v>
       </c>
       <c r="M217" s="23" t="n">
-        <v>160133.32893</v>
-      </c>
-      <c r="N217" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="218" s="70" spans="1:14">
+        <v>152442.30689</v>
+      </c>
+      <c r="N217" s="23" t="n">
+        <v>208144.046</v>
+      </c>
+      <c r="O217" s="11" t="n"/>
+    </row>
+    <row r="218" ht="12.6" customHeight="1" s="70">
       <c r="A218" s="8" t="n"/>
-      <c r="B218" s="60" t="s">
-        <v>183</v>
+      <c r="B218" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Paid-in Capital</t>
+        </is>
       </c>
       <c r="C218" s="23" t="n">
         <v>34505.63205</v>
@@ -9938,7 +10445,7 @@
         <v>48218.85559000001</v>
       </c>
       <c r="F218" s="33" t="n">
-        <v>53137.97093000001</v>
+        <v>53137.97093</v>
       </c>
       <c r="G218" s="23" t="n">
         <v>70236.83136</v>
@@ -9947,7 +10454,7 @@
         <v>71016.01037</v>
       </c>
       <c r="I218" s="23" t="n">
-        <v>75958.44816</v>
+        <v>78024.63792000001</v>
       </c>
       <c r="J218" s="33" t="n">
         <v>101873.40376</v>
@@ -9959,14 +10466,19 @@
         <v>130815.17619</v>
       </c>
       <c r="M218" s="23" t="n">
-        <v>154324.07274</v>
-      </c>
-      <c r="N218" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="219" s="70" spans="1:14">
+        <v>154554.62531</v>
+      </c>
+      <c r="N218" s="23" t="n">
+        <v>195154.67</v>
+      </c>
+      <c r="O218" s="11" t="n"/>
+    </row>
+    <row r="219" ht="12.6" customHeight="1" s="70">
       <c r="A219" s="8" t="n"/>
-      <c r="B219" s="64" t="s">
-        <v>184</v>
+      <c r="B219" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Subscribed Capital </t>
+        </is>
       </c>
       <c r="C219" s="22" t="n">
         <v>35416.36079</v>
@@ -9984,10 +10496,10 @@
         <v>73161.95823</v>
       </c>
       <c r="H219" s="21" t="n">
-        <v>71001.89029</v>
+        <v>71001.89029000001</v>
       </c>
       <c r="I219" s="22" t="n">
-        <v>74989.47824000001</v>
+        <v>76914.47824000001</v>
       </c>
       <c r="J219" s="21" t="n">
         <v>101877.46079</v>
@@ -9996,17 +10508,22 @@
         <v>148640.69596</v>
       </c>
       <c r="L219" s="22" t="n">
-        <v>136082.09695</v>
+        <v>136204.09695</v>
       </c>
       <c r="M219" s="22" t="n">
-        <v>158853.54339</v>
-      </c>
-      <c r="N219" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="220" s="70" spans="1:14">
+        <v>159505.54339</v>
+      </c>
+      <c r="N219" s="22" t="n">
+        <v>247813.543</v>
+      </c>
+      <c r="O219" s="10" t="n"/>
+    </row>
+    <row r="220" ht="12.6" customHeight="1" s="70">
       <c r="A220" s="5" t="n"/>
-      <c r="B220" s="59" t="s">
-        <v>185</v>
+      <c r="B220" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
+        </is>
       </c>
       <c r="C220" s="22" t="n">
         <v>3949.18155</v>
@@ -10015,7 +10532,7 @@
         <v>3921.371599999999</v>
       </c>
       <c r="E220" s="22" t="n">
-        <v>5668.052850000001</v>
+        <v>5668.05285</v>
       </c>
       <c r="F220" s="21" t="n">
         <v>4144.53211</v>
@@ -10036,17 +10553,22 @@
         <v>5999.67539</v>
       </c>
       <c r="L220" s="22" t="n">
-        <v>8522.168800000001</v>
+        <v>8644.168800000001</v>
       </c>
       <c r="M220" s="22" t="n">
-        <v>7684.12117</v>
-      </c>
-      <c r="N220" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="221" s="70" spans="1:14">
+        <v>8105.5686</v>
+      </c>
+      <c r="N220" s="22" t="n">
+        <v>55824.434</v>
+      </c>
+      <c r="O220" s="10" t="n"/>
+    </row>
+    <row r="221" ht="12.6" customHeight="1" s="70">
       <c r="A221" s="5" t="n"/>
-      <c r="B221" s="59" t="s">
-        <v>186</v>
+      <c r="B221" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
+        </is>
       </c>
       <c r="C221" s="22" t="n">
         <v>3038.45281</v>
@@ -10067,7 +10589,7 @@
         <v>3275.99591</v>
       </c>
       <c r="I221" s="22" t="n">
-        <v>4306.47075</v>
+        <v>4447.66051</v>
       </c>
       <c r="J221" s="21" t="n">
         <v>4083.37569</v>
@@ -10079,14 +10601,19 @@
         <v>3255.24804</v>
       </c>
       <c r="M221" s="22" t="n">
-        <v>3154.650520000001</v>
-      </c>
-      <c r="N221" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="222" s="70" spans="1:14">
+        <v>3154.65052</v>
+      </c>
+      <c r="N221" s="22" t="n">
+        <v>3165.561</v>
+      </c>
+      <c r="O221" s="11" t="n"/>
+    </row>
+    <row r="222" ht="12.6" customHeight="1" s="70">
       <c r="A222" s="8" t="n"/>
-      <c r="B222" s="59" t="s">
-        <v>187</v>
+      <c r="B222" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
+        </is>
       </c>
       <c r="C222" s="22" t="n">
         <v>0</v>
@@ -10121,12 +10648,17 @@
       <c r="M222" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N222" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="223" s="70" spans="1:14">
+      <c r="N222" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O222" s="10" t="n"/>
+    </row>
+    <row r="223" ht="12.6" customHeight="1" s="70">
       <c r="A223" s="5" t="n"/>
-      <c r="B223" s="60" t="s">
-        <v>188</v>
+      <c r="B223" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Capital Reserves</t>
+        </is>
       </c>
       <c r="C223" s="23" t="n">
         <v>14.50052</v>
@@ -10159,14 +10691,19 @@
         <v>1091.82502</v>
       </c>
       <c r="M223" s="23" t="n">
-        <v>723.77738</v>
-      </c>
-      <c r="N223" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="224" s="70" spans="1:14">
+        <v>1329.24253</v>
+      </c>
+      <c r="N223" s="23" t="n">
+        <v>11019.061</v>
+      </c>
+      <c r="O223" s="10" t="n"/>
+    </row>
+    <row r="224" ht="12.6" customHeight="1" s="70">
       <c r="A224" s="5" t="n"/>
-      <c r="B224" s="59" t="s">
-        <v>189</v>
+      <c r="B224" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Share Premium Account</t>
+        </is>
       </c>
       <c r="C224" s="22" t="n">
         <v>0</v>
@@ -10201,12 +10738,17 @@
       <c r="M224" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N224" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="225" s="70" spans="1:14">
+      <c r="N224" s="22" t="n">
+        <v>70</v>
+      </c>
+      <c r="O224" s="10" t="n"/>
+    </row>
+    <row r="225" ht="12.6" customHeight="1" s="70">
       <c r="A225" s="5" t="n"/>
-      <c r="B225" s="64" t="s">
-        <v>190</v>
+      <c r="B225" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
+        </is>
       </c>
       <c r="C225" s="22" t="n">
         <v>0</v>
@@ -10241,12 +10783,17 @@
       <c r="M225" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N225" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="226" s="70" spans="1:14">
+      <c r="N225" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O225" s="10" t="n"/>
+    </row>
+    <row r="226" ht="12.6" customHeight="1" s="70">
       <c r="A226" s="5" t="n"/>
-      <c r="B226" s="64" t="s">
-        <v>191</v>
+      <c r="B226" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C226" s="22" t="n">
         <v>10.80072</v>
@@ -10281,12 +10828,17 @@
       <c r="M226" s="22" t="n">
         <v>299.2142</v>
       </c>
-      <c r="N226" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="227" s="70" spans="1:14">
+      <c r="N226" s="22" t="n">
+        <v>169.033</v>
+      </c>
+      <c r="O226" s="10" t="n"/>
+    </row>
+    <row r="227" ht="12.6" customHeight="1" s="70">
       <c r="A227" s="5" t="n"/>
-      <c r="B227" s="59" t="s">
-        <v>192</v>
+      <c r="B227" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation of Participations</t>
+        </is>
       </c>
       <c r="C227" s="22" t="n">
         <v>0</v>
@@ -10321,12 +10873,17 @@
       <c r="M227" s="22" t="n">
         <v>8.75</v>
       </c>
-      <c r="N227" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="228" s="70" spans="1:14">
+      <c r="N227" s="22" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="O227" s="10" t="n"/>
+    </row>
+    <row r="228" ht="12.6" customHeight="1" s="70">
       <c r="A228" s="5" t="n"/>
-      <c r="B228" s="59" t="s">
-        <v>193</v>
+      <c r="B228" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
+        </is>
       </c>
       <c r="C228" s="22" t="n">
         <v>0</v>
@@ -10361,12 +10918,17 @@
       <c r="M228" s="22" t="n">
         <v>200.04385</v>
       </c>
-      <c r="N228" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="229" s="70" spans="1:14">
+      <c r="N228" s="22" t="n">
+        <v>200.044</v>
+      </c>
+      <c r="O228" s="10" t="n"/>
+    </row>
+    <row r="229" ht="12.6" customHeight="1" s="70">
       <c r="A229" s="5" t="n"/>
-      <c r="B229" s="59" t="s">
-        <v>194</v>
+      <c r="B229" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
+        </is>
       </c>
       <c r="C229" s="22" t="n">
         <v>0</v>
@@ -10401,12 +10963,17 @@
       <c r="M229" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N229" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="230" s="70" spans="1:14">
+      <c r="N229" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O229" s="10" t="n"/>
+    </row>
+    <row r="230" ht="12.6" customHeight="1" s="70">
       <c r="A230" s="5" t="n"/>
-      <c r="B230" s="59" t="s">
-        <v>195</v>
+      <c r="B230" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Capital Reserves</t>
+        </is>
       </c>
       <c r="C230" s="22" t="n">
         <v>3.6998</v>
@@ -10439,14 +11006,19 @@
         <v>891.23448</v>
       </c>
       <c r="M230" s="22" t="n">
-        <v>215.76933</v>
-      </c>
-      <c r="N230" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="231" s="70" spans="1:14">
+        <v>821.23448</v>
+      </c>
+      <c r="N230" s="22" t="n">
+        <v>10571.234</v>
+      </c>
+      <c r="O230" s="11" t="n"/>
+    </row>
+    <row r="231" ht="12.6" customHeight="1" s="70">
       <c r="A231" s="8" t="n"/>
-      <c r="B231" s="60" t="s">
-        <v>196</v>
+      <c r="B231" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
+        </is>
       </c>
       <c r="C231" s="23" t="n">
         <v>3307.83168</v>
@@ -10467,7 +11039,7 @@
         <v>12444.94663</v>
       </c>
       <c r="I231" s="23" t="n">
-        <v>10125.45998</v>
+        <v>10147.10616</v>
       </c>
       <c r="J231" s="33" t="n">
         <v>8691.01375</v>
@@ -10476,17 +11048,22 @@
         <v>8648.84317</v>
       </c>
       <c r="L231" s="23" t="n">
-        <v>8753.5214</v>
+        <v>8753.521399999998</v>
       </c>
       <c r="M231" s="23" t="n">
-        <v>18199.51759</v>
-      </c>
-      <c r="N231" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="232" s="70" spans="1:14">
+        <v>18224.9637</v>
+      </c>
+      <c r="N231" s="23" t="n">
+        <v>35829.3</v>
+      </c>
+      <c r="O231" s="10" t="n"/>
+    </row>
+    <row r="232" ht="12.6" customHeight="1" s="70">
       <c r="A232" s="5" t="n"/>
-      <c r="B232" s="64" t="s">
-        <v>197</v>
+      <c r="B232" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Legal Reserves</t>
+        </is>
       </c>
       <c r="C232" s="22" t="n">
         <v>353.5794</v>
@@ -10507,7 +11084,7 @@
         <v>1465.90556</v>
       </c>
       <c r="I232" s="22" t="n">
-        <v>1573.41732</v>
+        <v>1595.04914</v>
       </c>
       <c r="J232" s="21" t="n">
         <v>2060.72861</v>
@@ -10519,14 +11096,19 @@
         <v>2035.5252</v>
       </c>
       <c r="M232" s="22" t="n">
-        <v>2131.54048</v>
-      </c>
-      <c r="N232" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="233" s="70" spans="1:14">
+        <v>2156.98659</v>
+      </c>
+      <c r="N232" s="22" t="n">
+        <v>3146.911</v>
+      </c>
+      <c r="O232" s="10" t="n"/>
+    </row>
+    <row r="233" ht="12.6" customHeight="1" s="70">
       <c r="A233" s="5" t="n"/>
-      <c r="B233" s="64" t="s">
-        <v>198</v>
+      <c r="B233" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
+        </is>
       </c>
       <c r="C233" s="22" t="n">
         <v>25.78988</v>
@@ -10547,7 +11129,7 @@
         <v>236.21189</v>
       </c>
       <c r="I233" s="22" t="n">
-        <v>234.91547</v>
+        <v>234.9255</v>
       </c>
       <c r="J233" s="21" t="n">
         <v>69.03473999999999</v>
@@ -10561,12 +11143,17 @@
       <c r="M233" s="22" t="n">
         <v>46.41082</v>
       </c>
-      <c r="N233" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="234" s="70" spans="1:14">
+      <c r="N233" s="22" t="n">
+        <v>46.678</v>
+      </c>
+      <c r="O233" s="10" t="n"/>
+    </row>
+    <row r="234" ht="12.6" customHeight="1" s="70">
       <c r="A234" s="5" t="n"/>
-      <c r="B234" s="64" t="s">
-        <v>199</v>
+      <c r="B234" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Extraordinary Reserves</t>
+        </is>
       </c>
       <c r="C234" s="22" t="n">
         <v>556.4915100000001</v>
@@ -10587,7 +11174,7 @@
         <v>5051.05875</v>
       </c>
       <c r="I234" s="22" t="n">
-        <v>5503.4527</v>
+        <v>5503.45703</v>
       </c>
       <c r="J234" s="21" t="n">
         <v>3741.28673</v>
@@ -10601,12 +11188,17 @@
       <c r="M234" s="22" t="n">
         <v>12797.02692</v>
       </c>
-      <c r="N234" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="235" s="70" spans="1:14">
+      <c r="N234" s="22" t="n">
+        <v>14067.725</v>
+      </c>
+      <c r="O234" s="10" t="n"/>
+    </row>
+    <row r="235" ht="12.6" customHeight="1" s="70">
       <c r="A235" s="5" t="n"/>
-      <c r="B235" s="64" t="s">
-        <v>200</v>
+      <c r="B235" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Reserves</t>
+        </is>
       </c>
       <c r="C235" s="22" t="n">
         <v>0</v>
@@ -10641,12 +11233,17 @@
       <c r="M235" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N235" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="236" s="70" spans="1:14">
+      <c r="N235" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O235" s="10" t="n"/>
+    </row>
+    <row r="236" ht="12.6" customHeight="1" s="70">
       <c r="A236" s="5" t="n"/>
-      <c r="B236" s="64" t="s">
-        <v>201</v>
+      <c r="B236" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Funds</t>
+        </is>
       </c>
       <c r="C236" s="22" t="n">
         <v>2371.97089</v>
@@ -10681,12 +11278,17 @@
       <c r="M236" s="22" t="n">
         <v>3224.53937</v>
       </c>
-      <c r="N236" s="10" t="n"/>
-    </row>
-    <row r="237" spans="1:14">
+      <c r="N236" s="22" t="n">
+        <v>18567.986</v>
+      </c>
+      <c r="O236" s="10" t="n"/>
+    </row>
+    <row r="237">
       <c r="A237" s="5" t="n"/>
-      <c r="B237" s="60" t="s">
-        <v>202</v>
+      <c r="B237" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Profit Brought Forward</t>
+        </is>
       </c>
       <c r="C237" s="23" t="n">
         <v>8957.63391</v>
@@ -10701,38 +11303,43 @@
         <v>20206.74609</v>
       </c>
       <c r="G237" s="23" t="n">
-        <v>37519.00976</v>
+        <v>37519.00976000001</v>
       </c>
       <c r="H237" s="33" t="n">
         <v>41142.69252</v>
       </c>
       <c r="I237" s="23" t="n">
-        <v>58898.20887</v>
+        <v>60965.48175</v>
       </c>
       <c r="J237" s="33" t="n">
         <v>82731.05991</v>
       </c>
       <c r="K237" s="23" t="n">
-        <v>94501.4857</v>
+        <v>94501.48569999999</v>
       </c>
       <c r="L237" s="23" t="n">
-        <v>104430.14552</v>
+        <v>104543.62108</v>
       </c>
       <c r="M237" s="23" t="n">
-        <v>114941.55535</v>
-      </c>
-      <c r="N237" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="238" s="70" spans="1:14">
+        <v>118198.72203</v>
+      </c>
+      <c r="N237" s="23" t="n">
+        <v>151106.201</v>
+      </c>
+      <c r="O237" s="11" t="n"/>
+    </row>
+    <row r="238">
       <c r="A238" s="8" t="n"/>
-      <c r="B238" s="57" t="s">
-        <v>203</v>
+      <c r="B238" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
+        </is>
       </c>
       <c r="C238" s="23" t="n">
         <v>-7089.3359</v>
       </c>
       <c r="D238" s="23" t="n">
-        <v>-7216.30145</v>
+        <v>-7216.301449999999</v>
       </c>
       <c r="E238" s="23" t="n">
         <v>-11588.48503</v>
@@ -10747,7 +11354,7 @@
         <v>-47776.79934000001</v>
       </c>
       <c r="I238" s="23" t="n">
-        <v>-68988.87444</v>
+        <v>-69062.25399</v>
       </c>
       <c r="J238" s="33" t="n">
         <v>-103557.19144</v>
@@ -10756,17 +11363,22 @@
         <v>-124976.71244</v>
       </c>
       <c r="L238" s="23" t="n">
-        <v>-148702.29303</v>
+        <v>-149133.35207</v>
       </c>
       <c r="M238" s="23" t="n">
-        <v>-156376.10175</v>
-      </c>
-      <c r="N238" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="239" s="70" spans="1:14">
+        <v>-156810.1261</v>
+      </c>
+      <c r="N238" s="23" t="n">
+        <v>-173070.078</v>
+      </c>
+      <c r="O238" s="11" t="n"/>
+    </row>
+    <row r="239">
       <c r="A239" s="8" t="n"/>
-      <c r="B239" s="60" t="s">
-        <v>204</v>
+      <c r="B239" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
+        </is>
       </c>
       <c r="C239" s="23" t="n">
         <v>5220.27371</v>
@@ -10775,19 +11387,19 @@
         <v>1250.35573</v>
       </c>
       <c r="E239" s="23" t="n">
-        <v>-310.4058199999998</v>
+        <v>-310.4058199999999</v>
       </c>
       <c r="F239" s="33" t="n">
         <v>8081.30681</v>
       </c>
       <c r="G239" s="23" t="n">
-        <v>-8045.43271</v>
+        <v>-8045.432710000002</v>
       </c>
       <c r="H239" s="33" t="n">
-        <v>-2984.992689999999</v>
+        <v>-2984.99269</v>
       </c>
       <c r="I239" s="23" t="n">
-        <v>9524.43447</v>
+        <v>10730.69952</v>
       </c>
       <c r="J239" s="33" t="n">
         <v>-8001.286220000001</v>
@@ -10796,26 +11408,31 @@
         <v>-46327.6235</v>
       </c>
       <c r="L239" s="23" t="n">
-        <v>-16643.85213</v>
+        <v>-11343.24284</v>
       </c>
       <c r="M239" s="23" t="n">
-        <v>28320.50762</v>
-      </c>
-      <c r="N239" s="11" t="n"/>
-    </row>
-    <row r="240" spans="1:14">
+        <v>16944.87942</v>
+      </c>
+      <c r="N239" s="23" t="n">
+        <v>-11895.108</v>
+      </c>
+      <c r="O239" s="11" t="n"/>
+    </row>
+    <row r="240">
       <c r="A240" s="8" t="n"/>
-      <c r="B240" s="64" t="s">
-        <v>205</v>
+      <c r="B240" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Profit for the Financial Year</t>
+        </is>
       </c>
       <c r="C240" s="22" t="n">
-        <v>6818.75608</v>
+        <v>6818.756080000001</v>
       </c>
       <c r="D240" s="22" t="n">
         <v>5225.62773</v>
       </c>
       <c r="E240" s="22" t="n">
-        <v>8743.78146</v>
+        <v>8743.781459999998</v>
       </c>
       <c r="F240" s="21" t="n">
         <v>15759.65487</v>
@@ -10827,7 +11444,7 @@
         <v>19292.73946</v>
       </c>
       <c r="I240" s="22" t="n">
-        <v>23540.20864</v>
+        <v>24746.47369</v>
       </c>
       <c r="J240" s="21" t="n">
         <v>17939.10186</v>
@@ -10836,17 +11453,22 @@
         <v>16554.54004</v>
       </c>
       <c r="L240" s="22" t="n">
-        <v>28612.16027</v>
+        <v>33915.86615</v>
       </c>
       <c r="M240" s="22" t="n">
-        <v>57469.93521</v>
-      </c>
-      <c r="N240" s="10" t="n"/>
-    </row>
-    <row r="241" spans="1:14">
+        <v>46387.90068999999</v>
+      </c>
+      <c r="N240" s="22" t="n">
+        <v>62837.552</v>
+      </c>
+      <c r="O240" s="10" t="n"/>
+    </row>
+    <row r="241">
       <c r="A241" s="5" t="n"/>
-      <c r="B241" s="64" t="s">
-        <v>206</v>
+      <c r="B241" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
+        </is>
       </c>
       <c r="C241" s="22" t="n">
         <v>1598.48237</v>
@@ -10873,20 +11495,25 @@
         <v>25940.38808</v>
       </c>
       <c r="K241" s="22" t="n">
-        <v>62882.16354000001</v>
+        <v>62882.16353999999</v>
       </c>
       <c r="L241" s="22" t="n">
-        <v>45256.0124</v>
+        <v>45259.10899</v>
       </c>
       <c r="M241" s="22" t="n">
-        <v>29149.42759</v>
-      </c>
-      <c r="N241" s="10" t="n"/>
-    </row>
-    <row r="242" spans="1:14">
+        <v>29443.02127</v>
+      </c>
+      <c r="N241" s="22" t="n">
+        <v>74732.66</v>
+      </c>
+      <c r="O241" s="10" t="n"/>
+    </row>
+    <row r="242">
       <c r="A242" s="5" t="n"/>
-      <c r="B242" s="57" t="s">
-        <v>207</v>
+      <c r="B242" s="57" t="inlineStr">
+        <is>
+          <t>TOTAL LIABILITIES</t>
+        </is>
       </c>
       <c r="C242" s="47" t="n">
         <v>123301.02189</v>
@@ -10907,23 +11534,26 @@
         <v>336220.82722</v>
       </c>
       <c r="I242" s="47" t="n">
-        <v>450313.7093400001</v>
+        <v>464174.47798</v>
       </c>
       <c r="J242" s="48" t="n">
-        <v>578717.04478</v>
+        <v>578717.0447800001</v>
       </c>
       <c r="K242" s="47" t="n">
-        <v>591001.6320499999</v>
+        <v>591001.63205</v>
       </c>
       <c r="L242" s="47" t="n">
-        <v>643701.30334</v>
+        <v>663799.59997</v>
       </c>
       <c r="M242" s="47" t="n">
-        <v>894780.62559</v>
-      </c>
-      <c r="N242" s="11" t="n"/>
-    </row>
-    <row r="243" spans="1:14">
+        <v>1039519.12864</v>
+      </c>
+      <c r="N242" s="47" t="n">
+        <v>1353061.781</v>
+      </c>
+      <c r="O242" s="11" t="n"/>
+    </row>
+    <row r="243">
       <c r="A243" s="8" t="n"/>
       <c r="B243" s="51" t="n"/>
       <c r="C243" s="50" t="n"/>
@@ -10937,12 +11567,15 @@
       <c r="K243" s="50" t="n"/>
       <c r="L243" s="50" t="n"/>
       <c r="M243" s="50" t="n"/>
-      <c r="N243" s="10" t="n"/>
-    </row>
-    <row r="244" spans="1:14">
+      <c r="N243" s="50" t="n"/>
+      <c r="O243" s="10" t="n"/>
+    </row>
+    <row r="244">
       <c r="A244" s="5" t="n"/>
-      <c r="B244" s="69" t="s">
-        <v>208</v>
+      <c r="B244" s="69" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C244" s="52" t="n">
         <v>85</v>
@@ -10963,7 +11596,7 @@
         <v>141</v>
       </c>
       <c r="I244" s="52" t="n">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="J244" s="53" t="n">
         <v>173</v>
@@ -10972,14 +11605,17 @@
         <v>187</v>
       </c>
       <c r="L244" s="52" t="n">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="M244" s="52" t="n">
-        <v>188</v>
-      </c>
-      <c r="N244" s="12" t="n"/>
-    </row>
-    <row r="245" spans="1:14">
+        <v>199</v>
+      </c>
+      <c r="N244" s="52" t="n">
+        <v>204</v>
+      </c>
+      <c r="O244" s="12" t="n"/>
+    </row>
+    <row r="245">
       <c r="A245" s="12" t="n"/>
       <c r="B245" s="54" t="n"/>
       <c r="C245" s="54" t="n"/>
@@ -10993,288 +11629,289 @@
       <c r="K245" s="54" t="n"/>
       <c r="L245" s="54" t="n"/>
       <c r="M245" s="54" t="n"/>
-      <c r="N245" s="10" t="n"/>
-    </row>
-    <row hidden="1" r="246" s="70" spans="1:14"/>
-    <row hidden="1" r="247" s="70" spans="1:14"/>
-    <row hidden="1" r="248" s="70" spans="1:14"/>
-    <row hidden="1" r="249" s="70" spans="1:14"/>
-    <row hidden="1" r="250" s="70" spans="1:14"/>
-    <row hidden="1" r="251" s="70" spans="1:14"/>
-    <row hidden="1" r="252" s="70" spans="1:14"/>
-    <row hidden="1" r="253" s="70" spans="1:14"/>
-    <row hidden="1" r="254" s="70" spans="1:14"/>
-    <row hidden="1" r="255" s="70" spans="1:14"/>
-    <row hidden="1" r="256" s="70" spans="1:14"/>
-    <row hidden="1" r="257" s="70" spans="1:14"/>
-    <row hidden="1" r="258" s="70" spans="1:14"/>
-    <row hidden="1" r="259" s="70" spans="1:14"/>
-    <row hidden="1" r="260" s="70" spans="1:14"/>
-    <row hidden="1" r="261" s="70" spans="1:14"/>
-    <row hidden="1" r="262" s="70" spans="1:14"/>
-    <row hidden="1" r="263" s="70" spans="1:14"/>
-    <row hidden="1" r="264" s="70" spans="1:14"/>
-    <row hidden="1" r="265" s="70" spans="1:14"/>
-    <row hidden="1" r="266" s="70" spans="1:14"/>
-    <row hidden="1" r="267" s="70" spans="1:14"/>
-    <row hidden="1" r="268" s="70" spans="1:14"/>
-    <row hidden="1" r="269" s="70" spans="1:14"/>
-    <row hidden="1" r="270" s="70" spans="1:14"/>
-    <row hidden="1" r="271" s="70" spans="1:14"/>
-    <row hidden="1" r="272" s="70" spans="1:14"/>
-    <row hidden="1" r="273" s="70" spans="1:14"/>
-    <row hidden="1" r="274" s="70" spans="1:14"/>
-    <row hidden="1" r="275" s="70" spans="1:14"/>
-    <row hidden="1" r="276" s="70" spans="1:14"/>
-    <row hidden="1" r="277" s="70" spans="1:14"/>
-    <row hidden="1" r="278" s="70" spans="1:14"/>
-    <row hidden="1" r="279" s="70" spans="1:14"/>
-    <row hidden="1" r="280" s="70" spans="1:14"/>
-    <row hidden="1" r="281" s="70" spans="1:14"/>
-    <row hidden="1" r="282" s="70" spans="1:14"/>
-    <row hidden="1" r="283" s="70" spans="1:14"/>
-    <row hidden="1" r="284" s="70" spans="1:14"/>
-    <row hidden="1" r="285" s="70" spans="1:14"/>
-    <row hidden="1" r="286" s="70" spans="1:14"/>
-    <row hidden="1" r="287" s="70" spans="1:14"/>
-    <row hidden="1" r="288" s="70" spans="1:14"/>
-    <row hidden="1" r="289" s="70" spans="1:14"/>
-    <row hidden="1" r="290" s="70" spans="1:14"/>
-    <row hidden="1" r="291" s="70" spans="1:14"/>
-    <row hidden="1" r="292" s="70" spans="1:14"/>
-    <row hidden="1" r="293" s="70" spans="1:14"/>
-    <row hidden="1" r="294" s="70" spans="1:14"/>
-    <row hidden="1" r="295" s="70" spans="1:14"/>
-    <row hidden="1" r="296" s="70" spans="1:14"/>
-    <row hidden="1" r="297" s="70" spans="1:14"/>
-    <row hidden="1" r="298" s="70" spans="1:14"/>
-    <row hidden="1" r="299" s="70" spans="1:14"/>
-    <row hidden="1" r="300" s="70" spans="1:14"/>
-    <row hidden="1" r="301" s="70" spans="1:14"/>
-    <row hidden="1" r="302" s="70" spans="1:14"/>
-    <row hidden="1" r="303" s="70" spans="1:14"/>
-    <row hidden="1" r="304" s="70" spans="1:14"/>
-    <row hidden="1" r="305" s="70" spans="1:14"/>
-    <row hidden="1" r="306" s="70" spans="1:14"/>
-    <row hidden="1" r="307" s="70" spans="1:14"/>
-    <row hidden="1" r="308" s="70" spans="1:14"/>
-    <row hidden="1" r="309" s="70" spans="1:14"/>
-    <row hidden="1" r="310" s="70" spans="1:14"/>
-    <row hidden="1" r="311" s="70" spans="1:14"/>
-    <row hidden="1" r="312" s="70" spans="1:14"/>
-    <row hidden="1" r="313" s="70" spans="1:14"/>
-    <row hidden="1" r="314" s="70" spans="1:14"/>
-    <row hidden="1" r="315" s="70" spans="1:14"/>
-    <row hidden="1" r="316" s="70" spans="1:14"/>
-    <row hidden="1" r="317" s="70" spans="1:14"/>
-    <row hidden="1" r="318" s="70" spans="1:14"/>
-    <row hidden="1" r="319" s="70" spans="1:14"/>
-    <row hidden="1" r="320" s="70" spans="1:14"/>
-    <row hidden="1" r="321" s="70" spans="1:14"/>
-    <row hidden="1" r="322" s="70" spans="1:14"/>
-    <row hidden="1" r="323" s="70" spans="1:14"/>
-    <row hidden="1" r="324" s="70" spans="1:14"/>
-    <row hidden="1" r="325" s="70" spans="1:14"/>
-    <row hidden="1" r="326" s="70" spans="1:14"/>
-    <row hidden="1" r="327" s="70" spans="1:14"/>
-    <row hidden="1" r="328" s="70" spans="1:14"/>
-    <row hidden="1" r="329" s="70" spans="1:14"/>
-    <row hidden="1" r="330" s="70" spans="1:14"/>
-    <row hidden="1" r="331" s="70" spans="1:14"/>
-    <row hidden="1" r="332" s="70" spans="1:14"/>
-    <row hidden="1" r="333" s="70" spans="1:14"/>
-    <row hidden="1" r="334" s="70" spans="1:14"/>
-    <row hidden="1" r="335" s="70" spans="1:14"/>
-    <row hidden="1" r="336" s="70" spans="1:14"/>
-    <row hidden="1" r="337" s="70" spans="1:14"/>
-    <row hidden="1" r="338" s="70" spans="1:14"/>
-    <row hidden="1" r="339" s="70" spans="1:14"/>
-    <row hidden="1" r="340" s="70" spans="1:14"/>
-    <row hidden="1" r="341" s="70" spans="1:14"/>
-    <row hidden="1" r="342" s="70" spans="1:14"/>
-    <row hidden="1" r="343" s="70" spans="1:14"/>
-    <row hidden="1" r="344" s="70" spans="1:14"/>
-    <row hidden="1" r="345" s="70" spans="1:14"/>
-    <row hidden="1" r="346" s="70" spans="1:14"/>
-    <row hidden="1" r="347" s="70" spans="1:14"/>
-    <row hidden="1" r="348" s="70" spans="1:14"/>
-    <row hidden="1" r="349" s="70" spans="1:14"/>
-    <row hidden="1" r="350" s="70" spans="1:14"/>
-    <row hidden="1" r="351" s="70" spans="1:14"/>
-    <row hidden="1" r="352" s="70" spans="1:14"/>
-    <row hidden="1" r="353" s="70" spans="1:14"/>
-    <row hidden="1" r="354" s="70" spans="1:14"/>
-    <row hidden="1" r="355" s="70" spans="1:14"/>
-    <row hidden="1" r="356" s="70" spans="1:14"/>
-    <row hidden="1" r="357" s="70" spans="1:14"/>
-    <row hidden="1" r="358" s="70" spans="1:14"/>
-    <row hidden="1" r="359" s="70" spans="1:14"/>
-    <row hidden="1" r="360" s="70" spans="1:14"/>
-    <row hidden="1" r="361" s="70" spans="1:14"/>
-    <row hidden="1" r="362" s="70" spans="1:14"/>
-    <row hidden="1" r="363" s="70" spans="1:14"/>
-    <row hidden="1" r="364" s="70" spans="1:14"/>
-    <row hidden="1" r="365" s="70" spans="1:14"/>
-    <row hidden="1" r="366" s="70" spans="1:14"/>
-    <row hidden="1" r="367" s="70" spans="1:14"/>
-    <row hidden="1" r="368" s="70" spans="1:14"/>
-    <row hidden="1" r="369" s="70" spans="1:14"/>
-    <row hidden="1" r="370" s="70" spans="1:14"/>
-    <row hidden="1" r="371" s="70" spans="1:14"/>
-    <row hidden="1" r="372" s="70" spans="1:14"/>
-    <row hidden="1" r="373" s="70" spans="1:14"/>
-    <row hidden="1" r="374" s="70" spans="1:14"/>
-    <row hidden="1" r="375" s="70" spans="1:14"/>
-    <row hidden="1" r="376" s="70" spans="1:14"/>
-    <row hidden="1" r="377" s="70" spans="1:14"/>
-    <row hidden="1" r="378" s="70" spans="1:14"/>
-    <row hidden="1" r="379" s="70" spans="1:14"/>
-    <row hidden="1" r="380" s="70" spans="1:14"/>
-    <row hidden="1" r="381" s="70" spans="1:14"/>
-    <row hidden="1" r="382" s="70" spans="1:14"/>
-    <row hidden="1" r="383" s="70" spans="1:14"/>
-    <row hidden="1" r="384" s="70" spans="1:14"/>
-    <row hidden="1" r="385" s="70" spans="1:14"/>
-    <row hidden="1" r="386" s="70" spans="1:14"/>
-    <row hidden="1" r="387" s="70" spans="1:14"/>
-    <row hidden="1" r="388" s="70" spans="1:14"/>
-    <row hidden="1" r="389" s="70" spans="1:14"/>
-    <row hidden="1" r="390" s="70" spans="1:14"/>
-    <row hidden="1" r="391" s="70" spans="1:14"/>
-    <row hidden="1" r="392" s="70" spans="1:14"/>
-    <row hidden="1" r="393" s="70" spans="1:14"/>
-    <row hidden="1" r="394" s="70" spans="1:14"/>
-    <row hidden="1" r="395" s="70" spans="1:14"/>
-    <row hidden="1" r="396" s="70" spans="1:14"/>
-    <row hidden="1" r="397" s="70" spans="1:14"/>
-    <row hidden="1" r="398" s="70" spans="1:14"/>
-    <row hidden="1" r="399" s="70" spans="1:14"/>
-    <row hidden="1" r="400" s="70" spans="1:14"/>
-    <row hidden="1" r="401" s="70" spans="1:14"/>
-    <row hidden="1" r="402" s="70" spans="1:14"/>
-    <row hidden="1" r="403" s="70" spans="1:14"/>
-    <row hidden="1" r="404" s="70" spans="1:14"/>
-    <row hidden="1" r="405" s="70" spans="1:14"/>
-    <row hidden="1" r="406" s="70" spans="1:14"/>
-    <row hidden="1" r="407" s="70" spans="1:14"/>
-    <row hidden="1" r="408" s="70" spans="1:14"/>
-    <row hidden="1" r="409" s="70" spans="1:14"/>
-    <row hidden="1" r="410" s="70" spans="1:14"/>
-    <row hidden="1" r="411" s="70" spans="1:14"/>
-    <row hidden="1" r="412" s="70" spans="1:14"/>
-    <row hidden="1" r="413" s="70" spans="1:14"/>
-    <row hidden="1" r="414" s="70" spans="1:14"/>
-    <row hidden="1" r="415" s="70" spans="1:14"/>
-    <row hidden="1" r="416" s="70" spans="1:14"/>
-    <row hidden="1" r="417" s="70" spans="1:14"/>
-    <row hidden="1" r="418" s="70" spans="1:14"/>
-    <row hidden="1" r="419" s="70" spans="1:14"/>
-    <row hidden="1" r="420" s="70" spans="1:14"/>
-    <row hidden="1" r="421" s="70" spans="1:14"/>
-    <row hidden="1" r="422" s="70" spans="1:14"/>
-    <row hidden="1" r="423" s="70" spans="1:14"/>
-    <row hidden="1" r="424" s="70" spans="1:14"/>
-    <row hidden="1" r="425" s="70" spans="1:14"/>
-    <row hidden="1" r="426" s="70" spans="1:14"/>
-    <row hidden="1" r="427" s="70" spans="1:14"/>
-    <row hidden="1" r="428" s="70" spans="1:14"/>
-    <row hidden="1" r="429" s="70" spans="1:14"/>
-    <row hidden="1" r="430" s="70" spans="1:14"/>
-    <row hidden="1" r="431" s="70" spans="1:14"/>
-    <row hidden="1" r="432" s="70" spans="1:14"/>
-    <row hidden="1" r="433" s="70" spans="1:14"/>
-    <row hidden="1" r="434" s="70" spans="1:14"/>
-    <row hidden="1" r="435" s="70" spans="1:14"/>
-    <row hidden="1" r="436" s="70" spans="1:14"/>
-    <row hidden="1" r="437" s="70" spans="1:14"/>
-    <row hidden="1" r="438" s="70" spans="1:14"/>
-    <row hidden="1" r="439" s="70" spans="1:14"/>
-    <row hidden="1" r="440" s="70" spans="1:14"/>
-    <row hidden="1" r="441" s="70" spans="1:14"/>
-    <row hidden="1" r="442" s="70" spans="1:14"/>
-    <row hidden="1" r="443" s="70" spans="1:14"/>
-    <row hidden="1" r="444" s="70" spans="1:14"/>
-    <row hidden="1" r="445" s="70" spans="1:14"/>
-    <row hidden="1" r="446" s="70" spans="1:14"/>
-    <row hidden="1" r="447" s="70" spans="1:14"/>
-    <row hidden="1" r="448" s="70" spans="1:14"/>
-    <row hidden="1" r="449" s="70" spans="1:14"/>
-    <row hidden="1" r="450" s="70" spans="1:14"/>
-    <row hidden="1" r="451" s="70" spans="1:14"/>
-    <row hidden="1" r="452" s="70" spans="1:14"/>
-    <row hidden="1" r="453" s="70" spans="1:14"/>
-    <row hidden="1" r="454" s="70" spans="1:14"/>
-    <row hidden="1" r="455" s="70" spans="1:14"/>
-    <row hidden="1" r="456" s="70" spans="1:14"/>
-    <row hidden="1" r="457" s="70" spans="1:14"/>
-    <row hidden="1" r="458" s="70" spans="1:14"/>
-    <row hidden="1" r="459" s="70" spans="1:14"/>
-    <row hidden="1" r="460" s="70" spans="1:14"/>
-    <row hidden="1" r="461" s="70" spans="1:14"/>
-    <row hidden="1" r="462" s="70" spans="1:14"/>
-    <row hidden="1" r="463" s="70" spans="1:14"/>
-    <row hidden="1" r="464" s="70" spans="1:14"/>
-    <row hidden="1" r="465" s="70" spans="1:14"/>
-    <row hidden="1" r="466" s="70" spans="1:14"/>
-    <row hidden="1" r="467" s="70" spans="1:14"/>
-    <row hidden="1" r="468" s="70" spans="1:14"/>
-    <row hidden="1" r="469" s="70" spans="1:14"/>
-    <row hidden="1" r="470" s="70" spans="1:14"/>
-    <row hidden="1" r="471" s="70" spans="1:14"/>
-    <row hidden="1" r="472" s="70" spans="1:14"/>
-    <row hidden="1" r="473" s="70" spans="1:14"/>
-    <row hidden="1" r="474" s="70" spans="1:14"/>
-    <row hidden="1" r="475" s="70" spans="1:14"/>
-    <row hidden="1" r="476" s="70" spans="1:14"/>
-    <row hidden="1" r="477" s="70" spans="1:14"/>
-    <row hidden="1" r="478" s="70" spans="1:14"/>
-    <row hidden="1" r="479" s="70" spans="1:14"/>
-    <row hidden="1" r="480" s="70" spans="1:14"/>
-    <row hidden="1" r="481" s="70" spans="1:14"/>
-    <row hidden="1" r="482" s="70" spans="1:14"/>
-    <row hidden="1" r="483" s="70" spans="1:14"/>
-    <row hidden="1" r="484" s="70" spans="1:14"/>
-    <row hidden="1" r="485" s="70" spans="1:14"/>
-    <row hidden="1" r="486" s="70" spans="1:14"/>
-    <row hidden="1" r="487" s="70" spans="1:14"/>
-    <row hidden="1" r="488" s="70" spans="1:14"/>
-    <row hidden="1" r="489" s="70" spans="1:14"/>
-    <row hidden="1" r="490" s="70" spans="1:14"/>
-    <row hidden="1" r="491" s="70" spans="1:14"/>
-    <row hidden="1" r="492" s="70" spans="1:14"/>
-    <row hidden="1" r="493" s="70" spans="1:14"/>
-    <row hidden="1" r="494" s="70" spans="1:14"/>
-    <row hidden="1" r="495" s="70" spans="1:14"/>
-    <row hidden="1" r="496" s="70" spans="1:14"/>
-    <row hidden="1" r="497" s="70" spans="1:14"/>
-    <row hidden="1" r="498" s="70" spans="1:14"/>
-    <row hidden="1" r="499" s="70" spans="1:14"/>
-    <row hidden="1" r="500" s="70" spans="1:14"/>
-    <row hidden="1" r="501" s="70" spans="1:14"/>
-    <row hidden="1" r="502" s="70" spans="1:14"/>
-    <row hidden="1" r="503" s="70" spans="1:14"/>
-    <row hidden="1" r="504" s="70" spans="1:14"/>
-    <row hidden="1" r="505" s="70" spans="1:14"/>
-    <row hidden="1" r="506" s="70" spans="1:14"/>
-    <row hidden="1" r="507" s="70" spans="1:14"/>
-    <row hidden="1" r="508" s="70" spans="1:14"/>
-    <row hidden="1" r="509" s="70" spans="1:14"/>
-    <row hidden="1" r="510" s="70" spans="1:14"/>
-    <row hidden="1" r="511" s="70" spans="1:14"/>
-    <row hidden="1" r="512" s="70" spans="1:14"/>
-    <row hidden="1" r="513" s="70" spans="1:14"/>
-    <row hidden="1" r="514" s="70" spans="1:14"/>
-    <row hidden="1" r="515" s="70" spans="1:14"/>
-    <row hidden="1" r="516" s="70" spans="1:14"/>
-    <row hidden="1" r="517" s="70" spans="1:14"/>
-    <row hidden="1" r="518" s="70" spans="1:14"/>
-    <row hidden="1" r="519" s="70" spans="1:14"/>
-    <row hidden="1" r="520" s="70" spans="1:14"/>
-    <row hidden="1" r="521" s="70" spans="1:14"/>
-    <row hidden="1" r="522" s="70" spans="1:14"/>
+      <c r="N245" s="54" t="n"/>
+      <c r="O245" s="10" t="n"/>
+    </row>
+    <row r="246" hidden="1" s="70"/>
+    <row r="247" hidden="1" s="70"/>
+    <row r="248" hidden="1" s="70"/>
+    <row r="249" hidden="1" s="70"/>
+    <row r="250" hidden="1" s="70"/>
+    <row r="251" hidden="1" s="70"/>
+    <row r="252" hidden="1" s="70"/>
+    <row r="253" hidden="1" s="70"/>
+    <row r="254" hidden="1" s="70"/>
+    <row r="255" hidden="1" s="70"/>
+    <row r="256" hidden="1" s="70"/>
+    <row r="257" hidden="1" s="70"/>
+    <row r="258" hidden="1" s="70"/>
+    <row r="259" hidden="1" s="70"/>
+    <row r="260" hidden="1" s="70"/>
+    <row r="261" hidden="1" s="70"/>
+    <row r="262" hidden="1" s="70"/>
+    <row r="263" hidden="1" s="70"/>
+    <row r="264" hidden="1" s="70"/>
+    <row r="265" hidden="1" s="70"/>
+    <row r="266" hidden="1" s="70"/>
+    <row r="267" hidden="1" s="70"/>
+    <row r="268" hidden="1" s="70"/>
+    <row r="269" hidden="1" s="70"/>
+    <row r="270" hidden="1" s="70"/>
+    <row r="271" hidden="1" s="70"/>
+    <row r="272" hidden="1" s="70"/>
+    <row r="273" hidden="1" s="70"/>
+    <row r="274" hidden="1" s="70"/>
+    <row r="275" hidden="1" s="70"/>
+    <row r="276" hidden="1" s="70"/>
+    <row r="277" hidden="1" s="70"/>
+    <row r="278" hidden="1" s="70"/>
+    <row r="279" hidden="1" s="70"/>
+    <row r="280" hidden="1" s="70"/>
+    <row r="281" hidden="1" s="70"/>
+    <row r="282" hidden="1" s="70"/>
+    <row r="283" hidden="1" s="70"/>
+    <row r="284" hidden="1" s="70"/>
+    <row r="285" hidden="1" s="70"/>
+    <row r="286" hidden="1" s="70"/>
+    <row r="287" hidden="1" s="70"/>
+    <row r="288" hidden="1" s="70"/>
+    <row r="289" hidden="1" s="70"/>
+    <row r="290" hidden="1" s="70"/>
+    <row r="291" hidden="1" s="70"/>
+    <row r="292" hidden="1" s="70"/>
+    <row r="293" hidden="1" s="70"/>
+    <row r="294" hidden="1" s="70"/>
+    <row r="295" hidden="1" s="70"/>
+    <row r="296" hidden="1" s="70"/>
+    <row r="297" hidden="1" s="70"/>
+    <row r="298" hidden="1" s="70"/>
+    <row r="299" hidden="1" s="70"/>
+    <row r="300" hidden="1" s="70"/>
+    <row r="301" hidden="1" s="70"/>
+    <row r="302" hidden="1" s="70"/>
+    <row r="303" hidden="1" s="70"/>
+    <row r="304" hidden="1" s="70"/>
+    <row r="305" hidden="1" s="70"/>
+    <row r="306" hidden="1" s="70"/>
+    <row r="307" hidden="1" s="70"/>
+    <row r="308" hidden="1" s="70"/>
+    <row r="309" hidden="1" s="70"/>
+    <row r="310" hidden="1" s="70"/>
+    <row r="311" hidden="1" s="70"/>
+    <row r="312" hidden="1" s="70"/>
+    <row r="313" hidden="1" s="70"/>
+    <row r="314" hidden="1" s="70"/>
+    <row r="315" hidden="1" s="70"/>
+    <row r="316" hidden="1" s="70"/>
+    <row r="317" hidden="1" s="70"/>
+    <row r="318" hidden="1" s="70"/>
+    <row r="319" hidden="1" s="70"/>
+    <row r="320" hidden="1" s="70"/>
+    <row r="321" hidden="1" s="70"/>
+    <row r="322" hidden="1" s="70"/>
+    <row r="323" hidden="1" s="70"/>
+    <row r="324" hidden="1" s="70"/>
+    <row r="325" hidden="1" s="70"/>
+    <row r="326" hidden="1" s="70"/>
+    <row r="327" hidden="1" s="70"/>
+    <row r="328" hidden="1" s="70"/>
+    <row r="329" hidden="1" s="70"/>
+    <row r="330" hidden="1" s="70"/>
+    <row r="331" hidden="1" s="70"/>
+    <row r="332" hidden="1" s="70"/>
+    <row r="333" hidden="1" s="70"/>
+    <row r="334" hidden="1" s="70"/>
+    <row r="335" hidden="1" s="70"/>
+    <row r="336" hidden="1" s="70"/>
+    <row r="337" hidden="1" s="70"/>
+    <row r="338" hidden="1" s="70"/>
+    <row r="339" hidden="1" s="70"/>
+    <row r="340" hidden="1" s="70"/>
+    <row r="341" hidden="1" s="70"/>
+    <row r="342" hidden="1" s="70"/>
+    <row r="343" hidden="1" s="70"/>
+    <row r="344" hidden="1" s="70"/>
+    <row r="345" hidden="1" s="70"/>
+    <row r="346" hidden="1" s="70"/>
+    <row r="347" hidden="1" s="70"/>
+    <row r="348" hidden="1" s="70"/>
+    <row r="349" hidden="1" s="70"/>
+    <row r="350" hidden="1" s="70"/>
+    <row r="351" hidden="1" s="70"/>
+    <row r="352" hidden="1" s="70"/>
+    <row r="353" hidden="1" s="70"/>
+    <row r="354" hidden="1" s="70"/>
+    <row r="355" hidden="1" s="70"/>
+    <row r="356" hidden="1" s="70"/>
+    <row r="357" hidden="1" s="70"/>
+    <row r="358" hidden="1" s="70"/>
+    <row r="359" hidden="1" s="70"/>
+    <row r="360" hidden="1" s="70"/>
+    <row r="361" hidden="1" s="70"/>
+    <row r="362" hidden="1" s="70"/>
+    <row r="363" hidden="1" s="70"/>
+    <row r="364" hidden="1" s="70"/>
+    <row r="365" hidden="1" s="70"/>
+    <row r="366" hidden="1" s="70"/>
+    <row r="367" hidden="1" s="70"/>
+    <row r="368" hidden="1" s="70"/>
+    <row r="369" hidden="1" s="70"/>
+    <row r="370" hidden="1" s="70"/>
+    <row r="371" hidden="1" s="70"/>
+    <row r="372" hidden="1" s="70"/>
+    <row r="373" hidden="1" s="70"/>
+    <row r="374" hidden="1" s="70"/>
+    <row r="375" hidden="1" s="70"/>
+    <row r="376" hidden="1" s="70"/>
+    <row r="377" hidden="1" s="70"/>
+    <row r="378" hidden="1" s="70"/>
+    <row r="379" hidden="1" s="70"/>
+    <row r="380" hidden="1" s="70"/>
+    <row r="381" hidden="1" s="70"/>
+    <row r="382" hidden="1" s="70"/>
+    <row r="383" hidden="1" s="70"/>
+    <row r="384" hidden="1" s="70"/>
+    <row r="385" hidden="1" s="70"/>
+    <row r="386" hidden="1" s="70"/>
+    <row r="387" hidden="1" s="70"/>
+    <row r="388" hidden="1" s="70"/>
+    <row r="389" hidden="1" s="70"/>
+    <row r="390" hidden="1" s="70"/>
+    <row r="391" hidden="1" s="70"/>
+    <row r="392" hidden="1" s="70"/>
+    <row r="393" hidden="1" s="70"/>
+    <row r="394" hidden="1" s="70"/>
+    <row r="395" hidden="1" s="70"/>
+    <row r="396" hidden="1" s="70"/>
+    <row r="397" hidden="1" s="70"/>
+    <row r="398" hidden="1" s="70"/>
+    <row r="399" hidden="1" s="70"/>
+    <row r="400" hidden="1" s="70"/>
+    <row r="401" hidden="1" s="70"/>
+    <row r="402" hidden="1" s="70"/>
+    <row r="403" hidden="1" s="70"/>
+    <row r="404" hidden="1" s="70"/>
+    <row r="405" hidden="1" s="70"/>
+    <row r="406" hidden="1" s="70"/>
+    <row r="407" hidden="1" s="70"/>
+    <row r="408" hidden="1" s="70"/>
+    <row r="409" hidden="1" s="70"/>
+    <row r="410" hidden="1" s="70"/>
+    <row r="411" hidden="1" s="70"/>
+    <row r="412" hidden="1" s="70"/>
+    <row r="413" hidden="1" s="70"/>
+    <row r="414" hidden="1" s="70"/>
+    <row r="415" hidden="1" s="70"/>
+    <row r="416" hidden="1" s="70"/>
+    <row r="417" hidden="1" s="70"/>
+    <row r="418" hidden="1" s="70"/>
+    <row r="419" hidden="1" s="70"/>
+    <row r="420" hidden="1" s="70"/>
+    <row r="421" hidden="1" s="70"/>
+    <row r="422" hidden="1" s="70"/>
+    <row r="423" hidden="1" s="70"/>
+    <row r="424" hidden="1" s="70"/>
+    <row r="425" hidden="1" s="70"/>
+    <row r="426" hidden="1" s="70"/>
+    <row r="427" hidden="1" s="70"/>
+    <row r="428" hidden="1" s="70"/>
+    <row r="429" hidden="1" s="70"/>
+    <row r="430" hidden="1" s="70"/>
+    <row r="431" hidden="1" s="70"/>
+    <row r="432" hidden="1" s="70"/>
+    <row r="433" hidden="1" s="70"/>
+    <row r="434" hidden="1" s="70"/>
+    <row r="435" hidden="1" s="70"/>
+    <row r="436" hidden="1" s="70"/>
+    <row r="437" hidden="1" s="70"/>
+    <row r="438" hidden="1" s="70"/>
+    <row r="439" hidden="1" s="70"/>
+    <row r="440" hidden="1" s="70"/>
+    <row r="441" hidden="1" s="70"/>
+    <row r="442" hidden="1" s="70"/>
+    <row r="443" hidden="1" s="70"/>
+    <row r="444" hidden="1" s="70"/>
+    <row r="445" hidden="1" s="70"/>
+    <row r="446" hidden="1" s="70"/>
+    <row r="447" hidden="1" s="70"/>
+    <row r="448" hidden="1" s="70"/>
+    <row r="449" hidden="1" s="70"/>
+    <row r="450" hidden="1" s="70"/>
+    <row r="451" hidden="1" s="70"/>
+    <row r="452" hidden="1" s="70"/>
+    <row r="453" hidden="1" s="70"/>
+    <row r="454" hidden="1" s="70"/>
+    <row r="455" hidden="1" s="70"/>
+    <row r="456" hidden="1" s="70"/>
+    <row r="457" hidden="1" s="70"/>
+    <row r="458" hidden="1" s="70"/>
+    <row r="459" hidden="1" s="70"/>
+    <row r="460" hidden="1" s="70"/>
+    <row r="461" hidden="1" s="70"/>
+    <row r="462" hidden="1" s="70"/>
+    <row r="463" hidden="1" s="70"/>
+    <row r="464" hidden="1" s="70"/>
+    <row r="465" hidden="1" s="70"/>
+    <row r="466" hidden="1" s="70"/>
+    <row r="467" hidden="1" s="70"/>
+    <row r="468" hidden="1" s="70"/>
+    <row r="469" hidden="1" s="70"/>
+    <row r="470" hidden="1" s="70"/>
+    <row r="471" hidden="1" s="70"/>
+    <row r="472" hidden="1" s="70"/>
+    <row r="473" hidden="1" s="70"/>
+    <row r="474" hidden="1" s="70"/>
+    <row r="475" hidden="1" s="70"/>
+    <row r="476" hidden="1" s="70"/>
+    <row r="477" hidden="1" s="70"/>
+    <row r="478" hidden="1" s="70"/>
+    <row r="479" hidden="1" s="70"/>
+    <row r="480" hidden="1" s="70"/>
+    <row r="481" hidden="1" s="70"/>
+    <row r="482" hidden="1" s="70"/>
+    <row r="483" hidden="1" s="70"/>
+    <row r="484" hidden="1" s="70"/>
+    <row r="485" hidden="1" s="70"/>
+    <row r="486" hidden="1" s="70"/>
+    <row r="487" hidden="1" s="70"/>
+    <row r="488" hidden="1" s="70"/>
+    <row r="489" hidden="1" s="70"/>
+    <row r="490" hidden="1" s="70"/>
+    <row r="491" hidden="1" s="70"/>
+    <row r="492" hidden="1" s="70"/>
+    <row r="493" hidden="1" s="70"/>
+    <row r="494" hidden="1" s="70"/>
+    <row r="495" hidden="1" s="70"/>
+    <row r="496" hidden="1" s="70"/>
+    <row r="497" hidden="1" s="70"/>
+    <row r="498" hidden="1" s="70"/>
+    <row r="499" hidden="1" s="70"/>
+    <row r="500" hidden="1" s="70"/>
+    <row r="501" hidden="1" s="70"/>
+    <row r="502" hidden="1" s="70"/>
+    <row r="503" hidden="1" s="70"/>
+    <row r="504" hidden="1" s="70"/>
+    <row r="505" hidden="1" s="70"/>
+    <row r="506" hidden="1" s="70"/>
+    <row r="507" hidden="1" s="70"/>
+    <row r="508" hidden="1" s="70"/>
+    <row r="509" hidden="1" s="70"/>
+    <row r="510" hidden="1" s="70"/>
+    <row r="511" hidden="1" s="70"/>
+    <row r="512" hidden="1" s="70"/>
+    <row r="513" hidden="1" s="70"/>
+    <row r="514" hidden="1" s="70"/>
+    <row r="515" hidden="1" s="70"/>
+    <row r="516" hidden="1" s="70"/>
+    <row r="517" hidden="1" s="70"/>
+    <row r="518" hidden="1" s="70"/>
+    <row r="519" hidden="1" s="70"/>
+    <row r="520" hidden="1" s="70"/>
+    <row r="521" hidden="1" s="70"/>
+    <row r="522" hidden="1" s="70"/>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="29" verticalDpi="300"/>
+  <pageMargins left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="29" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>